--- a/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
@@ -768,10 +768,10 @@
         <v>143.5781541528725</v>
       </c>
       <c r="R2" t="n">
-        <v>0.09389480630077021</v>
+        <v>0.1117249952005029</v>
       </c>
       <c r="S2" t="n">
-        <v>0.557122294849115</v>
+        <v>0.6629172386673313</v>
       </c>
       <c r="T2" t="n">
         <v>0.07499675172412429</v>
@@ -789,7 +789,7 @@
         <v>0.1988137208558769</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4945140784284927</v>
+        <v>0.5884200118803723</v>
       </c>
       <c r="Z2" t="n">
         <v>2.18165867208891</v>
@@ -918,10 +918,10 @@
         <v>123.5853141391516</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1259757315507184</v>
+        <v>0.1386382785331898</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6749692520700614</v>
+        <v>0.742814302548056</v>
       </c>
       <c r="T3" t="n">
         <v>0.1139153062048636</v>
@@ -939,7 +939,7 @@
         <v>0.1834047639562364</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6634975005541229</v>
+        <v>0.7301894591567722</v>
       </c>
       <c r="Z3" t="n">
         <v>2.803773182186938</v>
@@ -1049,10 +1049,10 @@
         <v>123.5853141391516</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1861566291580734</v>
+        <v>0.1949486545591022</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9974143369044169</v>
+        <v>1.044521400590919</v>
       </c>
       <c r="T4" t="n">
         <v>0.1782164488129691</v>
@@ -1070,7 +1070,7 @@
         <v>0.1834047639562364</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9804623210958296</v>
+        <v>1.026768754934972</v>
       </c>
       <c r="Z4" t="n">
         <v>2.803773182186938</v>
@@ -1175,10 +1175,10 @@
         <v>142.4049296620252</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1229355350661321</v>
+        <v>0.1368168541325278</v>
       </c>
       <c r="S5" t="n">
-        <v>0.725640112171313</v>
+        <v>0.8075760790095958</v>
       </c>
       <c r="T5" t="n">
         <v>0.1094775038278818</v>
@@ -1196,7 +1196,7 @@
         <v>0.2017290603468786</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6474637310611581</v>
+        <v>0.7205723780438563</v>
       </c>
       <c r="Z5" t="n">
         <v>2.316179518923088</v>
@@ -1319,10 +1319,10 @@
         <v>152.3324762989147</v>
       </c>
       <c r="R6" t="n">
-        <v>0.09790263068692777</v>
+        <v>0.1155187876435189</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6019455046306895</v>
+        <v>0.710256858620737</v>
       </c>
       <c r="T6" t="n">
         <v>0.07947253438635964</v>
@@ -1340,7 +1340,7 @@
         <v>0.2123810820879944</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5156137615635333</v>
+        <v>0.6083909718279598</v>
       </c>
       <c r="Z6" t="n">
         <v>2.228367536626836</v>
@@ -1463,10 +1463,10 @@
         <v>187.6553407366093</v>
       </c>
       <c r="R7" t="n">
-        <v>0.148202338580556</v>
+        <v>0.1626348405871427</v>
       </c>
       <c r="S7" t="n">
-        <v>1.018586022426446</v>
+        <v>1.117779766286029</v>
       </c>
       <c r="T7" t="n">
         <v>0.134187008699583</v>
@@ -1484,7 +1484,7 @@
         <v>0.2411860168166412</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7804687835354457</v>
+        <v>0.8564737736883568</v>
       </c>
       <c r="Z7" t="n">
         <v>1.736547772340493</v>
@@ -1582,10 +1582,10 @@
         <v>145.0425974091273</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1836205355906267</v>
+        <v>0.1930094626903336</v>
       </c>
       <c r="S8" t="n">
-        <v>1.109357984179921</v>
+        <v>1.166081929611407</v>
       </c>
       <c r="T8" t="n">
         <v>0.1751154527424282</v>
@@ -1603,7 +1603,7 @@
         <v>0.2078110343630772</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.96706838867865</v>
+        <v>1.016516750064425</v>
       </c>
       <c r="Z8" t="n">
         <v>2.611695147552031</v>
@@ -1708,10 +1708,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1437467821986166</v>
+        <v>0.1558049236940696</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8886386728191763</v>
+        <v>0.9631817734805855</v>
       </c>
       <c r="T9" t="n">
         <v>0.1324552886800389</v>
@@ -1729,7 +1729,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7570589179110462</v>
+        <v>0.8205645033087953</v>
       </c>
       <c r="Z9" t="n">
         <v>2.559518810463633</v>
@@ -1834,10 +1834,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2394502601684533</v>
+        <v>0.2468774269745986</v>
       </c>
       <c r="S10" t="n">
-        <v>1.48027495396936</v>
+        <v>1.526189495863593</v>
       </c>
       <c r="T10" t="n">
         <v>0.2328469308399745</v>
@@ -1855,7 +1855,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.261092262964008</v>
+        <v>1.300208288932757</v>
       </c>
       <c r="Z10" t="n">
         <v>2.559518810463633</v>
@@ -1960,10 +1960,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1577355276030682</v>
+        <v>0.1687973149166674</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9751167140002389</v>
+        <v>1.043500380382299</v>
       </c>
       <c r="T11" t="n">
         <v>0.1475186861894933</v>
@@ -1981,7 +1981,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8307322502587191</v>
+        <v>0.8889904220640855</v>
       </c>
       <c r="Z11" t="n">
         <v>2.559518810463633</v>
@@ -2091,10 +2091,10 @@
         <v>192.4198323261162</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1003944182929849</v>
+        <v>0.1201171768702458</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7149622517816325</v>
+        <v>0.8554185453037726</v>
       </c>
       <c r="T12" t="n">
         <v>0.07919306793699592</v>
@@ -2112,7 +2112,7 @@
         <v>0.2505004184883252</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.5286957778228331</v>
+        <v>0.6325595121231445</v>
       </c>
       <c r="Z12" t="n">
         <v>1.615091729727736</v>
@@ -2236,10 +2236,10 @@
         <v>159.4294446065069</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1309527769714229</v>
+        <v>0.1447958976737194</v>
       </c>
       <c r="S13" t="n">
-        <v>0.827936617866505</v>
+        <v>0.9154584467275934</v>
       </c>
       <c r="T13" t="n">
         <v>0.1176391127417782</v>
@@ -2257,7 +2257,7 @@
         <v>0.2257669438705284</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.6896664538064975</v>
+        <v>0.7625716352403478</v>
       </c>
       <c r="Z13" t="n">
         <v>2.574200330803404</v>
@@ -2386,10 +2386,10 @@
         <v>162.696380646359</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1808811339077385</v>
+        <v>0.1907008377397496</v>
       </c>
       <c r="S14" t="n">
-        <v>1.19177254542978</v>
+        <v>1.256471683357629</v>
       </c>
       <c r="T14" t="n">
         <v>0.1720035906009942</v>
@@ -2407,7 +2407,7 @@
         <v>0.2322136979644548</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9526096577618735</v>
+        <v>1.004325082718831</v>
       </c>
       <c r="Z14" t="n">
         <v>2.721074765720185</v>
@@ -2520,10 +2520,10 @@
         <v>236.2062132450272</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08136016645899993</v>
+        <v>0.109409715095083</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6292229239426154</v>
+        <v>0.8461524089254281</v>
       </c>
       <c r="T15" t="n">
         <v>0.04342301811504145</v>
@@ -2541,7 +2541,7 @@
         <v>0.2981269094853483</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.4284172923636057</v>
+        <v>0.5761174778683598</v>
       </c>
       <c r="Z15" t="n">
         <v>1.868830615026467</v>
@@ -2670,10 +2670,10 @@
         <v>135.8414770002599</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2684265577447479</v>
+        <v>0.2743906225240224</v>
       </c>
       <c r="S16" t="n">
-        <v>1.56645087511944</v>
+        <v>1.601255234908785</v>
       </c>
       <c r="T16" t="n">
         <v>0.2632679772061057</v>
@@ -2691,7 +2691,7 @@
         <v>0.2156321914866056</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.413736884627237</v>
+        <v>1.445148151945966</v>
       </c>
       <c r="Z16" t="n">
         <v>1.993796742483795</v>
@@ -2801,10 +2801,10 @@
         <v>203.1306574639146</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1470537097125305</v>
+        <v>0.1618128878235748</v>
       </c>
       <c r="S17" t="n">
-        <v>1.065243911131356</v>
+        <v>1.172158076349136</v>
       </c>
       <c r="T17" t="n">
         <v>0.1328220174039462</v>
@@ -2822,7 +2822,7 @@
         <v>0.2729424054078003</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.7743951381043302</v>
+        <v>0.8521180040826958</v>
       </c>
       <c r="Z17" t="n">
         <v>2.005730181042971</v>
@@ -2940,10 +2940,10 @@
         <v>249.3908228905306</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08605887663526507</v>
+        <v>0.1137347082056103</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6894262387675165</v>
+        <v>0.9111400841059024</v>
       </c>
       <c r="T18" t="n">
         <v>0.05016526836124941</v>
@@ -2961,7 +2961,7 @@
         <v>0.3110687551322458</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.4531453662039213</v>
+        <v>0.5988732134903108</v>
       </c>
       <c r="Z18" t="n">
         <v>1.905410952608699</v>
@@ -3095,10 +3095,10 @@
         <v>220.9488316052588</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1325205970114299</v>
+        <v>0.1498632051209512</v>
       </c>
       <c r="S19" t="n">
-        <v>1.002327292116447</v>
+        <v>1.133499123640524</v>
       </c>
       <c r="T19" t="n">
         <v>0.1151930164008232</v>
@@ -3116,7 +3116,7 @@
         <v>0.2910348595471279</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6978360313138202</v>
+        <v>0.7891599242686297</v>
       </c>
       <c r="Z19" t="n">
         <v>2.023241853551796</v>
@@ -3226,10 +3226,10 @@
         <v>197.6108576999949</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07122788044864736</v>
+        <v>0.09666948165170583</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5190580025232407</v>
+        <v>0.7044582505479338</v>
       </c>
       <c r="T20" t="n">
         <v>0.03707916719312158</v>
@@ -3247,7 +3247,7 @@
         <v>0.2713711300321883</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3750953282808846</v>
+        <v>0.5090741255600304</v>
       </c>
       <c r="Z20" t="n">
         <v>2.692255921705275</v>
@@ -3373,10 +3373,10 @@
         <v>247.5368920360654</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1336082754956453</v>
+        <v>0.1527303645099951</v>
       </c>
       <c r="S21" t="n">
-        <v>1.06616931995387</v>
+        <v>1.218760052563028</v>
       </c>
       <c r="T21" t="n">
         <v>0.1140987493424382</v>
@@ -3394,7 +3394,7 @@
         <v>0.31266588263643</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7035210962963834</v>
+        <v>0.8042094180110877</v>
       </c>
       <c r="Z21" t="n">
         <v>1.830450382631331</v>
@@ -3517,10 +3517,10 @@
         <v>232.0943657408344</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08684805313214225</v>
+        <v>0.1124229864271449</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6743765173470957</v>
+        <v>0.8729662821703333</v>
       </c>
       <c r="T22" t="n">
         <v>0.05542134446754076</v>
@@ -3538,7 +3538,7 @@
         <v>0.3028590455488905</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.4573190653325758</v>
+        <v>0.5919899551062117</v>
       </c>
       <c r="Z22" t="n">
         <v>1.996487126693565</v>
@@ -3651,10 +3651,10 @@
         <v>233.2035643020673</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1160915137304287</v>
+        <v>0.1350409959040313</v>
       </c>
       <c r="S23" t="n">
-        <v>0.9416408367405514</v>
+        <v>1.095343770541425</v>
       </c>
       <c r="T23" t="n">
         <v>0.09665232098183901</v>
@@ -3672,7 +3672,7 @@
         <v>0.3016979981793136</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.6113059231773322</v>
+        <v>0.7110886749189029</v>
       </c>
       <c r="Z23" t="n">
         <v>2.289994311244139</v>
@@ -3790,10 +3790,10 @@
         <v>229.936910321767</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1709963199411343</v>
+        <v>0.1850322869238999</v>
       </c>
       <c r="S24" t="n">
-        <v>1.32891277259645</v>
+        <v>1.43799451076228</v>
       </c>
       <c r="T24" t="n">
         <v>0.1576906114059104</v>
@@ -3811,7 +3811,7 @@
         <v>0.3020079382929376</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9004261419762271</v>
+        <v>0.9743362214653535</v>
       </c>
       <c r="Z24" t="n">
         <v>2.013975905790975</v>
@@ -3921,10 +3921,10 @@
         <v>221.3691085162</v>
       </c>
       <c r="R25" t="n">
-        <v>0.08060099511648956</v>
+        <v>0.1051845472961925</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6338468422935803</v>
+        <v>0.8271720847294067</v>
       </c>
       <c r="T25" t="n">
         <v>0.05038807656028661</v>
@@ -3942,7 +3942,7 @@
         <v>0.293826991436123</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.4244338454065625</v>
+        <v>0.5538874777135112</v>
       </c>
       <c r="Z25" t="n">
         <v>2.292449366349665</v>
@@ -4076,10 +4076,10 @@
         <v>239.9191547480468</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1127681731538482</v>
+        <v>0.1326197361239917</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9284749654172852</v>
+        <v>1.091922494331644</v>
       </c>
       <c r="T26" t="n">
         <v>0.09209382796657775</v>
@@ -4097,7 +4097,7 @@
         <v>0.3088865340670015</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.593797014321359</v>
+        <v>0.6983282707176269</v>
       </c>
       <c r="Z26" t="n">
         <v>2.35945338299386</v>
@@ -4226,10 +4226,10 @@
         <v>259.3173849157137</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0877841181788752</v>
+        <v>0.1150043149350568</v>
       </c>
       <c r="S27" t="n">
-        <v>0.7294099803952822</v>
+        <v>0.9555862363533906</v>
       </c>
       <c r="T27" t="n">
         <v>0.05342200157079672</v>
@@ -4247,7 +4247,7 @@
         <v>0.3262359797813806</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.4622187067021263</v>
+        <v>0.6055439960805798</v>
       </c>
       <c r="Z27" t="n">
         <v>1.93417898639118</v>
@@ -4381,10 +4381,10 @@
         <v>272.3753650437538</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1252006609613019</v>
+        <v>0.1471498731559998</v>
       </c>
       <c r="S28" t="n">
-        <v>1.044931162723233</v>
+        <v>1.228120417822723</v>
       </c>
       <c r="T28" t="n">
         <v>0.1019461794085843</v>
@@ -4402,7 +4402,7 @@
         <v>0.3407088993809207</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.6592106835165289</v>
+        <v>0.7747784054632079</v>
       </c>
       <c r="Z28" t="n">
         <v>1.603979339453181</v>
@@ -4525,10 +4525,10 @@
         <v>261.1434661768174</v>
       </c>
       <c r="R29" t="n">
-        <v>0.09729837565750728</v>
+        <v>0.1212170007237646</v>
       </c>
       <c r="S29" t="n">
-        <v>0.8383402684482589</v>
+        <v>1.044427435098838</v>
       </c>
       <c r="T29" t="n">
         <v>0.07010762510326199</v>
@@ -4546,7 +4546,7 @@
         <v>0.3298735097333443</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.5123128317240973</v>
+        <v>0.6382534597750217</v>
       </c>
       <c r="Z29" t="n">
         <v>2.292339313053484</v>
@@ -4670,10 +4670,10 @@
         <v>296.3069521563592</v>
       </c>
       <c r="R30" t="n">
-        <v>0.08838671485562914</v>
+        <v>0.1186242022993215</v>
       </c>
       <c r="S30" t="n">
-        <v>0.7834968123457137</v>
+        <v>1.051534549285856</v>
       </c>
       <c r="T30" t="n">
         <v>0.04782403089763312</v>
@@ -4691,7 +4691,7 @@
         <v>0.3598173993901568</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.4653479632256117</v>
+        <v>0.6245455668243621</v>
       </c>
       <c r="Z30" t="n">
         <v>1.422152235494093</v>
@@ -4820,10 +4820,10 @@
         <v>264.2461340196743</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1170986252010214</v>
+        <v>0.1378231216919157</v>
       </c>
       <c r="S31" t="n">
-        <v>1.014112396663402</v>
+        <v>1.193593315162176</v>
       </c>
       <c r="T31" t="n">
         <v>0.09546315865152941</v>
@@ -4841,7 +4841,7 @@
         <v>0.3348516321525572</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.6165639825183389</v>
+        <v>0.725685486465779</v>
       </c>
       <c r="Z31" t="n">
         <v>2.498153280108286</v>
@@ -4964,10 +4964,10 @@
         <v>267.4870722578276</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1187310252090601</v>
+        <v>0.1401332729399231</v>
       </c>
       <c r="S32" t="n">
-        <v>1.012005510775336</v>
+        <v>1.194427860860118</v>
       </c>
       <c r="T32" t="n">
         <v>0.09621448365161432</v>
@@ -4985,7 +4985,7 @@
         <v>0.3431249465522279</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.625154137696651</v>
+        <v>0.7378433333083197</v>
       </c>
       <c r="Z32" t="n">
         <v>1.909909692855773</v>
@@ -5109,10 +5109,10 @@
         <v>277.3751454749433</v>
       </c>
       <c r="R33" t="n">
-        <v>0.07965289192139138</v>
+        <v>0.1084617625363631</v>
       </c>
       <c r="S33" t="n">
-        <v>0.7135939999775276</v>
+        <v>0.9716867913511416</v>
       </c>
       <c r="T33" t="n">
         <v>0.04048975988998884</v>
@@ -5130,7 +5130,7 @@
         <v>0.3499869310089186</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.4193857783481348</v>
+        <v>0.5710692933436008</v>
       </c>
       <c r="Z33" t="n">
         <v>2.146171637580412</v>
@@ -5264,10 +5264,10 @@
         <v>315.1317766644796</v>
       </c>
       <c r="R34" t="n">
-        <v>0.08436981073084752</v>
+        <v>0.1170302998027779</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7727959666994614</v>
+        <v>1.07195385275587</v>
       </c>
       <c r="T34" t="n">
         <v>0.03642049993073456</v>
@@ -5285,7 +5285,7 @@
         <v>0.3838211691085254</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.4441765869781992</v>
+        <v>0.6161222680143749</v>
       </c>
       <c r="Z34" t="n">
         <v>1.480664521061823</v>
@@ -5419,10 +5419,10 @@
         <v>290.2729283453409</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1177009258616216</v>
+        <v>0.1406661154283962</v>
       </c>
       <c r="S35" t="n">
-        <v>1.048433260945048</v>
+        <v>1.252998079866031</v>
       </c>
       <c r="T35" t="n">
         <v>0.09310953159415146</v>
@@ -5440,7 +5440,7 @@
         <v>0.366936579636771</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.6196944574555682</v>
+        <v>0.7406060015642205</v>
       </c>
       <c r="Z35" t="n">
         <v>1.809112109480945</v>
@@ -5558,10 +5558,10 @@
         <v>283.9109932904865</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1080033288018369</v>
+        <v>0.1315823977983615</v>
       </c>
       <c r="S36" t="n">
-        <v>0.96652789500998</v>
+        <v>1.177538316413939</v>
       </c>
       <c r="T36" t="n">
         <v>0.0821820824875763</v>
@@ -5579,7 +5579,7 @@
         <v>0.3617455370614308</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.5686460730647568</v>
+        <v>0.6927917372784751</v>
       </c>
       <c r="Z36" t="n">
         <v>2.325997922194206</v>
@@ -5702,10 +5702,10 @@
         <v>308.8925094168035</v>
       </c>
       <c r="R37" t="n">
-        <v>0.0809686515267465</v>
+        <v>0.1113509609453344</v>
       </c>
       <c r="S37" t="n">
-        <v>0.775028246070732</v>
+        <v>1.065846328578727</v>
       </c>
       <c r="T37" t="n">
         <v>0.03876950340404173</v>
@@ -5723,7 +5723,7 @@
         <v>0.3857476056231248</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4262780609296054</v>
+        <v>0.5862327063548255</v>
       </c>
       <c r="Z37" t="n">
         <v>1.913899110729765</v>
@@ -5857,10 +5857,10 @@
         <v>377.2114570502922</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1112036780943719</v>
+        <v>0.1427691011657716</v>
       </c>
       <c r="S38" t="n">
-        <v>1.096574922083197</v>
+        <v>1.407840268141881</v>
       </c>
       <c r="T38" t="n">
         <v>0.07261398873108758</v>
@@ -5878,7 +5878,7 @@
         <v>0.4413157068529845</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.5853376718891782</v>
+        <v>0.7514871335745209</v>
       </c>
       <c r="Z38" t="n">
         <v>1.219423431934616</v>
@@ -6007,10 +6007,10 @@
         <v>385.5975527213724</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1037843437659212</v>
+        <v>0.1379152896680966</v>
       </c>
       <c r="S39" t="n">
-        <v>1.030384541778003</v>
+        <v>1.369241037640056</v>
       </c>
       <c r="T39" t="n">
         <v>0.05885158217820452</v>
@@ -6028,7 +6028,7 @@
         <v>0.4484821104354356</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.5462697911767963</v>
+        <v>0.725918320175542</v>
       </c>
       <c r="Z39" t="n">
         <v>1.258881347841275</v>
@@ -6157,10 +6157,10 @@
         <v>372.8628471243722</v>
       </c>
       <c r="R40" t="n">
-        <v>0.0857959015519015</v>
+        <v>0.1207010431442486</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8872845824462069</v>
+        <v>1.248266790486248</v>
       </c>
       <c r="T40" t="n">
         <v>0.03255445720288133</v>
@@ -6178,7 +6178,7 @@
         <v>0.4347514501334363</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4516062889338482</v>
+        <v>0.6353374599349997</v>
       </c>
       <c r="Z40" t="n">
         <v>1.302223015332145</v>
@@ -6307,10 +6307,10 @@
         <v>404.9089530971748</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1115250098734746</v>
+        <v>0.1453494315352453</v>
       </c>
       <c r="S41" t="n">
-        <v>1.131329883804335</v>
+        <v>1.474450938640137</v>
       </c>
       <c r="T41" t="n">
         <v>0.06882091578440135</v>
@@ -6328,7 +6328,7 @@
         <v>0.4656191008841957</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.5869742328080808</v>
+        <v>0.7649976553356318</v>
       </c>
       <c r="Z41" t="n">
         <v>1.206768580603251</v>
@@ -6457,10 +6457,10 @@
         <v>382.0396659492999</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1137967154294833</v>
+        <v>0.1450779646851058</v>
       </c>
       <c r="S42" t="n">
-        <v>1.12952987253714</v>
+        <v>1.440023065167122</v>
       </c>
       <c r="T42" t="n">
         <v>0.07617575925137543</v>
@@ -6478,7 +6478,7 @@
         <v>0.4520369448670143</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.5989770502773004</v>
+        <v>0.7636281154456306</v>
       </c>
       <c r="Z42" t="n">
         <v>1.30063214053304</v>
@@ -6591,10 +6591,10 @@
         <v>445.5341436142293</v>
       </c>
       <c r="R43" t="n">
-        <v>0.09102525592880763</v>
+        <v>0.1315484481729697</v>
       </c>
       <c r="S43" t="n">
-        <v>0.9989312399418354</v>
+        <v>1.443641691583105</v>
       </c>
       <c r="T43" t="n">
         <v>0.01832326989962269</v>
@@ -6612,7 +6612,7 @@
         <v>0.4952071191030444</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4790091800421417</v>
+        <v>0.692257480104575</v>
       </c>
       <c r="Z43" t="n">
         <v>1.101249100551098</v>
@@ -6741,10 +6741,10 @@
         <v>337.0345879482724</v>
       </c>
       <c r="R44" t="n">
-        <v>0.09039017656601284</v>
+        <v>0.1202755805951041</v>
       </c>
       <c r="S44" t="n">
-        <v>0.9070767119481528</v>
+        <v>1.206980474191085</v>
       </c>
       <c r="T44" t="n">
         <v>0.05231572499985591</v>
@@ -6762,7 +6762,7 @@
         <v>0.4168206389919381</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.475841798610899</v>
+        <v>0.6331677929354111</v>
       </c>
       <c r="Z44" t="n">
         <v>2.081212019701819</v>
@@ -6880,10 +6880,10 @@
         <v>310.2798095951699</v>
       </c>
       <c r="R45" t="n">
-        <v>0.08685972029971582</v>
+        <v>0.1153163666604056</v>
       </c>
       <c r="S45" t="n">
-        <v>0.8411339741174774</v>
+        <v>1.116703040663285</v>
       </c>
       <c r="T45" t="n">
         <v>0.05117390153133381</v>
@@ -6901,7 +6901,7 @@
         <v>0.402080181824932</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.457291203145955</v>
+        <v>0.6071071823694265</v>
       </c>
       <c r="Z45" t="n">
         <v>1.932155784020845</v>
@@ -7027,10 +7027,10 @@
         <v>353.2034139422175</v>
       </c>
       <c r="R46" t="n">
-        <v>0.09910418593304129</v>
+        <v>0.1276265877981719</v>
       </c>
       <c r="S46" t="n">
-        <v>1.028101905110566</v>
+        <v>1.323991886142067</v>
       </c>
       <c r="T46" t="n">
         <v>0.06534284673287913</v>
@@ -7048,7 +7048,7 @@
         <v>0.438086954274626</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.5216897004314285</v>
+        <v>0.6718331393236889</v>
       </c>
       <c r="Z46" t="n">
         <v>1.732996918768777</v>
@@ -7177,10 +7177,10 @@
         <v>513.0580779015858</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1169111682942184</v>
+        <v>0.1556547280759412</v>
       </c>
       <c r="S47" t="n">
-        <v>1.360430193662415</v>
+        <v>1.811267434501338</v>
       </c>
       <c r="T47" t="n">
         <v>0.06632541948809087</v>
@@ -7198,7 +7198,7 @@
         <v>0.5671329528751325</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.6150555943776026</v>
+        <v>0.8188808023327789</v>
       </c>
       <c r="Z47" t="n">
         <v>1.007526740184383</v>
@@ -7321,10 +7321,10 @@
         <v>618.5008542055614</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1069341886954889</v>
+        <v>0.1552750279735547</v>
       </c>
       <c r="S48" t="n">
-        <v>1.36872725783496</v>
+        <v>1.987476277149291</v>
       </c>
       <c r="T48" t="n">
         <v>0.01849807752632779</v>
@@ -7342,7 +7342,7 @@
         <v>0.6495667435386698</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.5622568816100959</v>
+        <v>0.816431621031359</v>
       </c>
       <c r="Z48" t="n">
         <v>0.7940434459215121</v>
@@ -7476,10 +7476,10 @@
         <v>587.1219162039769</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1180635333865802</v>
+        <v>0.1591369603278417</v>
       </c>
       <c r="S49" t="n">
-        <v>1.51952657809784</v>
+        <v>2.048158595966117</v>
       </c>
       <c r="T49" t="n">
         <v>0.06376283692419678</v>
@@ -7497,7 +7497,7 @@
         <v>0.6307122245851906</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.620886485674104</v>
+        <v>0.8368882855241039</v>
       </c>
       <c r="Z49" t="n">
         <v>0.9254049094633293</v>
@@ -7620,10 +7620,10 @@
         <v>658.5484268094187</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1173425876372177</v>
+        <v>0.1611476435393284</v>
       </c>
       <c r="S50" t="n">
-        <v>1.642355548883465</v>
+        <v>2.255461822390964</v>
       </c>
       <c r="T50" t="n">
         <v>0.05720109445360286</v>
@@ -7641,7 +7641,7 @@
         <v>0.6803421746847327</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.616828797704516</v>
+        <v>0.8470966016583122</v>
       </c>
       <c r="Z50" t="n">
         <v>0.9333216318146712</v>
@@ -7770,10 +7770,10 @@
         <v>629.1192635044721</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1151484378526309</v>
+        <v>0.1576304410115395</v>
       </c>
       <c r="S51" t="n">
-        <v>1.580911200071067</v>
+        <v>2.164160750371749</v>
       </c>
       <c r="T51" t="n">
         <v>0.05765280267204263</v>
@@ -7791,7 +7791,7 @@
         <v>0.6679256467534116</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.6054082748474577</v>
+        <v>0.8287630743056552</v>
       </c>
       <c r="Z51" t="n">
         <v>0.9234073075493245</v>
@@ -7920,10 +7920,10 @@
         <v>744.8250719255465</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1107928477179156</v>
+        <v>0.1615333726494542</v>
       </c>
       <c r="S52" t="n">
-        <v>1.649668543913831</v>
+        <v>2.405178033970014</v>
       </c>
       <c r="T52" t="n">
         <v>0.02067100788030379</v>
@@ -7941,7 +7941,7 @@
         <v>0.7447515781791074</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.5820289641900797</v>
+        <v>0.8485845747431682</v>
       </c>
       <c r="Z52" t="n">
         <v>0.7387211964130875</v>
@@ -8075,10 +8075,10 @@
         <v>711.4270805998441</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1109933916963984</v>
+        <v>0.1586738356569893</v>
       </c>
       <c r="S53" t="n">
-        <v>1.640427339891585</v>
+        <v>2.345120679338927</v>
       </c>
       <c r="T53" t="n">
         <v>0.03708393275579205</v>
@@ -8096,7 +8096,7 @@
         <v>0.7317455113260067</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.5832355829459585</v>
+        <v>0.833781413679228</v>
       </c>
       <c r="Z53" t="n">
         <v>0.8087012339381878</v>
@@ -8225,10 +8225,10 @@
         <v>904.1628817043562</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1382094693329309</v>
+        <v>0.1952493007191595</v>
       </c>
       <c r="S54" t="n">
-        <v>2.115844360724317</v>
+        <v>2.989065321326483</v>
       </c>
       <c r="T54" t="n">
         <v>0.05094231472623591</v>
@@ -8246,7 +8246,7 @@
         <v>0.859860440948725</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.7248930077260365</v>
+        <v>1.024060460819624</v>
       </c>
       <c r="Z54" t="n">
         <v>0.4010475516097816</v>
@@ -8372,10 +8372,10 @@
         <v>785.7308120243068</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1254201894232208</v>
+        <v>0.1749140702418733</v>
       </c>
       <c r="S55" t="n">
-        <v>1.899584704692059</v>
+        <v>2.64920738833917</v>
       </c>
       <c r="T55" t="n">
         <v>0.05503094247239907</v>
@@ -8393,7 +8393,7 @@
         <v>0.7877789284343752</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.6586383782932533</v>
+        <v>0.9185532257173425</v>
       </c>
       <c r="Z55" t="n">
         <v>0.6482746826574618</v>
@@ -8522,10 +8522,10 @@
         <v>720.4235374552807</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1149533233565257</v>
+        <v>0.1626859797881923</v>
       </c>
       <c r="S56" t="n">
-        <v>1.693376258886304</v>
+        <v>2.396525544307746</v>
       </c>
       <c r="T56" t="n">
         <v>0.0440224247792864</v>
@@ -8543,7 +8543,7 @@
         <v>0.7463073840899519</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.6040023676056188</v>
+        <v>0.8548053601160184</v>
       </c>
       <c r="Z56" t="n">
         <v>0.7632154238682607</v>
@@ -8677,10 +8677,10 @@
         <v>825.3872499014032</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1342883502130712</v>
+        <v>0.1836425342803479</v>
       </c>
       <c r="S57" t="n">
-        <v>2.080322995881168</v>
+        <v>2.84489150755921</v>
       </c>
       <c r="T57" t="n">
         <v>0.06807961188627118</v>
@@ -8698,7 +8698,7 @@
         <v>0.815318117015248</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.7049422584831878</v>
+        <v>0.9640254174227223</v>
       </c>
       <c r="Z57" t="n">
         <v>0.5924990513966264</v>
@@ -8827,10 +8827,10 @@
         <v>942.2558822683638</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2192783135892795</v>
+        <v>0.2552238861082693</v>
       </c>
       <c r="S58" t="n">
-        <v>3.748013146989461</v>
+        <v>4.362412611177165</v>
       </c>
       <c r="T58" t="n">
         <v>0.1836861907000023</v>
@@ -8848,7 +8848,7 @@
         <v>0.898493054617561</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.149528991914519</v>
+        <v>1.337967497597941</v>
       </c>
       <c r="Z58" t="n">
         <v>0.5432197344943213</v>
@@ -8977,10 +8977,10 @@
         <v>1075.230485536771</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3487491523335767</v>
+        <v>0.3753986402366964</v>
       </c>
       <c r="S59" t="n">
-        <v>6.427453739275534</v>
+        <v>6.918604325668497</v>
       </c>
       <c r="T59" t="n">
         <v>0.3248362798694801</v>
@@ -8998,7 +8998,7 @@
         <v>0.9831031826595126</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.824392396964727</v>
+        <v>1.963802407822477</v>
       </c>
       <c r="Z59" t="n">
         <v>0.4640608572031384</v>
@@ -9116,10 +9116,10 @@
         <v>955.1013613784679</v>
       </c>
       <c r="R60" t="n">
-        <v>2.044131337430525</v>
+        <v>2.04826316223864</v>
       </c>
       <c r="S60" t="n">
-        <v>35.766280006237</v>
+        <v>35.83857477532435</v>
       </c>
       <c r="T60" t="n">
         <v>2.040710147773183</v>
@@ -9137,7 +9137,7 @@
         <v>0.9394483227928602</v>
       </c>
       <c r="Y60" t="n">
-        <v>10.71413061294258</v>
+        <v>10.73578720117316</v>
       </c>
       <c r="Z60" t="n">
         <v>0.5213404410367096</v>

--- a/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
@@ -768,10 +768,10 @@
         <v>143.5781541528725</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1117249952005029</v>
+        <v>0.07827118767165567</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6629172386673313</v>
+        <v>0.4644199760795594</v>
       </c>
       <c r="T2" t="n">
         <v>0.07499675172412429</v>
@@ -789,7 +789,7 @@
         <v>0.1988137208558769</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5884200118803723</v>
+        <v>0.4122294487190917</v>
       </c>
       <c r="Z2" t="n">
         <v>2.18165867208891</v>
@@ -918,10 +918,10 @@
         <v>123.5853141391516</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1386382785331898</v>
+        <v>0.1160368780756084</v>
       </c>
       <c r="S3" t="n">
-        <v>0.742814302548056</v>
+        <v>0.6217175629236638</v>
       </c>
       <c r="T3" t="n">
         <v>0.1139153062048636</v>
@@ -939,7 +939,7 @@
         <v>0.1834047639562364</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7301894591567722</v>
+        <v>0.6111508750736893</v>
       </c>
       <c r="Z3" t="n">
         <v>2.803773182186938</v>
@@ -1049,10 +1049,10 @@
         <v>123.5853141391516</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1949486545591022</v>
+        <v>0.1795799618924434</v>
       </c>
       <c r="S4" t="n">
-        <v>1.044521400590919</v>
+        <v>0.9621770088035774</v>
       </c>
       <c r="T4" t="n">
         <v>0.1782164488129691</v>
@@ -1070,7 +1070,7 @@
         <v>0.1834047639562364</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.026768754934972</v>
+        <v>0.9458238852716659</v>
       </c>
       <c r="Z4" t="n">
         <v>2.803773182186938</v>
@@ -1175,10 +1175,10 @@
         <v>142.4049296620252</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1368168541325278</v>
+        <v>0.1117364598191904</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8075760790095958</v>
+        <v>0.6595363756557957</v>
       </c>
       <c r="T5" t="n">
         <v>0.1094775038278818</v>
@@ -1196,7 +1196,7 @@
         <v>0.2017290603468786</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7205723780438563</v>
+        <v>0.5884816390247187</v>
       </c>
       <c r="Z5" t="n">
         <v>2.316179518923088</v>
@@ -1319,10 +1319,10 @@
         <v>152.3324762989147</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1155187876435189</v>
+        <v>0.08260015378386991</v>
       </c>
       <c r="S6" t="n">
-        <v>0.710256858620737</v>
+        <v>0.5078596040079951</v>
       </c>
       <c r="T6" t="n">
         <v>0.07947253438635964</v>
@@ -1340,7 +1340,7 @@
         <v>0.2123810820879944</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.6083909718279598</v>
+        <v>0.4350217731576664</v>
       </c>
       <c r="Z6" t="n">
         <v>2.228367536626836</v>
@@ -1463,10 +1463,10 @@
         <v>187.6553407366093</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1626348405871427</v>
+        <v>0.13618068293378</v>
       </c>
       <c r="S7" t="n">
-        <v>1.117779766286029</v>
+        <v>0.935961884875647</v>
       </c>
       <c r="T7" t="n">
         <v>0.134187008699583</v>
@@ -1484,7 +1484,7 @@
         <v>0.2411860168166412</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8564737736883568</v>
+        <v>0.7171598840363911</v>
       </c>
       <c r="Z7" t="n">
         <v>1.736547772340493</v>
@@ -1582,10 +1582,10 @@
         <v>145.0425974091273</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1930094626903336</v>
+        <v>0.1765302533072531</v>
       </c>
       <c r="S8" t="n">
-        <v>1.166081929611407</v>
+        <v>1.066521483154316</v>
       </c>
       <c r="T8" t="n">
         <v>0.1751154527424282</v>
@@ -1603,7 +1603,7 @@
         <v>0.2078110343630772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.016516750064425</v>
+        <v>0.9297262262619921</v>
       </c>
       <c r="Z8" t="n">
         <v>2.611695147552031</v>
@@ -1708,10 +1708,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1558049236940696</v>
+        <v>0.1343339581780173</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9631817734805855</v>
+        <v>0.8304488523779201</v>
       </c>
       <c r="T9" t="n">
         <v>0.1324552886800389</v>
@@ -1729,7 +1729,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.8205645033087953</v>
+        <v>0.7074852004439249</v>
       </c>
       <c r="Z9" t="n">
         <v>2.559518810463633</v>
@@ -1834,10 +1834,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2468774269745986</v>
+        <v>0.2339207173853072</v>
       </c>
       <c r="S10" t="n">
-        <v>1.526189495863593</v>
+        <v>1.446091471842279</v>
       </c>
       <c r="T10" t="n">
         <v>0.2328469308399745</v>
@@ -1855,7 +1855,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.300208288932757</v>
+        <v>1.231970291592382</v>
       </c>
       <c r="Z10" t="n">
         <v>2.559518810463633</v>
@@ -1960,10 +1960,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1687973149166674</v>
+        <v>0.149207813453368</v>
       </c>
       <c r="S11" t="n">
-        <v>1.043500380382299</v>
+        <v>0.9223986185530643</v>
       </c>
       <c r="T11" t="n">
         <v>0.1475186861894933</v>
@@ -1981,7 +1981,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.8889904220640855</v>
+        <v>0.7858200654592957</v>
       </c>
       <c r="Z11" t="n">
         <v>2.559518810463633</v>
@@ -2091,10 +2091,10 @@
         <v>192.4198323261162</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1201171768702458</v>
+        <v>0.08249938494647539</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8554185453037726</v>
+        <v>0.5875221654235464</v>
       </c>
       <c r="T12" t="n">
         <v>0.07919306793699592</v>
@@ -2112,7 +2112,7 @@
         <v>0.2505004184883252</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.6325595121231445</v>
+        <v>0.434457186323773</v>
       </c>
       <c r="Z12" t="n">
         <v>1.615091729727736</v>
@@ -2236,10 +2236,10 @@
         <v>159.4294446065069</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1447958976737194</v>
+        <v>0.1197895135709042</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9154584467275934</v>
+        <v>0.7573579347875248</v>
       </c>
       <c r="T13" t="n">
         <v>0.1176391127417782</v>
@@ -2257,7 +2257,7 @@
         <v>0.2257669438705284</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7625716352403478</v>
+        <v>0.6308748156266998</v>
       </c>
       <c r="Z13" t="n">
         <v>2.574200330803404</v>
@@ -2386,10 +2386,10 @@
         <v>162.696380646359</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1907008377397496</v>
+        <v>0.1734639781075541</v>
       </c>
       <c r="S14" t="n">
-        <v>1.256471683357629</v>
+        <v>1.142903089246784</v>
       </c>
       <c r="T14" t="n">
         <v>0.1720035906009942</v>
@@ -2407,7 +2407,7 @@
         <v>0.2322136979644548</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.004325082718831</v>
+        <v>0.9135472409374404</v>
       </c>
       <c r="Z14" t="n">
         <v>2.721074765720185</v>
@@ -2520,10 +2520,10 @@
         <v>236.2062132450272</v>
       </c>
       <c r="R15" t="n">
-        <v>0.109409715095083</v>
+        <v>0.04966226803465653</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8461524089254281</v>
+        <v>0.3840778462287892</v>
       </c>
       <c r="T15" t="n">
         <v>0.04342301811504145</v>
@@ -2541,7 +2541,7 @@
         <v>0.2981269094853483</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5761174778683598</v>
+        <v>0.2615060333580433</v>
       </c>
       <c r="Z15" t="n">
         <v>1.868830615026467</v>
@@ -2670,10 +2670,10 @@
         <v>135.8414770002599</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2743906225240224</v>
+        <v>0.2641899667598849</v>
       </c>
       <c r="S16" t="n">
-        <v>1.601255234908785</v>
+        <v>1.54172749561661</v>
       </c>
       <c r="T16" t="n">
         <v>0.2632679772061057</v>
@@ -2691,7 +2691,7 @@
         <v>0.2156321914866056</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.445148151945966</v>
+        <v>1.39142379835626</v>
       </c>
       <c r="Z16" t="n">
         <v>1.993796742483795</v>
@@ -2801,10 +2801,10 @@
         <v>203.1306574639146</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1618128878235748</v>
+        <v>0.1348606787880528</v>
       </c>
       <c r="S17" t="n">
-        <v>1.172158076349136</v>
+        <v>0.9769186864503394</v>
       </c>
       <c r="T17" t="n">
         <v>0.1328220174039462</v>
@@ -2822,7 +2822,7 @@
         <v>0.2729424054078003</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.8521180040826958</v>
+        <v>0.7101857829977538</v>
       </c>
       <c r="Z17" t="n">
         <v>2.005730181042971</v>
@@ -2940,10 +2940,10 @@
         <v>249.3908228905306</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1137347082056103</v>
+        <v>0.05573433998769478</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9111400841059024</v>
+        <v>0.4464933530419892</v>
       </c>
       <c r="T18" t="n">
         <v>0.05016526836124941</v>
@@ -2961,7 +2961,7 @@
         <v>0.3110687551322458</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.5988732134903108</v>
+        <v>0.2934706899660893</v>
       </c>
       <c r="Z18" t="n">
         <v>1.905410952608699</v>
@@ -3095,10 +3095,10 @@
         <v>220.9488316052588</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1498632051209512</v>
+        <v>0.1176055885210543</v>
       </c>
       <c r="S19" t="n">
-        <v>1.133499123640524</v>
+        <v>0.8895167524026653</v>
       </c>
       <c r="T19" t="n">
         <v>0.1151930164008232</v>
@@ -3116,7 +3116,7 @@
         <v>0.2910348595471279</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.7891599242686297</v>
+        <v>0.6192955586125241</v>
       </c>
       <c r="Z19" t="n">
         <v>2.023241853551796</v>
@@ -3226,10 +3226,10 @@
         <v>197.6108576999949</v>
       </c>
       <c r="R20" t="n">
-        <v>0.09666948165170583</v>
+        <v>0.04369086509948313</v>
       </c>
       <c r="S20" t="n">
-        <v>0.7044582505479338</v>
+        <v>0.3183878703705095</v>
       </c>
       <c r="T20" t="n">
         <v>0.03707916719312158</v>
@@ -3247,7 +3247,7 @@
         <v>0.2713711300321883</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.5090741255600304</v>
+        <v>0.2300818062272929</v>
       </c>
       <c r="Z20" t="n">
         <v>2.692255921705275</v>
@@ -3373,10 +3373,10 @@
         <v>247.5368920360654</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1527303645099951</v>
+        <v>0.1166462661684868</v>
       </c>
       <c r="S21" t="n">
-        <v>1.218760052563028</v>
+        <v>0.9308156236180681</v>
       </c>
       <c r="T21" t="n">
         <v>0.1140987493424382</v>
@@ -3394,7 +3394,7 @@
         <v>0.31266588263643</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.8042094180110877</v>
+        <v>0.6142067828456348</v>
       </c>
       <c r="Z21" t="n">
         <v>1.830450382631331</v>
@@ -3517,10 +3517,10 @@
         <v>232.0943657408344</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1124229864271449</v>
+        <v>0.06035537040755387</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8729662821703333</v>
+        <v>0.4686604135697814</v>
       </c>
       <c r="T22" t="n">
         <v>0.05542134446754076</v>
@@ -3538,7 +3538,7 @@
         <v>0.3028590455488905</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.5919899551062117</v>
+        <v>0.3178155478118442</v>
       </c>
       <c r="Z22" t="n">
         <v>1.996487126693565</v>
@@ -3651,10 +3651,10 @@
         <v>233.2035643020673</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1350409959040313</v>
+        <v>0.09949500387110793</v>
       </c>
       <c r="S23" t="n">
-        <v>1.095343770541425</v>
+        <v>0.8070233188124741</v>
       </c>
       <c r="T23" t="n">
         <v>0.09665232098183901</v>
@@ -3672,7 +3672,7 @@
         <v>0.3016979981793136</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.7110886749189029</v>
+        <v>0.5239132752992769</v>
       </c>
       <c r="Z23" t="n">
         <v>2.289994311244139</v>
@@ -3790,10 +3790,10 @@
         <v>229.936910321767</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1850322869238999</v>
+        <v>0.1594787958736406</v>
       </c>
       <c r="S24" t="n">
-        <v>1.43799451076228</v>
+        <v>1.239403332584826</v>
       </c>
       <c r="T24" t="n">
         <v>0.1576906114059104</v>
@@ -3811,7 +3811,7 @@
         <v>0.3020079382929376</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.9743362214653535</v>
+        <v>0.8397775867045005</v>
       </c>
       <c r="Z24" t="n">
         <v>2.013975905790975</v>
@@ -3921,10 +3921,10 @@
         <v>221.3691085162</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1051845472961925</v>
+        <v>0.05556778869878048</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8271720847294067</v>
+        <v>0.4369855154896619</v>
       </c>
       <c r="T25" t="n">
         <v>0.05038807656028661</v>
@@ -3942,7 +3942,7 @@
         <v>0.293826991436123</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.5538874777135112</v>
+        <v>0.2926123952201388</v>
       </c>
       <c r="Z25" t="n">
         <v>2.292449366349665</v>
@@ -4076,10 +4076,10 @@
         <v>239.9191547480468</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1326197361239917</v>
+        <v>0.09510195735116488</v>
       </c>
       <c r="S26" t="n">
-        <v>1.091922494331644</v>
+        <v>0.7830204577516093</v>
       </c>
       <c r="T26" t="n">
         <v>0.09209382796657775</v>
@@ -4097,7 +4097,7 @@
         <v>0.3088865340670015</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.6983282707176269</v>
+        <v>0.5007730173494599</v>
       </c>
       <c r="Z26" t="n">
         <v>2.35945338299386</v>
@@ -4226,10 +4226,10 @@
         <v>259.3173849157137</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1150043149350568</v>
+        <v>0.05869873171926452</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9555862363533906</v>
+        <v>0.4877356136941862</v>
       </c>
       <c r="T27" t="n">
         <v>0.05342200157079672</v>
@@ -4247,7 +4247,7 @@
         <v>0.3262359797813806</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6055439960805798</v>
+        <v>0.3090724429793569</v>
       </c>
       <c r="Z27" t="n">
         <v>1.93417898639118</v>
@@ -4381,10 +4381,10 @@
         <v>272.3753650437538</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1471498731559998</v>
+        <v>0.1049057868236785</v>
       </c>
       <c r="S28" t="n">
-        <v>1.228120417822723</v>
+        <v>0.8755490982267587</v>
       </c>
       <c r="T28" t="n">
         <v>0.1019461794085843</v>
@@ -4402,7 +4402,7 @@
         <v>0.3407088993809207</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7747784054632079</v>
+        <v>0.5523534373213209</v>
       </c>
       <c r="Z28" t="n">
         <v>1.603979339453181</v>
@@ -4525,10 +4525,10 @@
         <v>261.1434661768174</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1212170007237646</v>
+        <v>0.07413184219846626</v>
       </c>
       <c r="S29" t="n">
-        <v>1.044427435098838</v>
+        <v>0.638733258076041</v>
       </c>
       <c r="T29" t="n">
         <v>0.07010762510326199</v>
@@ -4546,7 +4546,7 @@
         <v>0.3298735097333443</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.6382534597750217</v>
+        <v>0.3903322510882004</v>
       </c>
       <c r="Z29" t="n">
         <v>2.292339313053484</v>
@@ -4670,10 +4670,10 @@
         <v>296.3069521563592</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1186242022993215</v>
+        <v>0.05397906665649423</v>
       </c>
       <c r="S30" t="n">
-        <v>1.051534549285856</v>
+        <v>0.4784930261051164</v>
       </c>
       <c r="T30" t="n">
         <v>0.04782403089763312</v>
@@ -4691,7 +4691,7 @@
         <v>0.3598173993901568</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.6245455668243621</v>
+        <v>0.2841948449656555</v>
       </c>
       <c r="Z30" t="n">
         <v>1.422152235494093</v>
@@ -4820,10 +4820,10 @@
         <v>264.2461340196743</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1378231216919157</v>
+        <v>0.09847180617506125</v>
       </c>
       <c r="S31" t="n">
-        <v>1.193593315162176</v>
+        <v>0.8527980511516221</v>
       </c>
       <c r="T31" t="n">
         <v>0.09546315865152941</v>
@@ -4841,7 +4841,7 @@
         <v>0.3348516321525572</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.725685486465779</v>
+        <v>0.5184874619735511</v>
       </c>
       <c r="Z31" t="n">
         <v>2.498153280108286</v>
@@ -4964,10 +4964,10 @@
         <v>267.4870722578276</v>
       </c>
       <c r="R32" t="n">
-        <v>0.1401332729399231</v>
+        <v>0.09925873133857618</v>
       </c>
       <c r="S32" t="n">
-        <v>1.194427860860118</v>
+        <v>0.8460331487101693</v>
       </c>
       <c r="T32" t="n">
         <v>0.09621448365161432</v>
@@ -4985,7 +4985,7 @@
         <v>0.3431249465522279</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.7378433333083197</v>
+        <v>0.5226267227927219</v>
       </c>
       <c r="Z32" t="n">
         <v>1.909909692855773</v>
@@ -5109,10 +5109,10 @@
         <v>277.3751454749433</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1084617625363631</v>
+        <v>0.04723102523065794</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9716867913511416</v>
+        <v>0.4231331142458284</v>
       </c>
       <c r="T33" t="n">
         <v>0.04048975988998884</v>
@@ -5130,7 +5130,7 @@
         <v>0.3499869310089186</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.5710692933436008</v>
+        <v>0.2486792356276054</v>
       </c>
       <c r="Z33" t="n">
         <v>2.146171637580412</v>
@@ -5264,10 +5264,10 @@
         <v>315.1317766644796</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1170302998027779</v>
+        <v>0.04438409927192122</v>
       </c>
       <c r="S34" t="n">
-        <v>1.07195385275587</v>
+        <v>0.4065417784609112</v>
       </c>
       <c r="T34" t="n">
         <v>0.03642049993073456</v>
@@ -5285,7 +5285,7 @@
         <v>0.3838211691085254</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.6161222680143749</v>
+        <v>0.2336662552627432</v>
       </c>
       <c r="Z34" t="n">
         <v>1.480664521061823</v>
@@ -5419,10 +5419,10 @@
         <v>290.2729283453409</v>
       </c>
       <c r="R35" t="n">
-        <v>0.1406661154283962</v>
+        <v>0.09635417727236384</v>
       </c>
       <c r="S35" t="n">
-        <v>1.252998079866031</v>
+        <v>0.8582848736645433</v>
       </c>
       <c r="T35" t="n">
         <v>0.09310953159415146</v>
@@ -5440,7 +5440,7 @@
         <v>0.366936579636771</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.7406060015642205</v>
+        <v>0.5073039924815467</v>
       </c>
       <c r="Z35" t="n">
         <v>1.809112109480945</v>
@@ -5558,10 +5558,10 @@
         <v>283.9109932904865</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1315823977983615</v>
+        <v>0.08576935313464268</v>
       </c>
       <c r="S36" t="n">
-        <v>1.177538316413939</v>
+        <v>0.7675547898499949</v>
       </c>
       <c r="T36" t="n">
         <v>0.0821820824875763</v>
@@ -5579,7 +5579,7 @@
         <v>0.3617455370614308</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.6927917372784751</v>
+        <v>0.4515824316749156</v>
       </c>
       <c r="Z36" t="n">
         <v>2.325997922194206</v>
@@ -5702,10 +5702,10 @@
         <v>308.8925094168035</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1113509609453344</v>
+        <v>0.04601641625055448</v>
       </c>
       <c r="S37" t="n">
-        <v>1.065846328578727</v>
+        <v>0.440467041313477</v>
       </c>
       <c r="T37" t="n">
         <v>0.03876950340404173</v>
@@ -5723,7 +5723,7 @@
         <v>0.3857476056231248</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.5862327063548255</v>
+        <v>0.2422639913144191</v>
       </c>
       <c r="Z37" t="n">
         <v>1.913899110729765</v>
@@ -5857,10 +5857,10 @@
         <v>377.2114570502922</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1427691011657716</v>
+        <v>0.07736242723216026</v>
       </c>
       <c r="S38" t="n">
-        <v>1.407840268141881</v>
+        <v>0.7628677312478804</v>
       </c>
       <c r="T38" t="n">
         <v>0.07261398873108758</v>
@@ -5878,7 +5878,7 @@
         <v>0.4413157068529845</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.7514871335745209</v>
+        <v>0.4072090404180657</v>
       </c>
       <c r="Z38" t="n">
         <v>1.219423431934616</v>
@@ -6007,10 +6007,10 @@
         <v>385.5975527213724</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1379152896680966</v>
+        <v>0.06470289280375982</v>
       </c>
       <c r="S39" t="n">
-        <v>1.369241037640056</v>
+        <v>0.6423787840647773</v>
       </c>
       <c r="T39" t="n">
         <v>0.05885158217820452</v>
@@ -6028,7 +6028,7 @@
         <v>0.4484821104354356</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.725918320175542</v>
+        <v>0.3405642359715005</v>
       </c>
       <c r="Z39" t="n">
         <v>1.258881347841275</v>
@@ -6157,10 +6157,10 @@
         <v>372.8628471243722</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1207010431442486</v>
+        <v>0.04169231297573381</v>
       </c>
       <c r="S40" t="n">
-        <v>1.248266790486248</v>
+        <v>0.4311738188042931</v>
       </c>
       <c r="T40" t="n">
         <v>0.03255445720288133</v>
@@ -6178,7 +6178,7 @@
         <v>0.4347514501334363</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.6353374599349997</v>
+        <v>0.2194569950249841</v>
       </c>
       <c r="Z40" t="n">
         <v>1.302223015332145</v>
@@ -6307,10 +6307,10 @@
         <v>404.9089530971748</v>
       </c>
       <c r="R41" t="n">
-        <v>0.1453494315352453</v>
+        <v>0.07403048488321697</v>
       </c>
       <c r="S41" t="n">
-        <v>1.474450938640137</v>
+        <v>0.7509786365939464</v>
       </c>
       <c r="T41" t="n">
         <v>0.06882091578440135</v>
@@ -6328,7 +6328,7 @@
         <v>0.4656191008841957</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.7649976553356318</v>
+        <v>0.3896344606293704</v>
       </c>
       <c r="Z41" t="n">
         <v>1.206768580603251</v>
@@ -6457,10 +6457,10 @@
         <v>382.0396659492999</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1450779646851058</v>
+        <v>0.08074881790575031</v>
       </c>
       <c r="S42" t="n">
-        <v>1.440023065167122</v>
+        <v>0.801501182634099</v>
       </c>
       <c r="T42" t="n">
         <v>0.07617575925137543</v>
@@ -6478,7 +6478,7 @@
         <v>0.4520369448670143</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.7636281154456306</v>
+        <v>0.4250271071535162</v>
       </c>
       <c r="Z42" t="n">
         <v>1.30063214053304</v>
@@ -6591,10 +6591,10 @@
         <v>445.5341436142293</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1315484481729697</v>
+        <v>0.03316407383586407</v>
       </c>
       <c r="S43" t="n">
-        <v>1.443641691583105</v>
+        <v>0.3639498627094521</v>
       </c>
       <c r="T43" t="n">
         <v>0.01832326989962269</v>
@@ -6612,7 +6612,7 @@
         <v>0.4952071191030444</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.692257480104575</v>
+        <v>0.1745218472925681</v>
       </c>
       <c r="Z43" t="n">
         <v>1.101249100551098</v>
@@ -6741,10 +6741,10 @@
         <v>337.0345879482724</v>
       </c>
       <c r="R44" t="n">
-        <v>0.1202755805951041</v>
+        <v>0.05809733241689945</v>
       </c>
       <c r="S44" t="n">
-        <v>1.206980474191085</v>
+        <v>0.5830139874015356</v>
       </c>
       <c r="T44" t="n">
         <v>0.05231572499985591</v>
@@ -6762,7 +6762,7 @@
         <v>0.4168206389919381</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.6331677929354111</v>
+        <v>0.3058422961654821</v>
       </c>
       <c r="Z44" t="n">
         <v>2.081212019701819</v>
@@ -6880,10 +6880,10 @@
         <v>310.2798095951699</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1153163666604056</v>
+        <v>0.0568558171667671</v>
       </c>
       <c r="S45" t="n">
-        <v>1.116703040663285</v>
+        <v>0.5505815501150764</v>
       </c>
       <c r="T45" t="n">
         <v>0.05117390153133381</v>
@@ -6901,7 +6901,7 @@
         <v>0.402080181824932</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.6071071823694265</v>
+        <v>0.299329366342922</v>
       </c>
       <c r="Z45" t="n">
         <v>1.932155784020845</v>
@@ -7027,10 +7027,10 @@
         <v>353.2034139422175</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1276265877981719</v>
+        <v>0.07013652515076534</v>
       </c>
       <c r="S46" t="n">
-        <v>1.323991886142067</v>
+        <v>0.7275928301762715</v>
       </c>
       <c r="T46" t="n">
         <v>0.06534284673287913</v>
@@ -7048,7 +7048,7 @@
         <v>0.438086954274626</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.6718331393236889</v>
+        <v>0.3692023949414753</v>
       </c>
       <c r="Z46" t="n">
         <v>1.732996918768777</v>
@@ -7177,10 +7177,10 @@
         <v>513.0580779015858</v>
       </c>
       <c r="R47" t="n">
-        <v>0.1556547280759412</v>
+        <v>0.0724065220709654</v>
       </c>
       <c r="S47" t="n">
-        <v>1.811267434501338</v>
+        <v>0.842554396475881</v>
       </c>
       <c r="T47" t="n">
         <v>0.06632541948809087</v>
@@ -7198,7 +7198,7 @@
         <v>0.5671329528751325</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.8188808023327789</v>
+        <v>0.380922003594202</v>
       </c>
       <c r="Z47" t="n">
         <v>1.007526740184383</v>
@@ -7321,10 +7321,10 @@
         <v>618.5008542055614</v>
       </c>
       <c r="R48" t="n">
-        <v>0.1552750279735547</v>
+        <v>0.03597382682581127</v>
       </c>
       <c r="S48" t="n">
-        <v>1.987476277149291</v>
+        <v>0.4604547707874415</v>
       </c>
       <c r="T48" t="n">
         <v>0.01849807752632779</v>
@@ -7342,7 +7342,7 @@
         <v>0.6495667435386698</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.816431621031359</v>
+        <v>0.189149344446427</v>
       </c>
       <c r="Z48" t="n">
         <v>0.7940434459215121</v>
@@ -7476,10 +7476,10 @@
         <v>587.1219162039769</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1591369603278417</v>
+        <v>0.07042937457416781</v>
       </c>
       <c r="S49" t="n">
-        <v>2.048158595966117</v>
+        <v>0.9064552235095198</v>
       </c>
       <c r="T49" t="n">
         <v>0.06376283692419678</v>
@@ -7497,7 +7497,7 @@
         <v>0.6307122245851906</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.8368882855241039</v>
+        <v>0.3703823324040088</v>
       </c>
       <c r="Z49" t="n">
         <v>0.9254049094633293</v>
@@ -7620,10 +7620,10 @@
         <v>658.5484268094187</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1611476435393284</v>
+        <v>0.06491964735182411</v>
       </c>
       <c r="S50" t="n">
-        <v>2.255461822390964</v>
+        <v>0.9086312583242271</v>
       </c>
       <c r="T50" t="n">
         <v>0.05720109445360286</v>
@@ -7641,7 +7641,7 @@
         <v>0.6803421746847327</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.8470966016583122</v>
+        <v>0.3412598002971422</v>
       </c>
       <c r="Z50" t="n">
         <v>0.9333216318146712</v>
@@ -7770,10 +7770,10 @@
         <v>629.1192635044721</v>
       </c>
       <c r="R51" t="n">
-        <v>0.1576304410115395</v>
+        <v>0.06509955015194789</v>
       </c>
       <c r="S51" t="n">
-        <v>2.164160750371749</v>
+        <v>0.8937733752542706</v>
       </c>
       <c r="T51" t="n">
         <v>0.05765280267204263</v>
@@ -7791,7 +7791,7 @@
         <v>0.6679256467534116</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.8287630743056552</v>
+        <v>0.3422695703547129</v>
       </c>
       <c r="Z51" t="n">
         <v>0.9234073075493245</v>
@@ -7920,10 +7920,10 @@
         <v>744.8250719255465</v>
       </c>
       <c r="R52" t="n">
-        <v>0.1615333726494542</v>
+        <v>0.03816410416149966</v>
       </c>
       <c r="S52" t="n">
-        <v>2.405178033970014</v>
+        <v>0.5682507800699519</v>
       </c>
       <c r="T52" t="n">
         <v>0.02067100788030379</v>
@@ -7941,7 +7941,7 @@
         <v>0.7447515781791074</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.8485845747431682</v>
+        <v>0.2004877974696926</v>
       </c>
       <c r="Z52" t="n">
         <v>0.7387211964130875</v>
@@ -8075,10 +8075,10 @@
         <v>711.4270805998441</v>
       </c>
       <c r="R53" t="n">
-        <v>0.1586738356569893</v>
+        <v>0.0485934178715254</v>
       </c>
       <c r="S53" t="n">
-        <v>2.345120679338927</v>
+        <v>0.7181866415369055</v>
       </c>
       <c r="T53" t="n">
         <v>0.03708393275579205</v>
@@ -8096,7 +8096,7 @@
         <v>0.7317455113260067</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.833781413679228</v>
+        <v>0.2553432232898899</v>
       </c>
       <c r="Z53" t="n">
         <v>0.8087012339381878</v>
@@ -8225,10 +8225,10 @@
         <v>904.1628817043562</v>
       </c>
       <c r="R54" t="n">
-        <v>0.1952493007191595</v>
+        <v>0.06226499370680322</v>
       </c>
       <c r="S54" t="n">
-        <v>2.989065321326483</v>
+        <v>0.9532128040208352</v>
       </c>
       <c r="T54" t="n">
         <v>0.05094231472623591</v>
@@ -8246,7 +8246,7 @@
         <v>0.859860440948725</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.024060460819624</v>
+        <v>0.3265728374619623</v>
       </c>
       <c r="Z54" t="n">
         <v>0.4010475516097816</v>
@@ -8372,10 +8372,10 @@
         <v>785.7308120243068</v>
       </c>
       <c r="R55" t="n">
-        <v>0.1749140702418733</v>
+        <v>0.06414921381509445</v>
       </c>
       <c r="S55" t="n">
-        <v>2.64920738833917</v>
+        <v>0.9715889119731532</v>
       </c>
       <c r="T55" t="n">
         <v>0.05503094247239907</v>
@@ -8393,7 +8393,7 @@
         <v>0.7877789284343752</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.9185532257173425</v>
+        <v>0.3368766571814666</v>
       </c>
       <c r="Z55" t="n">
         <v>0.6482746826574618</v>
@@ -8522,10 +8522,10 @@
         <v>720.4235374552807</v>
       </c>
       <c r="R56" t="n">
-        <v>0.1626859797881923</v>
+        <v>0.05426706707559491</v>
       </c>
       <c r="S56" t="n">
-        <v>2.396525544307746</v>
+        <v>0.7994076233898318</v>
       </c>
       <c r="T56" t="n">
         <v>0.0440224247792864</v>
@@ -8543,7 +8543,7 @@
         <v>0.7463073840899519</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.8548053601160184</v>
+        <v>0.2851369237495955</v>
       </c>
       <c r="Z56" t="n">
         <v>0.7632154238682607</v>
@@ -8677,10 +8677,10 @@
         <v>825.3872499014032</v>
       </c>
       <c r="R57" t="n">
-        <v>0.1836425342803479</v>
+        <v>0.07592915714145231</v>
       </c>
       <c r="S57" t="n">
-        <v>2.84489150755921</v>
+        <v>1.176253721254392</v>
       </c>
       <c r="T57" t="n">
         <v>0.06807961188627118</v>
@@ -8698,7 +8698,7 @@
         <v>0.815318117015248</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.9640254174227223</v>
+        <v>0.3985876022387104</v>
       </c>
       <c r="Z57" t="n">
         <v>0.5924990513966264</v>
@@ -8827,10 +8827,10 @@
         <v>942.2558822683638</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2552238861082693</v>
+        <v>0.1869764357998634</v>
       </c>
       <c r="S58" t="n">
-        <v>4.362412611177165</v>
+        <v>3.195893511237676</v>
       </c>
       <c r="T58" t="n">
         <v>0.1836861907000023</v>
@@ -8848,7 +8848,7 @@
         <v>0.898493054617561</v>
       </c>
       <c r="Y58" t="n">
-        <v>1.337967497597941</v>
+        <v>0.9801919316078453</v>
       </c>
       <c r="Z58" t="n">
         <v>0.5432197344943213</v>
@@ -8977,10 +8977,10 @@
         <v>1075.230485536771</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3753986402366964</v>
+        <v>0.3269057472831667</v>
       </c>
       <c r="S59" t="n">
-        <v>6.918604325668497</v>
+        <v>6.024879354419458</v>
       </c>
       <c r="T59" t="n">
         <v>0.3248362798694801</v>
@@ -8998,7 +8998,7 @@
         <v>0.9831031826595126</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.963802407822477</v>
+        <v>1.710124184895578</v>
       </c>
       <c r="Z59" t="n">
         <v>0.4640608572031384</v>
@@ -9116,10 +9116,10 @@
         <v>955.1013613784679</v>
       </c>
       <c r="R60" t="n">
-        <v>2.04826316223864</v>
+        <v>2.041011835929973</v>
       </c>
       <c r="S60" t="n">
-        <v>35.83857477532435</v>
+        <v>35.71169791451638</v>
       </c>
       <c r="T60" t="n">
         <v>2.040710147773183</v>
@@ -9137,7 +9137,7 @@
         <v>0.9394483227928602</v>
       </c>
       <c r="Y60" t="n">
-        <v>10.73578720117316</v>
+        <v>10.69778002630846</v>
       </c>
       <c r="Z60" t="n">
         <v>0.5213404410367096</v>

--- a/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ60"/>
+  <dimension ref="A1:AQ53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -458,7 +458,7 @@
     <col width="19" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="21" customWidth="1" min="14" max="14"/>
     <col width="16" customWidth="1" min="15" max="15"/>
@@ -768,19 +768,19 @@
         <v>143.5781541528725</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07827118767165567</v>
+        <v>0.1331860593948067</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4644199760795594</v>
+        <v>0.7902558828894091</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07499675172412429</v>
+        <v>0.131288462428179</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4449911989054362</v>
+        <v>0.7789965425872432</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3949840361264111</v>
+        <v>0.6914545709588641</v>
       </c>
       <c r="W2" t="n">
         <v>0.5937558960154107</v>
@@ -789,7 +789,7 @@
         <v>0.1988137208558769</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4122294487190917</v>
+        <v>0.701448610588433</v>
       </c>
       <c r="Z2" t="n">
         <v>2.18165867208891</v>
@@ -862,87 +862,90 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gaia DR3 4928367189958259968</t>
+          <t>Gaia DR3 2216420110788943744</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4928367189956040960</t>
+          <t>2216420110788943744</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4928367189958259968</t>
+          <t>2216420110788943744</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.31852572016116</v>
+        <v>326.8516088538889</v>
       </c>
       <c r="E3" t="n">
-        <v>-51.58527082944525</v>
+        <v>62.75381484090209</v>
       </c>
       <c r="F3" t="n">
-        <v>10.75574147169113</v>
+        <v>11.4694701362896</v>
       </c>
       <c r="G3" t="n">
-        <v>10.18516254425049</v>
+        <v>10.8385763168335</v>
       </c>
       <c r="H3" t="n">
-        <v>11.00034141540527</v>
+        <v>11.71644878387451</v>
       </c>
       <c r="I3" t="n">
-        <v>9.296848297119141</v>
+        <v>9.917387008666992</v>
       </c>
       <c r="J3" t="n">
-        <v>1.703493118286133</v>
+        <v>1.79906177520752</v>
       </c>
       <c r="K3" t="n">
-        <v>32.35291778804756</v>
+        <v>24.92237993746136</v>
       </c>
       <c r="L3" t="n">
-        <v>3850</v>
+        <v>3926.7197</v>
       </c>
       <c r="M3" t="n">
-        <v>0.57</v>
+        <v>0.6241885</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06918309709189366</v>
+        <v>0.10662448</v>
       </c>
       <c r="O3" t="n">
-        <v>0.588</v>
+        <v>0.74603176</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4026311336917571</v>
+        <v>0.4977698460380613</v>
       </c>
       <c r="Q3" t="n">
-        <v>123.5853141391516</v>
+        <v>162.3410153010406</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1160368780756084</v>
+        <v>0.2796749730904869</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6217175629236638</v>
+        <v>1.743539432563141</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1139153062048636</v>
+        <v>0.2787384905747264</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6103503276539645</v>
+        <v>1.737701247701294</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5999768368985795</v>
+        <v>1.467975964881489</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5654037684781568</v>
+        <v>0.6346900188893567</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1834047639562364</v>
+        <v>0.2181922833845763</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6111508750736893</v>
+        <v>1.472907949057171</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.803773182186938</v>
+        <v>1.503293615987327</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4.5337</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -954,28 +957,28 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>4468</t>
-        </is>
-      </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>MS*</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>GAIA</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
+          <t>M0.0V</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
           <t>M0V</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>M0V</t>
-        </is>
-      </c>
       <c r="AM3" t="n">
-        <v>30.90911325374923</v>
+        <v>40.1245788929202</v>
       </c>
       <c r="AN3" t="n">
         <v>0</v>
@@ -984,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3" t="n">
         <v>1</v>
@@ -993,87 +996,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gaia DR3 5250780970316845696</t>
+          <t>Gaia DR3 2664042942398600064</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5250780970316845696</t>
+          <t>2664042942398600064</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5250780970316845696</t>
+          <t>2664042942398600064</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>145.645424746925</v>
+        <v>349.2160468394686</v>
       </c>
       <c r="E4" t="n">
-        <v>-62.47587452944344</v>
+        <v>5.695882802105531</v>
       </c>
       <c r="F4" t="n">
-        <v>11.72756999005318</v>
+        <v>10.49374825878143</v>
       </c>
       <c r="G4" t="n">
-        <v>11.07339859008789</v>
+        <v>9.884832382202148</v>
       </c>
       <c r="H4" t="n">
-        <v>11.97551155090332</v>
+        <v>10.73978424072266</v>
       </c>
       <c r="I4" t="n">
-        <v>10.13776302337646</v>
+        <v>8.978595733642578</v>
       </c>
       <c r="J4" t="n">
-        <v>1.837748527526855</v>
+        <v>1.761188507080078</v>
       </c>
       <c r="K4" t="n">
-        <v>23.92147086864655</v>
+        <v>38.04072364196183</v>
       </c>
       <c r="L4" t="n">
-        <v>3850</v>
+        <v>3933.8767</v>
       </c>
       <c r="M4" t="n">
-        <v>0.57</v>
+        <v>0.6139964999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06918309709189366</v>
+        <v>0.088625945</v>
       </c>
       <c r="O4" t="n">
-        <v>0.588</v>
+        <v>0.6423887</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4026311336917571</v>
+        <v>0.4536383955460306</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.5853141391516</v>
+        <v>142.4049296620252</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1795799618924434</v>
+        <v>0.1795027857024258</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9621770088035774</v>
+        <v>1.059534344419636</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1782164488129691</v>
+        <v>0.1781054111092341</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9548714000794878</v>
+        <v>1.051286191792298</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9386424423932033</v>
+        <v>0.9380265351017711</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5654037684781568</v>
+        <v>0.5877167811767282</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1834047639562364</v>
+        <v>0.2017290603468786</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9458238852716659</v>
+        <v>0.9453860781932882</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.803773182186938</v>
+        <v>2.316179518923088</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>4.5678</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -1085,9 +1091,24 @@
           <t>K</t>
         </is>
       </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>GJ 4323</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>114941</t>
+        </is>
+      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>GAIA</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
@@ -1101,7 +1122,7 @@
         </is>
       </c>
       <c r="AM4" t="n">
-        <v>41.80344952411277</v>
+        <v>26.2876176965499</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -1110,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1119,90 +1140,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gaia DR3 2664042942398600064</t>
+          <t>Gaia DR3 2157141315758946944</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2664042942398600064</t>
+          <t>2157141315758946944</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2664042942398600064</t>
+          <t>2157141315758946944</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>349.2160468394686</v>
+        <v>281.1978672057756</v>
       </c>
       <c r="E5" t="n">
-        <v>5.695882802105531</v>
+        <v>62.68565138063404</v>
       </c>
       <c r="F5" t="n">
-        <v>10.49374825878143</v>
+        <v>11.38243074159622</v>
       </c>
       <c r="G5" t="n">
-        <v>9.884832382202148</v>
+        <v>10.79197788238525</v>
       </c>
       <c r="H5" t="n">
-        <v>10.73978424072266</v>
+        <v>11.6281156539917</v>
       </c>
       <c r="I5" t="n">
-        <v>8.978595733642578</v>
+        <v>9.88103199005127</v>
       </c>
       <c r="J5" t="n">
-        <v>1.761188507080078</v>
+        <v>1.74708366394043</v>
       </c>
       <c r="K5" t="n">
-        <v>38.04072364196183</v>
+        <v>22.57067489441249</v>
       </c>
       <c r="L5" t="n">
-        <v>3933.8767</v>
+        <v>4045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6139964999999999</v>
+        <v>0.63</v>
       </c>
       <c r="N5" t="n">
-        <v>0.088625945</v>
+        <v>0.09354817949780403</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6423887</v>
+        <v>0.6225000000000001</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4536383955460306</v>
+        <v>0.4631784946691409</v>
       </c>
       <c r="Q5" t="n">
-        <v>142.4049296620252</v>
+        <v>145.0425974091273</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1117364598191904</v>
+        <v>0.2742589643225232</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6595363756557957</v>
+        <v>1.65695721791391</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1094775038278818</v>
+        <v>0.2733504544860419</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6462026469007907</v>
+        <v>1.651468383903245</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5765844111511927</v>
+        <v>1.439646076154281</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5877167811767282</v>
+        <v>0.580339026568937</v>
       </c>
       <c r="X5" t="n">
-        <v>0.2017290603468786</v>
+        <v>0.2078110343630772</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5884816390247187</v>
+        <v>1.444430895787001</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.316179518923088</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>4.5678</v>
+        <v>2.611695147552031</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1214,38 +1232,23 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>GJ 4323</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>114941</t>
-        </is>
-      </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>GAIA</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>M0V</t>
+          <t>K7.5V</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>M0V</t>
+          <t>K7V and K8V</t>
         </is>
       </c>
       <c r="AM5" t="n">
-        <v>26.2876176965499</v>
+        <v>44.30527685494934</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
@@ -1263,90 +1266,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gaia DR3 4805806449875760384</t>
+          <t>Gaia DR3 887456658443952256</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4805806449875760384</t>
+          <t>887456658443952256</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4805806449875760384</t>
+          <t>887456658443952256</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>82.55855476960322</v>
+        <v>104.7438654573126</v>
       </c>
       <c r="E6" t="n">
-        <v>-42.69796597525414</v>
+        <v>28.71575200717816</v>
       </c>
       <c r="F6" t="n">
-        <v>9.68979214331627</v>
+        <v>11.34382528717041</v>
       </c>
       <c r="G6" t="n">
-        <v>9.101789474487305</v>
+        <v>10.73052787780762</v>
       </c>
       <c r="H6" t="n">
-        <v>9.934929847717285</v>
+        <v>11.59000587463379</v>
       </c>
       <c r="I6" t="n">
-        <v>8.209831237792969</v>
+        <v>9.823007583618164</v>
       </c>
       <c r="J6" t="n">
-        <v>1.725098609924316</v>
+        <v>1.766998291015625</v>
       </c>
       <c r="K6" t="n">
-        <v>52.19632472037114</v>
+        <v>25.30212209053613</v>
       </c>
       <c r="L6" t="n">
-        <v>4000.1545</v>
+        <v>4045</v>
       </c>
       <c r="M6" t="n">
-        <v>0.63111806</v>
+        <v>0.63</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09948211999999999</v>
+        <v>0.09354817949780403</v>
       </c>
       <c r="O6" t="n">
-        <v>0.65671146</v>
+        <v>0.6225000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4788538999630844</v>
+        <v>0.4631784946691409</v>
       </c>
       <c r="Q6" t="n">
-        <v>152.3324762989147</v>
+        <v>145.0425974091273</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08260015378386991</v>
+        <v>0.2694583973180821</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5078596040079951</v>
+        <v>1.627954212787946</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07947253438635964</v>
+        <v>0.2685336465728123</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4886297179128258</v>
+        <v>1.622367258042707</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4185498602889894</v>
+        <v>1.414277548324655</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6007412365585536</v>
+        <v>0.580339026568937</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2123810820879944</v>
+        <v>0.2078110343630772</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4350217731576664</v>
+        <v>1.419147903431076</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.228367536626836</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>4.5987</v>
+        <v>2.611695147552031</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1358,44 +1358,29 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>HD 274255</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>25775</t>
-        </is>
-      </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>BY?</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>GAIA</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>M0V</t>
+          <t>K7.5V</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>M0V</t>
+          <t>K7V and K8V</t>
         </is>
       </c>
       <c r="AM6" t="n">
-        <v>19.15843702324353</v>
+        <v>39.52237667741057</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" t="n">
         <v>0</v>
@@ -1407,90 +1392,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gaia DR3 2380611517889461504</t>
+          <t>Gaia DR3 4223507222112425344</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2380611517889461504</t>
+          <t>4223507222112425344</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2380611517889461504</t>
+          <t>4223507222112425344</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>351.9035259572886</v>
+        <v>303.1667810972023</v>
       </c>
       <c r="E7" t="n">
-        <v>-25.50847429855467</v>
+        <v>-2.144443991289358</v>
       </c>
       <c r="F7" t="n">
-        <v>10.79027159734726</v>
+        <v>11.89795367668152</v>
       </c>
       <c r="G7" t="n">
-        <v>10.27471542358398</v>
+        <v>11.26854419708252</v>
       </c>
       <c r="H7" t="n">
-        <v>11.03229522705078</v>
+        <v>12.14480972290039</v>
       </c>
       <c r="I7" t="n">
-        <v>9.432310104370117</v>
+        <v>10.35067367553711</v>
       </c>
       <c r="J7" t="n">
-        <v>1.599985122680664</v>
+        <v>1.794136047363281</v>
       </c>
       <c r="K7" t="n">
-        <v>24.943213870148</v>
+        <v>20.11414456930778</v>
       </c>
       <c r="L7" t="n">
-        <v>4026.2444</v>
+        <v>4100</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6720416</v>
+        <v>0.64</v>
       </c>
       <c r="N7" t="n">
-        <v>0.13739453</v>
+        <v>0.1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7287353</v>
+        <v>0.63</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5619234589882182</v>
+        <v>0.4773777693296568</v>
       </c>
       <c r="Q7" t="n">
-        <v>187.6553407366093</v>
+        <v>150.5728123085102</v>
       </c>
       <c r="R7" t="n">
-        <v>0.13618068293378</v>
+        <v>0.3496972361196245</v>
       </c>
       <c r="S7" t="n">
-        <v>0.935961884875647</v>
+        <v>2.161818741545839</v>
       </c>
       <c r="T7" t="n">
-        <v>0.134187008699583</v>
+        <v>0.3489798677993382</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9222594782356802</v>
+        <v>2.157383990226112</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7066607210728868</v>
+        <v>1.837942505898052</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6608492730387686</v>
+        <v>0.5866674822726222</v>
       </c>
       <c r="X7" t="n">
-        <v>0.2411860168166412</v>
+        <v>0.2145593731022121</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7171598840363911</v>
+        <v>1.841720608447501</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.736547772340493</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>4.4851</v>
+        <v>2.559518810463633</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1507,8 +1489,18 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>K7V-M0V</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>K7V</t>
+        </is>
+      </c>
       <c r="AM7" t="n">
-        <v>40.09106465613874</v>
+        <v>49.71625795739295</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -1517,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1526,87 +1518,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gaia DR3 887456658443952256</t>
+          <t>Gaia DR3 3220926542276901888</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>887456658443952256</t>
+          <t>3220926542276901888</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>887456658443952256</t>
+          <t>3220926542276901888</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>104.7438654573126</v>
+        <v>82.29007640896532</v>
       </c>
       <c r="E8" t="n">
-        <v>28.71575200717816</v>
+        <v>-0.3429090586066043</v>
       </c>
       <c r="F8" t="n">
-        <v>11.34382528717041</v>
+        <v>10.90683626673698</v>
       </c>
       <c r="G8" t="n">
-        <v>10.73052787780762</v>
+        <v>10.41568470001221</v>
       </c>
       <c r="H8" t="n">
-        <v>11.59000587463379</v>
+        <v>11.14790821075439</v>
       </c>
       <c r="I8" t="n">
-        <v>9.823007583618164</v>
+        <v>9.586158752441406</v>
       </c>
       <c r="J8" t="n">
-        <v>1.766998291015625</v>
+        <v>1.561749458312988</v>
       </c>
       <c r="K8" t="n">
-        <v>25.30212209053613</v>
+        <v>24.44039946624692</v>
       </c>
       <c r="L8" t="n">
-        <v>4045</v>
+        <v>4100</v>
       </c>
       <c r="M8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.63</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.09354817949780403</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.6225000000000001</v>
-      </c>
       <c r="P8" t="n">
-        <v>0.4631784946691409</v>
+        <v>0.4773777693296568</v>
       </c>
       <c r="Q8" t="n">
-        <v>145.0425974091273</v>
+        <v>150.5728123085102</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1765302533072531</v>
+        <v>0.2222245508275194</v>
       </c>
       <c r="S8" t="n">
-        <v>1.066521483154316</v>
+        <v>1.373786090337297</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1751154527424282</v>
+        <v>0.2210939668331814</v>
       </c>
       <c r="U8" t="n">
-        <v>1.057973853677241</v>
+        <v>1.366796851031397</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9222749414798954</v>
+        <v>1.164416738429084</v>
       </c>
       <c r="W8" t="n">
-        <v>0.580339026568937</v>
+        <v>0.5866674822726222</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2078110343630772</v>
+        <v>0.2145593731022121</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9297262262619921</v>
+        <v>1.170371088726668</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.611695147552031</v>
+        <v>2.559518810463633</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1618,6 +1610,11 @@
           <t>K</t>
         </is>
       </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>HD 290498</t>
+        </is>
+      </c>
       <c r="AI8" t="inlineStr">
         <is>
           <t>PM*</t>
@@ -1625,16 +1622,16 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>K7.5V</t>
+          <t>K7V</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>K7V and K8V</t>
+          <t>K7V</t>
         </is>
       </c>
       <c r="AM8" t="n">
-        <v>39.52237667741057</v>
+        <v>40.91586151777251</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -1643,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -1652,42 +1649,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gaia DR3 4807503030677131392</t>
+          <t>Gaia DR3 1873271430935980160</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4807503030677131392</t>
+          <t>1873271430935980160</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4807503030677131392</t>
+          <t>1873271430935980160</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82.14334801122509</v>
+        <v>314.5491182430022</v>
       </c>
       <c r="E9" t="n">
-        <v>-39.37304322803779</v>
+        <v>40.19229520440285</v>
       </c>
       <c r="F9" t="n">
-        <v>10.67294760490418</v>
+        <v>10.72783224965096</v>
       </c>
       <c r="G9" t="n">
-        <v>10.1686840057373</v>
+        <v>10.1628589630127</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91445922851562</v>
+        <v>10.97292518615723</v>
       </c>
       <c r="I9" t="n">
-        <v>9.335044860839844</v>
+        <v>9.249625205993652</v>
       </c>
       <c r="J9" t="n">
-        <v>1.579414367675781</v>
+        <v>1.723299980163574</v>
       </c>
       <c r="K9" t="n">
-        <v>27.29433414474563</v>
+        <v>25.85724413312014</v>
       </c>
       <c r="L9" t="n">
         <v>4100</v>
@@ -1708,19 +1705,19 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1343339581780173</v>
+        <v>0.2048263828347937</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8304488523779201</v>
+        <v>1.266231092040509</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1324552886800389</v>
+        <v>0.2035992099314843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8188349689656104</v>
+        <v>1.258644742743245</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6975909720271325</v>
+        <v>1.072278594350036</v>
       </c>
       <c r="W9" t="n">
         <v>0.5866674822726222</v>
@@ -1729,7 +1726,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7074852004439249</v>
+        <v>1.078741641216612</v>
       </c>
       <c r="Z9" t="n">
         <v>2.559518810463633</v>
@@ -1744,32 +1741,37 @@
           <t>K</t>
         </is>
       </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>103502</t>
+        </is>
+      </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
+          <t>K7Ve</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
           <t>K7V</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>K7V</t>
-        </is>
-      </c>
       <c r="AM9" t="n">
-        <v>36.63764042371804</v>
+        <v>38.67388167322579</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
@@ -1778,87 +1780,90 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gaia DR3 4223507222112425344</t>
+          <t>Gaia DR3 2110345512468201344</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4223507222112425344</t>
+          <t>2110345512468201344</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4223507222112425344</t>
+          <t>2110345512468201344</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>303.1667810972023</v>
+        <v>277.4593083600882</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.144443991289358</v>
+        <v>40.5414238409092</v>
       </c>
       <c r="F10" t="n">
-        <v>11.89795367668152</v>
+        <v>11.91317415382385</v>
       </c>
       <c r="G10" t="n">
-        <v>11.26854419708252</v>
+        <v>11.27111911773682</v>
       </c>
       <c r="H10" t="n">
-        <v>12.14480972290039</v>
+        <v>12.16055393218994</v>
       </c>
       <c r="I10" t="n">
-        <v>10.35067367553711</v>
+        <v>10.34537601470947</v>
       </c>
       <c r="J10" t="n">
-        <v>1.794136047363281</v>
+        <v>1.815177917480469</v>
       </c>
       <c r="K10" t="n">
-        <v>20.11414456930778</v>
+        <v>20.45762504335478</v>
       </c>
       <c r="L10" t="n">
-        <v>4100</v>
+        <v>4154.6216</v>
       </c>
       <c r="M10" t="n">
-        <v>0.64</v>
+        <v>0.6502356500000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1</v>
+        <v>0.115385786</v>
       </c>
       <c r="O10" t="n">
-        <v>0.63</v>
+        <v>0.6555646000000001</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4773777693296568</v>
+        <v>0.5111612653621384</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.5728123085102</v>
+        <v>165.5178282429962</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2339207173853072</v>
+        <v>0.3539379187729373</v>
       </c>
       <c r="S10" t="n">
-        <v>1.446091471842279</v>
+        <v>2.282167123690875</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2328469308399745</v>
+        <v>0.3532076040915919</v>
       </c>
       <c r="U10" t="n">
-        <v>1.439453352811433</v>
+        <v>2.27745810533677</v>
       </c>
       <c r="V10" t="n">
-        <v>1.226315071575326</v>
+        <v>1.860156224383251</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.616174273495292</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2145593731022121</v>
+        <v>0.2295801628884507</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.231970291592382</v>
+        <v>1.864002402620996</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.559518810463633</v>
+        <v>2.307938833619113</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4.6432</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1875,18 +1880,23 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>K7V-M0V</t>
+          <t>K6</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>K7V</t>
+          <t>K6</t>
         </is>
       </c>
       <c r="AM10" t="n">
-        <v>49.71625795739295</v>
+        <v>48.88152939946607</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -1904,87 +1914,90 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gaia DR3 3220926542276901888</t>
+          <t>Gaia DR3 1401760747118886016</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3220926542276901888</t>
+          <t>1401760747118886016</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3220926542276901888</t>
+          <t>1401760747118886016</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82.29007640896532</v>
+        <v>232.9460786817737</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3429090586066043</v>
+        <v>47.05550924934558</v>
       </c>
       <c r="F11" t="n">
-        <v>10.90683626673698</v>
+        <v>10.38470460800171</v>
       </c>
       <c r="G11" t="n">
-        <v>10.41568470001221</v>
+        <v>9.87924861907959</v>
       </c>
       <c r="H11" t="n">
-        <v>11.14790821075439</v>
+        <v>10.62632656097412</v>
       </c>
       <c r="I11" t="n">
-        <v>9.586158752441406</v>
+        <v>9.042479515075684</v>
       </c>
       <c r="J11" t="n">
-        <v>1.561749458312988</v>
+        <v>1.583847045898438</v>
       </c>
       <c r="K11" t="n">
-        <v>24.44039946624692</v>
+        <v>30.81121491315393</v>
       </c>
       <c r="L11" t="n">
-        <v>4100</v>
+        <v>4159.937</v>
       </c>
       <c r="M11" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1</v>
+        <v>0.12971014</v>
       </c>
       <c r="O11" t="n">
-        <v>0.63</v>
+        <v>0.7331618</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4773777693296568</v>
+        <v>0.5417928733848092</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.5728123085102</v>
+        <v>175.335012884862</v>
       </c>
       <c r="R11" t="n">
-        <v>0.149207813453368</v>
+        <v>0.1762615805093631</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9223986185530643</v>
+        <v>1.205326888273188</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1475186861894933</v>
+        <v>0.1747883203706033</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9119564800437074</v>
+        <v>1.195252315847724</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7769240829611543</v>
+        <v>0.9204994531167215</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.6152596240190628</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2145593731022121</v>
+        <v>0.2363397579616506</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7858200654592957</v>
+        <v>0.9282581817843557</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.559518810463633</v>
+        <v>1.750852676309812</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4.5797</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -1996,28 +2009,33 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>HD 290498</t>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>GJ 9522</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>76042</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>K7V</t>
+          <t>K6V</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>K7V</t>
+          <t>K6V</t>
         </is>
       </c>
       <c r="AM11" t="n">
-        <v>40.91586151777251</v>
+        <v>32.45571467462907</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
@@ -2091,19 +2109,19 @@
         <v>192.4198323261162</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08249938494647539</v>
+        <v>0.118073181513614</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5875221654235464</v>
+        <v>0.8408621631098551</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07919306793699592</v>
+        <v>0.1157871740974524</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5639761168045612</v>
+        <v>0.8245822838333138</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4170455027583157</v>
+        <v>0.6097569079260047</v>
       </c>
       <c r="W12" t="n">
         <v>0.6479653370979835</v>
@@ -2112,7 +2130,7 @@
         <v>0.2505004184883252</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.434457186323773</v>
+        <v>0.6217954504022327</v>
       </c>
       <c r="Z12" t="n">
         <v>1.615091729727736</v>
@@ -2236,19 +2254,19 @@
         <v>159.4294446065069</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1197895135709042</v>
+        <v>0.1728038742996586</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7573579347875248</v>
+        <v>1.0925362451314</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1176391127417782</v>
+        <v>0.1713202038817699</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7437622277647377</v>
+        <v>1.083155878435675</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6195496696589325</v>
+        <v>0.9022626339747678</v>
       </c>
       <c r="W13" t="n">
         <v>0.6042791315347267</v>
@@ -2257,7 +2275,7 @@
         <v>0.2257669438705284</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.6308748156266998</v>
+        <v>0.9100764256284282</v>
       </c>
       <c r="Z13" t="n">
         <v>2.574200330803404</v>
@@ -2330,90 +2348,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Gaia DR3 5330756285016121472</t>
+          <t>Gaia DR3 4604269610637580928</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5330756285016121472</t>
+          <t>4604269610637580928</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5330756285016121472</t>
+          <t>4604269610637580928</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>137.6728622428826</v>
+        <v>268.9585313866028</v>
       </c>
       <c r="E14" t="n">
-        <v>-45.09888753995668</v>
+        <v>33.4195906142933</v>
       </c>
       <c r="F14" t="n">
-        <v>11.0881454870224</v>
+        <v>10.18743212832451</v>
       </c>
       <c r="G14" t="n">
-        <v>10.60238742828369</v>
+        <v>9.71412467956543</v>
       </c>
       <c r="H14" t="n">
-        <v>11.32893085479736</v>
+        <v>10.4277458190918</v>
       </c>
       <c r="I14" t="n">
-        <v>9.778695106506348</v>
+        <v>8.89646053314209</v>
       </c>
       <c r="J14" t="n">
-        <v>1.550235748291016</v>
+        <v>1.531285285949707</v>
       </c>
       <c r="K14" t="n">
-        <v>23.56926680511205</v>
+        <v>33.64837129087404</v>
       </c>
       <c r="L14" t="n">
-        <v>4300.037</v>
+        <v>4300</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6774447</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N14" t="n">
-        <v>0.11792816</v>
+        <v>0.1380384264602885</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6290876</v>
+        <v>0.669</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5122882195740582</v>
+        <v>0.5542511296966425</v>
       </c>
       <c r="Q14" t="n">
-        <v>162.696380646359</v>
+        <v>181.41725770758</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1734639781075541</v>
+        <v>0.1616633539629952</v>
       </c>
       <c r="S14" t="n">
-        <v>1.142903089246784</v>
+        <v>1.1181380300198</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1720035906009942</v>
+        <v>0.1600367853530703</v>
       </c>
       <c r="U14" t="n">
-        <v>1.133281025859595</v>
+        <v>1.10688793420891</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9058561168673462</v>
+        <v>0.8428023364428898</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5877095322690731</v>
+        <v>0.6242816947374398</v>
       </c>
       <c r="X14" t="n">
-        <v>0.2322136979644548</v>
+        <v>0.2479913943179192</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9135472409374404</v>
+        <v>0.8513683409511973</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.721074765720185</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>4.639</v>
+        <v>2.304468294889742</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -2425,28 +2440,28 @@
           <t>K</t>
         </is>
       </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>87773</t>
+        </is>
+      </c>
       <c r="AI14" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>K4:</t>
+          <t>K6V</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>K4</t>
+          <t>K6V</t>
         </is>
       </c>
       <c r="AM14" t="n">
-        <v>42.42813356345499</v>
+        <v>29.71912046962034</v>
       </c>
       <c r="AN14" t="n">
         <v>0</v>
@@ -2464,100 +2479,94 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Gaia DR3 4673947174316727040</t>
+          <t>Gaia DR3 180186934769703936</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4673947174316727040</t>
+          <t>180186934769703936</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4673947174316727040</t>
+          <t>180186934769703936</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51.75029890079423</v>
+        <v>79.0432221738001</v>
       </c>
       <c r="E15" t="n">
-        <v>-63.50020035944183</v>
+        <v>30.58506170159097</v>
       </c>
       <c r="F15" t="n">
-        <v>8.069829419689178</v>
+        <v>11.40742434924126</v>
       </c>
       <c r="G15" t="n">
-        <v>7.686758995056152</v>
+        <v>10.8688850402832</v>
       </c>
       <c r="H15" t="n">
-        <v>8.306118011474609</v>
+        <v>11.65057849884033</v>
       </c>
       <c r="I15" t="n">
-        <v>6.936548233032227</v>
+        <v>10.00517272949219</v>
       </c>
       <c r="J15" t="n">
-        <v>1.369569778442383</v>
+        <v>1.645405769348145</v>
       </c>
       <c r="K15" t="n">
-        <v>61.22711646241579</v>
+        <v>21.00122177777777</v>
       </c>
       <c r="L15" t="n">
-        <v>4425.028</v>
+        <v>4319.7676</v>
       </c>
       <c r="M15" t="n">
-        <v>0.715</v>
+        <v>0.6836718000000001</v>
       </c>
       <c r="N15" t="n">
-        <v>0.20409887</v>
+        <v>0.1360115</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7259589</v>
+        <v>0.6582687</v>
       </c>
       <c r="P15" t="n">
-        <v>0.6687555258669828</v>
+        <v>0.5495029267289406</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.2062132450272</v>
+        <v>179.917929391643</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04966226803465653</v>
+        <v>0.2813225448881114</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3840778462287892</v>
+        <v>1.928498791447363</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04342301811504145</v>
+        <v>0.2803912485433003</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3358247606158521</v>
+        <v>1.92211464659981</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2286520868473962</v>
+        <v>1.476629902868835</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7221379453675071</v>
+        <v>0.6239846072164795</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2981269094853483</v>
+        <v>0.2479437674873561</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2615060333580433</v>
+        <v>1.481534406979877</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.868830615026467</v>
+        <v>2.396834518088147</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.5377</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>-4.66748991959</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>4.384971080522081</v>
+        <v>4.6574</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
@@ -2565,38 +2574,13 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>HD 21749</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>GJ 143</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>16069</t>
-        </is>
-      </c>
       <c r="AI15" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
       </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>K4.5V</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>K4V and K5V</t>
-        </is>
-      </c>
       <c r="AM15" t="n">
-        <v>16.33263262714404</v>
+        <v>47.61627730907255</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
@@ -2605,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -2614,87 +2598,90 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Gaia DR3 2770944059921387648</t>
+          <t>Gaia DR3 4610267648427698816</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2770944059921387648</t>
+          <t>4610267648427698816</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2770944059921387648</t>
+          <t>4610267648427698816</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>355.4678603115763</v>
+        <v>271.9355112378078</v>
       </c>
       <c r="E16" t="n">
-        <v>14.10679271225886</v>
+        <v>39.07288752305053</v>
       </c>
       <c r="F16" t="n">
-        <v>11.98482866867066</v>
+        <v>8.934448291769028</v>
       </c>
       <c r="G16" t="n">
-        <v>11.28541278839111</v>
+        <v>8.514701843261719</v>
       </c>
       <c r="H16" t="n">
-        <v>12.23471260070801</v>
+        <v>9.172327995300293</v>
       </c>
       <c r="I16" t="n">
-        <v>10.31892585754395</v>
+        <v>7.738832473754883</v>
       </c>
       <c r="J16" t="n">
-        <v>1.915786743164062</v>
+        <v>1.43349552154541</v>
       </c>
       <c r="K16" t="n">
-        <v>23.21582587796107</v>
+        <v>44.10871283656803</v>
       </c>
       <c r="L16" t="n">
-        <v>4440</v>
+        <v>4354.2</v>
       </c>
       <c r="M16" t="n">
-        <v>0.61799276</v>
+        <v>0.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.08873565999999999</v>
+        <v>0.19717869</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6767592</v>
+        <v>0.77379704</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4405418966456527</v>
+        <v>0.6602259989980944</v>
       </c>
       <c r="Q16" t="n">
-        <v>135.8414770002599</v>
+        <v>234.171035481181</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2641899667598849</v>
+        <v>0.09273171207046728</v>
       </c>
       <c r="S16" t="n">
-        <v>1.54172749561661</v>
+        <v>0.7050657275740375</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2632679772061057</v>
+        <v>0.08952551359744998</v>
       </c>
       <c r="U16" t="n">
-        <v>1.536347061744855</v>
+        <v>0.6806880836305408</v>
       </c>
       <c r="V16" t="n">
-        <v>1.386567905368733</v>
+        <v>0.4714156517828663</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5499689094370264</v>
+        <v>0.7308726003480734</v>
       </c>
       <c r="X16" t="n">
-        <v>0.2156321914866056</v>
+        <v>0.2934333863422879</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.39142379835626</v>
+        <v>0.4882985724405338</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.993796742483795</v>
+        <v>1.510834341188195</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4.5392</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -2706,11 +2693,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>116907</t>
-        </is>
-      </c>
       <c r="AI16" t="inlineStr">
         <is>
           <t>PM*</t>
@@ -2727,7 +2709,7 @@
         </is>
       </c>
       <c r="AM16" t="n">
-        <v>43.07406530599913</v>
+        <v>22.67125780126952</v>
       </c>
       <c r="AN16" t="n">
         <v>0</v>
@@ -2736,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" t="n">
         <v>1</v>
@@ -2745,90 +2727,90 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gaia DR3 6598814657249555328</t>
+          <t>Gaia DR3 184411949935279616</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6598814657249555328</t>
+          <t>184411949935279616</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6598814657249555328</t>
+          <t>184411949935279616</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>336.4024189279597</v>
+        <v>81.40224792441408</v>
       </c>
       <c r="E17" t="n">
-        <v>-34.90971737513212</v>
+        <v>37.11825324469702</v>
       </c>
       <c r="F17" t="n">
-        <v>10.49914914899826</v>
+        <v>10.73406976305962</v>
       </c>
       <c r="G17" t="n">
-        <v>10.07847023010254</v>
+        <v>10.31053733825684</v>
       </c>
       <c r="H17" t="n">
-        <v>10.73707008361816</v>
+        <v>10.97207546234131</v>
       </c>
       <c r="I17" t="n">
-        <v>9.301918029785156</v>
+        <v>9.533517837524414</v>
       </c>
       <c r="J17" t="n">
-        <v>1.435152053833008</v>
+        <v>1.438557624816895</v>
       </c>
       <c r="K17" t="n">
-        <v>23.5714646497582</v>
+        <v>20.96490950442792</v>
       </c>
       <c r="L17" t="n">
-        <v>4441.924</v>
+        <v>4425.516</v>
       </c>
       <c r="M17" t="n">
-        <v>0.69893134</v>
+        <v>0.7063087</v>
       </c>
       <c r="N17" t="n">
-        <v>0.16475111</v>
+        <v>0.17923713</v>
       </c>
       <c r="O17" t="n">
-        <v>0.70369965</v>
+        <v>0.7630046</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6002050508857573</v>
+        <v>0.6266827872257199</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.1306574639146</v>
+        <v>215.5845503710325</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1348606787880528</v>
+        <v>0.2039887089833884</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9769186864503394</v>
+        <v>1.517865485656713</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1328220174039462</v>
+        <v>0.2026150728216341</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9621508058540353</v>
+        <v>1.50764435660419</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6994500493180023</v>
+        <v>1.066956811218029</v>
       </c>
       <c r="W17" t="n">
-        <v>0.6624574940687769</v>
+        <v>0.6850170741501828</v>
       </c>
       <c r="X17" t="n">
-        <v>0.2729424054078003</v>
+        <v>0.2820361089135931</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.7101857829977538</v>
+        <v>1.074190283232273</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.005730181042971</v>
+        <v>1.590058442293054</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.6188</v>
+        <v>4.6164</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -2840,33 +2822,13 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>110692</t>
-        </is>
-      </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>K5V</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>K5V</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AM17" t="n">
-        <v>42.42417748997443</v>
+        <v>47.69875108637095</v>
       </c>
       <c r="AN17" t="n">
         <v>0</v>
@@ -2875,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -2884,100 +2846,91 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Gaia DR3 2791782794564103808</t>
+          <t>Gaia DR3 2770944059921387648</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2791782794564103808</t>
+          <t>2770944059921387648</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2791782794564103808</t>
+          <t>2770944059921387648</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>16.90830744929983</v>
+        <v>355.4678603115763</v>
       </c>
       <c r="E18" t="n">
-        <v>22.95280031332393</v>
+        <v>14.10679271225886</v>
       </c>
       <c r="F18" t="n">
-        <v>8.398182445340156</v>
+        <v>11.98482866867066</v>
       </c>
       <c r="G18" t="n">
-        <v>8.033944129943848</v>
+        <v>11.28541278839111</v>
       </c>
       <c r="H18" t="n">
-        <v>8.63361644744873</v>
+        <v>12.23471260070801</v>
       </c>
       <c r="I18" t="n">
-        <v>7.298381328582764</v>
+        <v>10.31892585754395</v>
       </c>
       <c r="J18" t="n">
-        <v>1.335235118865967</v>
+        <v>1.915786743164062</v>
       </c>
       <c r="K18" t="n">
-        <v>48.68069798652214</v>
+        <v>23.21582587796107</v>
       </c>
       <c r="L18" t="n">
-        <v>4488.907</v>
+        <v>4440</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7336021700000001</v>
+        <v>0.61799276</v>
       </c>
       <c r="N18" t="n">
-        <v>0.22502872</v>
+        <v>0.08873565999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7274849</v>
+        <v>0.6767592</v>
       </c>
       <c r="P18" t="n">
-        <v>0.6993775264486813</v>
+        <v>0.4405418966456527</v>
       </c>
       <c r="Q18" t="n">
-        <v>249.3908228905306</v>
+        <v>135.8414770002599</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05573433998769478</v>
+        <v>0.3597223866285498</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4464933530419892</v>
+        <v>2.099223907159651</v>
       </c>
       <c r="T18" t="n">
-        <v>0.05016526836124941</v>
+        <v>0.359045797534723</v>
       </c>
       <c r="U18" t="n">
-        <v>0.4018789651373045</v>
+        <v>2.095275551277783</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2641465911601408</v>
+        <v>1.891006208588065</v>
       </c>
       <c r="W18" t="n">
-        <v>0.7337565361517896</v>
+        <v>0.5499689094370264</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3110687551322458</v>
+        <v>0.2156321914866056</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2934706899660893</v>
+        <v>1.894569637504026</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.905410952608699</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>4.5274</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>-4.68203571825</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>4.14782770120562</v>
+        <v>1.993796742483795</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
@@ -2985,19 +2938,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>HD 6660</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>GJ 9040</t>
-        </is>
-      </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>5286</t>
+          <t>116907</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
@@ -3005,23 +2948,18 @@
           <t>PM*</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>K4V</t>
+          <t>K5V</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>K4V</t>
+          <t>K5V</t>
         </is>
       </c>
       <c r="AM18" t="n">
-        <v>20.54202263650497</v>
+        <v>43.07406530599913</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -3039,91 +2977,100 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gaia DR3 1272123859439770368</t>
+          <t>Gaia DR3 2791782794564103808</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1272123859439770368</t>
+          <t>2791782794564103808</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1272123859439770368</t>
+          <t>2791782794564103808</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>229.8374198365442</v>
+        <v>16.90830744929983</v>
       </c>
       <c r="E19" t="n">
-        <v>29.20793203886556</v>
+        <v>22.95280031332393</v>
       </c>
       <c r="F19" t="n">
-        <v>10.20596321287155</v>
+        <v>8.398182445340156</v>
       </c>
       <c r="G19" t="n">
-        <v>9.723947525024414</v>
+        <v>8.033944129943848</v>
       </c>
       <c r="H19" t="n">
-        <v>10.44666004180908</v>
+        <v>8.63361644744873</v>
       </c>
       <c r="I19" t="n">
-        <v>8.899981498718262</v>
+        <v>7.298381328582764</v>
       </c>
       <c r="J19" t="n">
-        <v>1.54667854309082</v>
+        <v>1.335235118865967</v>
       </c>
       <c r="K19" t="n">
-        <v>35.66639024695957</v>
+        <v>48.68069798652214</v>
       </c>
       <c r="L19" t="n">
-        <v>4520</v>
+        <v>4488.907</v>
       </c>
       <c r="M19" t="n">
-        <v>0.715</v>
+        <v>0.7336021700000001</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1889769386709453</v>
+        <v>0.22502872</v>
       </c>
       <c r="O19" t="n">
-        <v>0.707</v>
+        <v>0.7274849</v>
       </c>
       <c r="P19" t="n">
-        <v>0.6396380809435466</v>
+        <v>0.6993775264486813</v>
       </c>
       <c r="Q19" t="n">
-        <v>220.9488316052588</v>
+        <v>249.3908228905306</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1176055885210543</v>
+        <v>0.07191475494241074</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8895167524026653</v>
+        <v>0.5761162700503707</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1151930164008232</v>
+        <v>0.06769024652281308</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8712691219599932</v>
+        <v>0.542273312017016</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6065912711914886</v>
+        <v>0.356424842483297</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6875322346462042</v>
+        <v>0.7337565361517896</v>
       </c>
       <c r="X19" t="n">
-        <v>0.2910348595471279</v>
+        <v>0.3110687551322458</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6192955586125241</v>
+        <v>0.3786691069877408</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.023241853551796</v>
+        <v>1.905410952608699</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>4.5274</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-4.68203571825</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4.14782770120562</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>HD_number_match</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3131,9 +3078,19 @@
           <t>K</t>
         </is>
       </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>HD 6660</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>GJ 9040</t>
+        </is>
+      </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>74981</t>
+          <t>5286</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
@@ -3141,18 +3098,23 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>K4/5V</t>
+          <t>K4V</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>K4V and K5V</t>
+          <t>K4V</t>
         </is>
       </c>
       <c r="AM19" t="n">
-        <v>28.03760047136383</v>
+        <v>20.54202263650497</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
@@ -3161,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -3170,42 +3132,42 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gaia DR3 5378886891123024512</t>
+          <t>Gaia DR3 1272123859439770368</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5378886891122066560</t>
+          <t>1272123859439770368</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5378886891123024512</t>
+          <t>1272123859439770368</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>175.2561753700118</v>
+        <v>229.8374198365442</v>
       </c>
       <c r="E20" t="n">
-        <v>-44.40411484982858</v>
+        <v>29.20793203886556</v>
       </c>
       <c r="F20" t="n">
-        <v>7.744590456547737</v>
+        <v>10.20596321287155</v>
       </c>
       <c r="G20" t="n">
-        <v>7.394228935241699</v>
+        <v>9.723947525024414</v>
       </c>
       <c r="H20" t="n">
-        <v>7.979490756988525</v>
+        <v>10.44666004180908</v>
       </c>
       <c r="I20" t="n">
-        <v>6.665698051452637</v>
+        <v>8.899981498718262</v>
       </c>
       <c r="J20" t="n">
-        <v>1.313792705535889</v>
+        <v>1.54667854309082</v>
       </c>
       <c r="K20" t="n">
-        <v>78.22675647892444</v>
+        <v>35.66639024695957</v>
       </c>
       <c r="L20" t="n">
         <v>4520</v>
@@ -3214,53 +3176,47 @@
         <v>0.715</v>
       </c>
       <c r="N20" t="n">
-        <v>0.16284244</v>
+        <v>0.1889769386709453</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6427813</v>
+        <v>0.707</v>
       </c>
       <c r="P20" t="n">
-        <v>0.5937637878082087</v>
+        <v>0.6396380809435466</v>
       </c>
       <c r="Q20" t="n">
-        <v>197.6108576999949</v>
+        <v>220.9488316052588</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04369086509948313</v>
+        <v>0.1566662569553935</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3183878703705095</v>
+        <v>1.184954404382703</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03707916719312158</v>
+        <v>0.1548633999515385</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2702065306065478</v>
+        <v>1.171318389910241</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1952637408705858</v>
+        <v>0.8154902924911025</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6382230139918799</v>
+        <v>0.6875322346462042</v>
       </c>
       <c r="X20" t="n">
-        <v>0.2713711300321883</v>
+        <v>0.2910348595471279</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2300818062272929</v>
+        <v>0.8249839003148582</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.692255921705275</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>-4.74418052278</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>3.270847772146885</v>
+        <v>2.023241853551796</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>HIP_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -3268,19 +3224,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>HD 101581</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>GJ 435</t>
-        </is>
-      </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>56998</t>
+          <t>74981</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
@@ -3290,7 +3236,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>K4.5Vk:</t>
+          <t>K4/5V</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -3299,7 +3245,7 @@
         </is>
       </c>
       <c r="AM20" t="n">
-        <v>12.7833499049576</v>
+        <v>28.03760047136383</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
@@ -3317,90 +3263,90 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gaia DR3 5325767388444756480</t>
+          <t>Gaia DR3 60186343087140096</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5325767388444756480</t>
+          <t>60186343087140096</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5325767388444756480</t>
+          <t>60186343087140096</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>139.1997015342066</v>
+        <v>45.9545660251255</v>
       </c>
       <c r="E21" t="n">
-        <v>-49.30082792400839</v>
+        <v>20.11057925630227</v>
       </c>
       <c r="F21" t="n">
-        <v>10.1820136902523</v>
+        <v>8.608256809897423</v>
       </c>
       <c r="G21" t="n">
-        <v>9.812497138977051</v>
+        <v>8.245732307434082</v>
       </c>
       <c r="H21" t="n">
-        <v>10.41759204864502</v>
+        <v>8.843671798706055</v>
       </c>
       <c r="I21" t="n">
-        <v>9.076557159423828</v>
+        <v>7.509200572967529</v>
       </c>
       <c r="J21" t="n">
-        <v>1.341034889221191</v>
+        <v>1.334471225738525</v>
       </c>
       <c r="K21" t="n">
-        <v>21.6471107993488</v>
+        <v>46.76014268529342</v>
       </c>
       <c r="L21" t="n">
-        <v>4539.8853</v>
+        <v>4579.2236</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7320351</v>
+        <v>0.72567785</v>
       </c>
       <c r="N21" t="n">
-        <v>0.22394077</v>
+        <v>0.2053598</v>
       </c>
       <c r="O21" t="n">
-        <v>0.73675764</v>
+        <v>0.7136618</v>
       </c>
       <c r="P21" t="n">
-        <v>0.6954113091679722</v>
+        <v>0.6642458438548458</v>
       </c>
       <c r="Q21" t="n">
-        <v>247.5368920360654</v>
+        <v>232.0943657408344</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1166462661684868</v>
+        <v>0.07799499485754577</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9308156236180681</v>
+        <v>0.6056323786844908</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1140987493424382</v>
+        <v>0.07424266905483243</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9104869106553163</v>
+        <v>0.5764955089962865</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6007927048355225</v>
+        <v>0.3909424194954803</v>
       </c>
       <c r="W21" t="n">
-        <v>0.7294174640323159</v>
+        <v>0.7015875007370728</v>
       </c>
       <c r="X21" t="n">
-        <v>0.31266588263643</v>
+        <v>0.3028590455488905</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.6142067828456348</v>
+        <v>0.410701182841726</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.830450382631331</v>
+        <v>1.996487126693565</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.5657</v>
+        <v>4.5706</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -3412,16 +3358,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>HD 297396</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>45533</t>
-        </is>
-      </c>
       <c r="AI21" t="inlineStr">
         <is>
           <t>PM*</t>
@@ -3434,16 +3370,16 @@
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>K0</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>K0</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="AM21" t="n">
-        <v>46.19554125579117</v>
+        <v>21.38573457164644</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
@@ -3461,90 +3397,90 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gaia DR3 60186343087140096</t>
+          <t>Gaia DR3 4602034956332491264</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>60186343087140096</t>
+          <t>4602034956332491264</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>60186343087140096</t>
+          <t>4602034956332491264</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45.9545660251255</v>
+        <v>263.1525404486072</v>
       </c>
       <c r="E22" t="n">
-        <v>20.11057925630227</v>
+        <v>33.5705809442014</v>
       </c>
       <c r="F22" t="n">
-        <v>8.608256809897423</v>
+        <v>10.22225809803009</v>
       </c>
       <c r="G22" t="n">
-        <v>8.245732307434082</v>
+        <v>9.900899887084961</v>
       </c>
       <c r="H22" t="n">
-        <v>8.843671798706055</v>
+        <v>10.4557638168335</v>
       </c>
       <c r="I22" t="n">
-        <v>7.509200572967529</v>
+        <v>9.198000907897949</v>
       </c>
       <c r="J22" t="n">
-        <v>1.334471225738525</v>
+        <v>1.257762908935547</v>
       </c>
       <c r="K22" t="n">
-        <v>46.76014268529342</v>
+        <v>21.44985174220527</v>
       </c>
       <c r="L22" t="n">
-        <v>4579.2236</v>
+        <v>4587.278</v>
       </c>
       <c r="M22" t="n">
-        <v>0.72567785</v>
+        <v>0.7274378</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2053598</v>
+        <v>0.214683</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7136618</v>
+        <v>0.73652107</v>
       </c>
       <c r="P22" t="n">
-        <v>0.6642458438548458</v>
+        <v>0.6788015828931457</v>
       </c>
       <c r="Q22" t="n">
-        <v>232.0943657408344</v>
+        <v>239.4746791302238</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06035537040755387</v>
+        <v>0.1579745895846015</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4686604135697814</v>
+        <v>1.241545346976267</v>
       </c>
       <c r="T22" t="n">
-        <v>0.05542134446754076</v>
+        <v>0.1561296394692667</v>
       </c>
       <c r="U22" t="n">
-        <v>0.4303476234734562</v>
+        <v>1.227045614854029</v>
       </c>
       <c r="V22" t="n">
-        <v>0.2918342615326889</v>
+        <v>0.8221238855434263</v>
       </c>
       <c r="W22" t="n">
-        <v>0.7015875007370728</v>
+        <v>0.7149725236801459</v>
       </c>
       <c r="X22" t="n">
-        <v>0.3028590455488905</v>
+        <v>0.3092180413186166</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3178155478118442</v>
+        <v>0.8318387453394831</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.996487126693565</v>
+        <v>1.820708158970962</v>
       </c>
       <c r="AA22" t="n">
-        <v>4.5706</v>
+        <v>4.5581</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -3556,6 +3492,11 @@
           <t>K</t>
         </is>
       </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>85850</t>
+        </is>
+      </c>
       <c r="AI22" t="inlineStr">
         <is>
           <t>PM*</t>
@@ -3568,16 +3509,16 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>K3:V</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>K3</t>
         </is>
       </c>
       <c r="AM22" t="n">
-        <v>21.38573457164644</v>
+        <v>46.62036885002683</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
@@ -3595,90 +3536,90 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gaia DR3 5452634262730082176</t>
+          <t>Gaia DR3 898844639674672640</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5452634262730082176</t>
+          <t>898844639674672640</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5452634262730082176</t>
+          <t>898844639674672640</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>167.608216318683</v>
+        <v>111.2558130720498</v>
       </c>
       <c r="E23" t="n">
-        <v>-29.41431209605025</v>
+        <v>37.23112383360879</v>
       </c>
       <c r="F23" t="n">
-        <v>9.814563475704194</v>
+        <v>9.53049582408905</v>
       </c>
       <c r="G23" t="n">
-        <v>9.488162040710449</v>
+        <v>9.197406768798828</v>
       </c>
       <c r="H23" t="n">
-        <v>10.04827499389648</v>
+        <v>9.764493942260742</v>
       </c>
       <c r="I23" t="n">
-        <v>8.782243728637695</v>
+        <v>8.486948013305664</v>
       </c>
       <c r="J23" t="n">
-        <v>1.266031265258789</v>
+        <v>1.277545928955078</v>
       </c>
       <c r="K23" t="n">
-        <v>25.286491031335</v>
+        <v>30.70269405102268</v>
       </c>
       <c r="L23" t="n">
-        <v>4588.8623</v>
+        <v>4589.6787</v>
       </c>
       <c r="M23" t="n">
-        <v>0.77289814</v>
+        <v>0.7266916</v>
       </c>
       <c r="N23" t="n">
-        <v>0.21581028</v>
+        <v>0.1987557</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6962458500000001</v>
+        <v>0.70507497</v>
       </c>
       <c r="P23" t="n">
-        <v>0.6805113423426657</v>
+        <v>0.6530343908263153</v>
       </c>
       <c r="Q23" t="n">
-        <v>233.2035643020673</v>
+        <v>226.0852723728449</v>
       </c>
       <c r="R23" t="n">
-        <v>0.09949500387110793</v>
+        <v>0.1159900939906815</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8070233188124741</v>
+        <v>0.8936552115002135</v>
       </c>
       <c r="T23" t="n">
-        <v>0.09665232098183901</v>
+        <v>0.113534169744758</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7839657652633414</v>
+        <v>0.8747333413136471</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5089444904838759</v>
+        <v>0.5978492118950282</v>
       </c>
       <c r="W23" t="n">
-        <v>0.6745671812258415</v>
+        <v>0.6884658984527435</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3016979981793136</v>
+        <v>0.2984421972148861</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5239132752992769</v>
+        <v>0.6107816390066209</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.289994311244139</v>
+        <v>2.073214546309858</v>
       </c>
       <c r="AA23" t="n">
-        <v>4.5614</v>
+        <v>4.5934</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -3690,14 +3631,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>54597</t>
-        </is>
-      </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>*</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -3707,16 +3643,16 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>K5V</t>
+          <t>K3</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>K5V</t>
+          <t>K3</t>
         </is>
       </c>
       <c r="AM23" t="n">
-        <v>39.54680777023592</v>
+        <v>32.57043171319655</v>
       </c>
       <c r="AN23" t="n">
         <v>0</v>
@@ -3725,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -3734,87 +3670,90 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gaia DR3 22707874346819712</t>
+          <t>Gaia DR3 1476485996883837184</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>22707874346819712</t>
+          <t>1476485996883837184</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22707874346819712</t>
+          <t>1476485996883837184</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>37.76535152334981</v>
+        <v>201.2826037071949</v>
       </c>
       <c r="E24" t="n">
-        <v>8.381613580900424</v>
+        <v>38.92236336733445</v>
       </c>
       <c r="F24" t="n">
-        <v>10.87600070545196</v>
+        <v>10.00672594923973</v>
       </c>
       <c r="G24" t="n">
-        <v>10.32521152496338</v>
+        <v>9.684284210205078</v>
       </c>
       <c r="H24" t="n">
-        <v>11.11956405639648</v>
+        <v>10.24029350280762</v>
       </c>
       <c r="I24" t="n">
-        <v>9.457717895507812</v>
+        <v>8.980046272277832</v>
       </c>
       <c r="J24" t="n">
-        <v>1.661846160888672</v>
+        <v>1.260247230529785</v>
       </c>
       <c r="K24" t="n">
-        <v>27.77157325715956</v>
+        <v>23.48043674491943</v>
       </c>
       <c r="L24" t="n">
-        <v>4600</v>
+        <v>4591.5635</v>
       </c>
       <c r="M24" t="n">
-        <v>0.73</v>
+        <v>0.72472525</v>
       </c>
       <c r="N24" t="n">
-        <v>0.204173794466953</v>
+        <v>0.21716222</v>
       </c>
       <c r="O24" t="n">
-        <v>0.713</v>
+        <v>0.7364106</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6614310409124528</v>
+        <v>0.6825196687389138</v>
       </c>
       <c r="Q24" t="n">
-        <v>229.936910321767</v>
+        <v>241.8963545075621</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1594787958736406</v>
+        <v>0.143430135956279</v>
       </c>
       <c r="S24" t="n">
-        <v>1.239403332584826</v>
+        <v>1.128211929288773</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1576906114059104</v>
+        <v>0.1413817863485376</v>
       </c>
       <c r="U24" t="n">
-        <v>1.225506301468932</v>
+        <v>1.112099747233029</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8303614306025773</v>
+        <v>0.7444627039950684</v>
       </c>
       <c r="W24" t="n">
-        <v>0.6938444891297019</v>
+        <v>0.7214435672571633</v>
       </c>
       <c r="X24" t="n">
-        <v>0.3020079382929376</v>
+        <v>0.3115801643514664</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.8397775867045005</v>
+        <v>0.7552485338186293</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.013975905790975</v>
+        <v>1.814735350443754</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4.5594</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -3828,26 +3767,31 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>11707</t>
+          <t>65469</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>MS*</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>GAIA</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>K4V</t>
+          <t>K8V</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>K4V</t>
+          <t>K8V</t>
         </is>
       </c>
       <c r="AM24" t="n">
-        <v>36.00804285519541</v>
+        <v>42.58864563992297</v>
       </c>
       <c r="AN24" t="n">
         <v>0</v>
@@ -3856,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ24" t="n">
         <v>1</v>
@@ -3865,100 +3809,91 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gaia DR3 6748283784056800384</t>
+          <t>Gaia DR3 22707874346819712</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6748283784056800384</t>
+          <t>22707874346819712</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6748283784056800384</t>
+          <t>22707874346819712</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>299.1564058280886</v>
+        <v>37.76535152334981</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.33517684397185</v>
+        <v>8.381613580900424</v>
       </c>
       <c r="F25" t="n">
-        <v>8.397654054045677</v>
+        <v>10.87600070545196</v>
       </c>
       <c r="G25" t="n">
-        <v>8.074734687805176</v>
+        <v>10.32521152496338</v>
       </c>
       <c r="H25" t="n">
-        <v>8.631278991699219</v>
+        <v>11.11956405639648</v>
       </c>
       <c r="I25" t="n">
-        <v>7.368726253509521</v>
+        <v>9.457717895507812</v>
       </c>
       <c r="J25" t="n">
-        <v>1.262552738189697</v>
+        <v>1.661846160888672</v>
       </c>
       <c r="K25" t="n">
-        <v>51.15731381284287</v>
+        <v>27.77157325715956</v>
       </c>
       <c r="L25" t="n">
-        <v>4607.3096</v>
+        <v>4600</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7573036</v>
+        <v>0.73</v>
       </c>
       <c r="N25" t="n">
-        <v>0.19909318</v>
+        <v>0.204173794466953</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6912844</v>
+        <v>0.713</v>
       </c>
       <c r="P25" t="n">
-        <v>0.652838626885515</v>
+        <v>0.6614310409124528</v>
       </c>
       <c r="Q25" t="n">
-        <v>221.3691085162</v>
+        <v>229.936910321767</v>
       </c>
       <c r="R25" t="n">
-        <v>0.05556778869878048</v>
+        <v>0.2123283138034584</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4369855154896619</v>
+        <v>1.650127957691832</v>
       </c>
       <c r="T25" t="n">
-        <v>0.05038807656028661</v>
+        <v>0.2109885196755582</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3962522196013287</v>
+        <v>1.639715631100071</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2653367376694761</v>
+        <v>1.11101559868738</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6599307895849604</v>
+        <v>0.6938444891297019</v>
       </c>
       <c r="X25" t="n">
-        <v>0.293826991436123</v>
+        <v>0.3020079382929376</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2926123952201388</v>
+        <v>1.118070637404254</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.292449366349665</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>4.5931</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>-4.86066630922</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>2.095530212495538</v>
+        <v>2.013975905790975</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
@@ -3966,19 +3901,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>HD 188474</t>
-        </is>
-      </c>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>GJ 1246</t>
-        </is>
-      </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>98130</t>
+          <t>11707</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
@@ -3986,23 +3911,18 @@
           <t>PM*</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>K3.5Vk:</t>
+          <t>K4V</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>K3.5V</t>
+          <t>K4V</t>
         </is>
       </c>
       <c r="AM25" t="n">
-        <v>19.54754707525229</v>
+        <v>36.00804285519541</v>
       </c>
       <c r="AN25" t="n">
         <v>0</v>
@@ -4011,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -4020,100 +3940,94 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Gaia DR3 4674216245427964416</t>
+          <t>Gaia DR3 2086512227851023872</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4674216245427964416</t>
+          <t>2086512227851023872</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4674216245427964416</t>
+          <t>2086512227851023872</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>55.45900041524187</v>
+        <v>297.7102025682552</v>
       </c>
       <c r="E26" t="n">
-        <v>-62.76727286183441</v>
+        <v>48.08189581073163</v>
       </c>
       <c r="F26" t="n">
-        <v>9.704579125394821</v>
+        <v>9.487530094146729</v>
       </c>
       <c r="G26" t="n">
-        <v>9.389914512634277</v>
+        <v>9.158262252807617</v>
       </c>
       <c r="H26" t="n">
-        <v>9.937756538391113</v>
+        <v>9.72132682800293</v>
       </c>
       <c r="I26" t="n">
-        <v>8.693183898925781</v>
+        <v>8.451871871948242</v>
       </c>
       <c r="J26" t="n">
-        <v>1.244572639465332</v>
+        <v>1.269454956054688</v>
       </c>
       <c r="K26" t="n">
-        <v>25.58174404360942</v>
+        <v>26.42739346834739</v>
       </c>
       <c r="L26" t="n">
-        <v>4626.067</v>
+        <v>4642.4844</v>
       </c>
       <c r="M26" t="n">
-        <v>0.77930176</v>
+        <v>0.77286124</v>
       </c>
       <c r="N26" t="n">
-        <v>0.22646892</v>
+        <v>0.25938237</v>
       </c>
       <c r="O26" t="n">
-        <v>0.69124407</v>
+        <v>0.736324</v>
       </c>
       <c r="P26" t="n">
-        <v>0.6954239748424974</v>
+        <v>0.7434438366629565</v>
       </c>
       <c r="Q26" t="n">
-        <v>239.9191547480468</v>
+        <v>266.2960638713244</v>
       </c>
       <c r="R26" t="n">
-        <v>0.09510195735116488</v>
+        <v>0.1139894932824745</v>
       </c>
       <c r="S26" t="n">
-        <v>0.7830204577516093</v>
+        <v>0.9663749523476942</v>
       </c>
       <c r="T26" t="n">
-        <v>0.09209382796657775</v>
+        <v>0.1113478154113415</v>
       </c>
       <c r="U26" t="n">
-        <v>0.758253072165653</v>
+        <v>0.9439794555933754</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4849332799722899</v>
+        <v>0.5862810659288908</v>
       </c>
       <c r="W26" t="n">
-        <v>0.6825847911666292</v>
+        <v>0.7352878544717976</v>
       </c>
       <c r="X26" t="n">
-        <v>0.3088865340670015</v>
+        <v>0.3311278931814672</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.5007730173494599</v>
+        <v>0.6001903259570932</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.35945338299386</v>
+        <v>1.935952327392637</v>
       </c>
       <c r="AA26" t="n">
-        <v>4.5563</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>-5.00751781675</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.195419743085764</v>
+        <v>4.5454</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>HIP_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
@@ -4121,19 +4035,14 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>HD 23472</t>
-        </is>
-      </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>17264</t>
+          <t>97657</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>EB*</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -4143,16 +4052,16 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>K3.5V</t>
+          <t>K4V</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>K3.5V</t>
+          <t>K4V</t>
         </is>
       </c>
       <c r="AM26" t="n">
-        <v>39.0903762579788</v>
+        <v>37.83952440098642</v>
       </c>
       <c r="AN26" t="n">
         <v>0</v>
@@ -4170,100 +4079,94 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gaia DR3 6449124395465377920</t>
+          <t>Gaia DR3 2125408894785068032</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6449124395465377920</t>
+          <t>2125408894785068032</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6449124395465377920</t>
+          <t>2125408894785068032</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>299.6382737364681</v>
+        <v>272.264229406888</v>
       </c>
       <c r="E27" t="n">
-        <v>-54.93744015670649</v>
+        <v>53.2177321421147</v>
       </c>
       <c r="F27" t="n">
-        <v>8.520190569677354</v>
+        <v>9.577175550098419</v>
       </c>
       <c r="G27" t="n">
-        <v>8.205111503601074</v>
+        <v>9.287906646728516</v>
       </c>
       <c r="H27" t="n">
-        <v>8.753386497497559</v>
+        <v>9.809380531311035</v>
       </c>
       <c r="I27" t="n">
-        <v>7.50806999206543</v>
+        <v>8.603877067565918</v>
       </c>
       <c r="J27" t="n">
-        <v>1.245316505432129</v>
+        <v>1.205503463745117</v>
       </c>
       <c r="K27" t="n">
-        <v>42.33558055527212</v>
+        <v>24.58257065837287</v>
       </c>
       <c r="L27" t="n">
-        <v>4639.5264</v>
+        <v>4707.9673</v>
       </c>
       <c r="M27" t="n">
-        <v>0.759942</v>
+        <v>0.79830855</v>
       </c>
       <c r="N27" t="n">
-        <v>0.2474649</v>
+        <v>0.2589496</v>
       </c>
       <c r="O27" t="n">
-        <v>0.7324218</v>
+        <v>0.69748414</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7263050483772131</v>
+        <v>0.7396181226820979</v>
       </c>
       <c r="Q27" t="n">
-        <v>259.3173849157137</v>
+        <v>259.9975098515255</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05869873171926452</v>
+        <v>0.1185138923157277</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4877356136941862</v>
+        <v>1.018507941129634</v>
       </c>
       <c r="T27" t="n">
-        <v>0.05342200157079672</v>
+        <v>0.11604287537474</v>
       </c>
       <c r="U27" t="n">
-        <v>0.4438905570484921</v>
+        <v>0.9972720309094462</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2812883353817728</v>
+        <v>0.6110114281993515</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7306400100145035</v>
+        <v>0.7062916012646738</v>
       </c>
       <c r="X27" t="n">
-        <v>0.3262359797813806</v>
+        <v>0.3286934536753789</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3090724429793569</v>
+        <v>0.6240223053026807</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.93417898639118</v>
+        <v>2.352706598759871</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.5445</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>-4.90334141679</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>1.780136266581</v>
+        <v>4.539</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
@@ -4273,17 +4176,7 @@
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>HD 188559</t>
-        </is>
-      </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>GJ 1247</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>98316</t>
+          <t>HD 234571</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
@@ -4291,23 +4184,8 @@
           <t>PM*</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>K3+V</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
       <c r="AM27" t="n">
-        <v>23.620793358306</v>
+        <v>40.67922813676112</v>
       </c>
       <c r="AN27" t="n">
         <v>0</v>
@@ -4325,90 +4203,90 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Gaia DR3 6541360574788758016</t>
+          <t>Gaia DR3 1102667161725388160</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6541360574788758016</t>
+          <t>1102667161725388160</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6541360574788758016</t>
+          <t>1102667161725388160</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>343.5723797913607</v>
+        <v>101.4920242247687</v>
       </c>
       <c r="E28" t="n">
-        <v>-43.01022537484737</v>
+        <v>66.89064136772417</v>
       </c>
       <c r="F28" t="n">
-        <v>9.916725320062637</v>
+        <v>9.940090200386047</v>
       </c>
       <c r="G28" t="n">
-        <v>9.617802619934082</v>
+        <v>9.656110763549805</v>
       </c>
       <c r="H28" t="n">
-        <v>10.14913845062256</v>
+        <v>10.17185115814209</v>
       </c>
       <c r="I28" t="n">
-        <v>8.935272216796875</v>
+        <v>8.984187126159668</v>
       </c>
       <c r="J28" t="n">
-        <v>1.213866233825684</v>
+        <v>1.187664031982422</v>
       </c>
       <c r="K28" t="n">
-        <v>21.61785873098705</v>
+        <v>20.8579220981784</v>
       </c>
       <c r="L28" t="n">
-        <v>4694.7734</v>
+        <v>4737.4277</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7464493</v>
+        <v>0.79992634</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2629902</v>
+        <v>0.25812963</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7749384</v>
+        <v>0.70579004</v>
       </c>
       <c r="P28" t="n">
-        <v>0.7460188710533984</v>
+        <v>0.7369993473658524</v>
       </c>
       <c r="Q28" t="n">
-        <v>272.3753650437538</v>
+        <v>258.3562183250229</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1049057868236785</v>
+        <v>0.1392279782679628</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8755490982267587</v>
+        <v>1.195614194869303</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1019461794085843</v>
+        <v>0.1371391851798975</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8508480623559133</v>
+        <v>1.17767677526942</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5367704139405748</v>
+        <v>0.7220946725884959</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7623002622043877</v>
+        <v>0.701554724469413</v>
       </c>
       <c r="X28" t="n">
-        <v>0.3407088993809207</v>
+        <v>0.3290730038464346</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.5523534373213209</v>
+        <v>0.7330930342825158</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.603979339453181</v>
+        <v>2.27522012942171</v>
       </c>
       <c r="AA28" t="n">
-        <v>4.5495</v>
+        <v>4.5523</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -4420,38 +4298,13 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>HD 216530</t>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>113103</t>
-        </is>
-      </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>K3V</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>K3V</t>
+          <t>**</t>
         </is>
       </c>
       <c r="AM28" t="n">
-        <v>46.25805045929917</v>
+        <v>47.94341427170897</v>
       </c>
       <c r="AN28" t="n">
         <v>0</v>
@@ -4460,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -4469,100 +4322,97 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Gaia DR3 2908664557091200768</t>
+          <t>Gaia DR3 2009481748875806976</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2908664557091200768</t>
+          <t>2009481748875806976</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2908664557091200768</t>
+          <t>2009481748875806976</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>83.26925287515645</v>
+        <v>348.3377339548305</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.72384884501141</v>
+        <v>57.16966644274312</v>
       </c>
       <c r="F29" t="n">
-        <v>9.10165419424057</v>
+        <v>5.534101073470116</v>
       </c>
       <c r="G29" t="n">
-        <v>8.798720359802246</v>
+        <v>5.23189640045166</v>
       </c>
       <c r="H29" t="n">
-        <v>9.334208488464355</v>
+        <v>5.766575813293457</v>
       </c>
       <c r="I29" t="n">
-        <v>8.114670753479004</v>
+        <v>4.550234317779541</v>
       </c>
       <c r="J29" t="n">
-        <v>1.219537734985352</v>
+        <v>1.216341495513916</v>
       </c>
       <c r="K29" t="n">
-        <v>30.65166867430715</v>
+        <v>152.8640038973243</v>
       </c>
       <c r="L29" t="n">
-        <v>4713.7217</v>
+        <v>4742.42138671875</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7996412000000001</v>
+        <v>0.77</v>
       </c>
       <c r="N29" t="n">
-        <v>0.26096177</v>
+        <v>0.2909684</v>
       </c>
       <c r="O29" t="n">
-        <v>0.70394504</v>
+        <v>0.78461885</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7422023442101835</v>
+        <v>0.7822153010096162</v>
       </c>
       <c r="Q29" t="n">
-        <v>261.1434661768174</v>
+        <v>287.9302939885354</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07413184219846626</v>
+        <v>0.03077143660308182</v>
       </c>
       <c r="S29" t="n">
-        <v>0.638733258076041</v>
+        <v>0.2670928632313241</v>
       </c>
       <c r="T29" t="n">
-        <v>0.07010762510326199</v>
+        <v>0.01802962316473172</v>
       </c>
       <c r="U29" t="n">
-        <v>0.6040598812895362</v>
+        <v>0.1564952503247024</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3691432225809445</v>
+        <v>0.09492640549760482</v>
       </c>
       <c r="W29" t="n">
-        <v>0.7074165772654201</v>
+        <v>0.7733855203267482</v>
       </c>
       <c r="X29" t="n">
-        <v>0.3298735097333443</v>
+        <v>0.3543630846710932</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.3903322510882004</v>
+        <v>0.1620123638769047</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.292339313053484</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>4.556</v>
+        <v>1.594096148262637</v>
       </c>
       <c r="AB29" t="n">
-        <v>-4.57784229452</v>
+        <v>-4.85580469764</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.177059591516638</v>
+        <v>2.134834447461308</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>HIP_number_match</t>
+          <t>HD_number_match</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
@@ -4570,9 +4420,19 @@
           <t>K</t>
         </is>
       </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>HD 219134</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>GJ 892</t>
+        </is>
+      </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>26013</t>
+          <t>114622</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
@@ -4587,7 +4447,7 @@
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>K3+Vk:</t>
+          <t>K3V</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
@@ -4596,13 +4456,13 @@
         </is>
       </c>
       <c r="AM29" t="n">
-        <v>32.62465122618985</v>
+        <v>6.541762445733662</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29" t="n">
         <v>1</v>
@@ -4614,100 +4474,94 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gaia DR3 6356417496318028800</t>
+          <t>Gaia DR3 5175239363214344960</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6356417496318028800</t>
+          <t>5175239363214344960</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6356417496318028800</t>
+          <t>5175239363214344960</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>328.7183132582574</v>
+        <v>38.27122903475207</v>
       </c>
       <c r="E30" t="n">
-        <v>-77.33882847811111</v>
+        <v>-10.35219079656957</v>
       </c>
       <c r="F30" t="n">
-        <v>8.268043432664872</v>
+        <v>9.767584619627</v>
       </c>
       <c r="G30" t="n">
-        <v>7.983587741851807</v>
+        <v>9.484146118164062</v>
       </c>
       <c r="H30" t="n">
-        <v>8.499774932861328</v>
+        <v>9.999218940734863</v>
       </c>
       <c r="I30" t="n">
-        <v>7.313294410705566</v>
+        <v>8.816642761230469</v>
       </c>
       <c r="J30" t="n">
-        <v>1.186480522155762</v>
+        <v>1.182576179504395</v>
       </c>
       <c r="K30" t="n">
-        <v>42.29297034370435</v>
+        <v>21.8635052465849</v>
       </c>
       <c r="L30" t="n">
-        <v>4740.542</v>
+        <v>4756.42</v>
       </c>
       <c r="M30" t="n">
-        <v>0.78337026</v>
+        <v>0.80105025</v>
       </c>
       <c r="N30" t="n">
-        <v>0.30572224</v>
+        <v>0.2669315</v>
       </c>
       <c r="O30" t="n">
-        <v>0.81973535</v>
+        <v>0.68445814</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8019022136010978</v>
+        <v>0.7485086778526227</v>
       </c>
       <c r="Q30" t="n">
-        <v>296.3069521563592</v>
+        <v>264.2461340196743</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05397906665649423</v>
+        <v>0.1289391824338775</v>
       </c>
       <c r="S30" t="n">
-        <v>0.4784930261051164</v>
+        <v>1.116655495291831</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04782403089763312</v>
+        <v>0.1266563492883992</v>
       </c>
       <c r="U30" t="n">
-        <v>0.4239322145078242</v>
+        <v>1.09688541354775</v>
       </c>
       <c r="V30" t="n">
-        <v>0.251789145097239</v>
+        <v>0.6668886418984874</v>
       </c>
       <c r="W30" t="n">
-        <v>0.7793747947692121</v>
+        <v>0.7109907884866837</v>
       </c>
       <c r="X30" t="n">
-        <v>0.3598173993901568</v>
+        <v>0.3348516321525572</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2841948449656555</v>
+        <v>0.6789085327655636</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.422152235494093</v>
+        <v>2.498153280108286</v>
       </c>
       <c r="AA30" t="n">
-        <v>4.5211</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>-4.50432118793</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.18138495938231</v>
+        <v>4.5474</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
@@ -4717,17 +4571,17 @@
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>HD 207496</t>
+          <t>HD 15906</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>108162</t>
+          <t>11865</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -4737,16 +4591,16 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>K2.5Vk:</t>
+          <t>K1/2V</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>K2.5V</t>
+          <t>K1/2V</t>
         </is>
       </c>
       <c r="AM30" t="n">
-        <v>23.64459133215878</v>
+        <v>45.73832003247517</v>
       </c>
       <c r="AN30" t="n">
         <v>0</v>
@@ -4764,90 +4618,90 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gaia DR3 5175239363214344960</t>
+          <t>Gaia DR3 1373893624912695936</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5175239363214344960</t>
+          <t>1373893624912695936</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5175239363214344960</t>
+          <t>1373893624912695936</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>38.27122903475207</v>
+        <v>232.8633520755043</v>
       </c>
       <c r="E31" t="n">
-        <v>-10.35219079656957</v>
+        <v>33.90253121784832</v>
       </c>
       <c r="F31" t="n">
-        <v>9.767584619627</v>
+        <v>9.337259208459853</v>
       </c>
       <c r="G31" t="n">
-        <v>9.484146118164062</v>
+        <v>9.090312957763672</v>
       </c>
       <c r="H31" t="n">
-        <v>9.999218940734863</v>
+        <v>9.567329406738281</v>
       </c>
       <c r="I31" t="n">
-        <v>8.816642761230469</v>
+        <v>8.44759464263916</v>
       </c>
       <c r="J31" t="n">
-        <v>1.182576179504395</v>
+        <v>1.119734764099121</v>
       </c>
       <c r="K31" t="n">
-        <v>21.8635052465849</v>
+        <v>27.02055105320088</v>
       </c>
       <c r="L31" t="n">
-        <v>4756.42</v>
+        <v>4858.244</v>
       </c>
       <c r="M31" t="n">
-        <v>0.80105025</v>
+        <v>0.8080222</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2669315</v>
+        <v>0.26104257</v>
       </c>
       <c r="O31" t="n">
-        <v>0.68445814</v>
+        <v>0.71637547</v>
       </c>
       <c r="P31" t="n">
-        <v>0.7485086778526227</v>
+        <v>0.7351404039117866</v>
       </c>
       <c r="Q31" t="n">
-        <v>264.2461340196743</v>
+        <v>256.0867185369772</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09847180617506125</v>
+        <v>0.1065062790961208</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8527980511516221</v>
+        <v>0.9180746601776205</v>
       </c>
       <c r="T31" t="n">
-        <v>0.09546315865152941</v>
+        <v>0.1037837862710735</v>
       </c>
       <c r="U31" t="n">
-        <v>0.826742179483048</v>
+        <v>0.894607013984333</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5026459122037034</v>
+        <v>0.5464676525121869</v>
       </c>
       <c r="W31" t="n">
-        <v>0.7109907884866837</v>
+        <v>0.6896942940305252</v>
       </c>
       <c r="X31" t="n">
-        <v>0.3348516321525572</v>
+        <v>0.3340786653477668</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5184874619735511</v>
+        <v>0.5608027843910623</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.498153280108286</v>
+        <v>2.197865812934542</v>
       </c>
       <c r="AA31" t="n">
-        <v>4.5474</v>
+        <v>4.5618</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -4859,38 +4713,13 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>HD 15906</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>11865</t>
-        </is>
-      </c>
       <c r="AI31" t="inlineStr">
         <is>
           <t>PM*</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>K1/2V</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>K1/2V</t>
-        </is>
-      </c>
       <c r="AM31" t="n">
-        <v>45.73832003247517</v>
+        <v>37.00886773297464</v>
       </c>
       <c r="AN31" t="n">
         <v>0</v>
@@ -4899,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ31" t="n">
         <v>1</v>
@@ -4908,100 +4737,100 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gaia DR3 6731033919791468928</t>
+          <t>Gaia DR3 1827242816201846144</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6731033919791468928</t>
+          <t>1827242816201846144</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6731033919791468928</t>
+          <t>1827242816201846144</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>283.5362790629826</v>
+        <v>300.1821218062407</v>
       </c>
       <c r="E32" t="n">
-        <v>-36.65686922372694</v>
+        <v>22.70974110516827</v>
       </c>
       <c r="F32" t="n">
-        <v>9.778403414764405</v>
+        <v>7.663595725979805</v>
       </c>
       <c r="G32" t="n">
-        <v>9.487699508666992</v>
+        <v>7.428370952606201</v>
       </c>
       <c r="H32" t="n">
-        <v>10.01034069061279</v>
+        <v>7.893073081970215</v>
       </c>
       <c r="I32" t="n">
-        <v>8.815592765808105</v>
+        <v>6.797156810760498</v>
       </c>
       <c r="J32" t="n">
-        <v>1.194747924804688</v>
+        <v>1.095916271209717</v>
       </c>
       <c r="K32" t="n">
-        <v>22.29340836110861</v>
+        <v>50.56684941372739</v>
       </c>
       <c r="L32" t="n">
-        <v>4825.955</v>
+        <v>4897.251</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7773905</v>
+        <v>0.79787195</v>
       </c>
       <c r="N32" t="n">
-        <v>0.26843685</v>
+        <v>0.34316152</v>
       </c>
       <c r="O32" t="n">
-        <v>0.7410977</v>
+        <v>0.8137522</v>
       </c>
       <c r="P32" t="n">
-        <v>0.7471126662910242</v>
+        <v>0.8406405899200721</v>
       </c>
       <c r="Q32" t="n">
-        <v>267.4870722578276</v>
+        <v>315.1317766644796</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09925873133857618</v>
+        <v>0.05428703238891362</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8460331487101693</v>
+        <v>0.4972489485376618</v>
       </c>
       <c r="T32" t="n">
-        <v>0.09621448365161432</v>
+        <v>0.04799569181311834</v>
       </c>
       <c r="U32" t="n">
-        <v>0.8200854620802777</v>
+        <v>0.4396226177447965</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5065978538907085</v>
+        <v>0.2526799858212062</v>
       </c>
       <c r="W32" t="n">
-        <v>0.7293804577121787</v>
+        <v>0.7976343188116977</v>
       </c>
       <c r="X32" t="n">
-        <v>0.3431249465522279</v>
+        <v>0.3838211691085254</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.5226267227927219</v>
+        <v>0.2858016221063577</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.909909692855773</v>
+        <v>1.480664521061823</v>
       </c>
       <c r="AA32" t="n">
-        <v>4.5537</v>
+        <v>4.513</v>
       </c>
       <c r="AB32" t="n">
-        <v>-4.53001145072</v>
+        <v>-4.50745200731</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.416192460103957</v>
+        <v>8.08406259986559</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>HIP_number_match</t>
+          <t>HD_number_match</t>
         </is>
       </c>
       <c r="AE32" t="inlineStr">
@@ -5009,14 +4838,24 @@
           <t>K</t>
         </is>
       </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>HD 189733</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>GJ 4130</t>
+        </is>
+      </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>92759</t>
+          <t>98505</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>BY*</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -5026,16 +4865,16 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>K2.5Vk:</t>
+          <t>K2V</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>K2.5V</t>
+          <t>K2V</t>
         </is>
       </c>
       <c r="AM32" t="n">
-        <v>44.85630836711915</v>
+        <v>19.77580196500298</v>
       </c>
       <c r="AN32" t="n">
         <v>0</v>
@@ -5044,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ32" t="n">
         <v>1</v>
@@ -5053,100 +4892,94 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gaia DR3 3494677900774838144</t>
+          <t>Gaia DR3 6902829553611002624</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3494677900774838144</t>
+          <t>6902829553611002624</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3494677900774838144</t>
+          <t>6902829553611002624</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>179.7923752668886</v>
+        <v>313.292097178933</v>
       </c>
       <c r="E33" t="n">
-        <v>-20.35566459910368</v>
+        <v>-9.044059458235939</v>
       </c>
       <c r="F33" t="n">
-        <v>7.896849588732719</v>
+        <v>9.699950540142058</v>
       </c>
       <c r="G33" t="n">
-        <v>7.632170677185059</v>
+        <v>9.447760581970215</v>
       </c>
       <c r="H33" t="n">
-        <v>8.12775707244873</v>
+        <v>9.930171966552734</v>
       </c>
       <c r="I33" t="n">
-        <v>6.974382877349854</v>
+        <v>8.804361343383789</v>
       </c>
       <c r="J33" t="n">
-        <v>1.153374195098877</v>
+        <v>1.125810623168945</v>
       </c>
       <c r="K33" t="n">
-        <v>49.14696348449504</v>
+        <v>20.91119759875362</v>
       </c>
       <c r="L33" t="n">
-        <v>4852.3135</v>
+        <v>4932.7544</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8226277</v>
+        <v>0.7972614</v>
       </c>
       <c r="N33" t="n">
-        <v>0.29362223</v>
+        <v>0.30889127</v>
       </c>
       <c r="O33" t="n">
-        <v>0.72640634</v>
+        <v>0.76098907</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7799808915973163</v>
+        <v>0.7956262321973098</v>
       </c>
       <c r="Q33" t="n">
-        <v>277.3751454749433</v>
+        <v>290.2729283453408</v>
       </c>
       <c r="R33" t="n">
-        <v>0.04723102523065794</v>
+        <v>0.1249896477032596</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4231331142458284</v>
+        <v>1.113358310196863</v>
       </c>
       <c r="T33" t="n">
-        <v>0.04048975988998884</v>
+        <v>0.1225057934500778</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3627394940856792</v>
+        <v>1.091233119631775</v>
       </c>
       <c r="V33" t="n">
-        <v>0.2131853477881288</v>
+        <v>0.6449920478659859</v>
       </c>
       <c r="W33" t="n">
-        <v>0.7189201069669843</v>
+        <v>0.7546077342275084</v>
       </c>
       <c r="X33" t="n">
-        <v>0.3499869310089186</v>
+        <v>0.366936579636771</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2486792356276054</v>
+        <v>0.6580695211531022</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.146171637580412</v>
+        <v>1.809112109480945</v>
       </c>
       <c r="AA33" t="n">
-        <v>4.5221</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>-4.88017829427</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>1.944930251984003</v>
+        <v>4.5413</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE33" t="inlineStr">
@@ -5156,17 +4989,7 @@
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>HD 104067</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>GJ 1153</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>58451</t>
+          <t>HD 198801</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
@@ -5181,16 +5004,16 @@
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>K1(III)</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>K1</t>
         </is>
       </c>
       <c r="AM33" t="n">
-        <v>20.34713701723366</v>
+        <v>47.82126873783658</v>
       </c>
       <c r="AN33" t="n">
         <v>0</v>
@@ -5199,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ33" t="n">
         <v>1</v>
@@ -5208,100 +5031,94 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gaia DR3 1827242816201846144</t>
+          <t>Gaia DR3 2089570519439964416</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>2089570519439964416</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1827242816201846144</t>
+          <t>2089570519439964416</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>300.1821218062407</v>
+        <v>300.6154918519561</v>
       </c>
       <c r="E34" t="n">
-        <v>22.70974110516827</v>
+        <v>53.37746192023165</v>
       </c>
       <c r="F34" t="n">
-        <v>7.663595725979805</v>
+        <v>9.177771519699096</v>
       </c>
       <c r="G34" t="n">
-        <v>7.428370952606201</v>
+        <v>8.953323364257812</v>
       </c>
       <c r="H34" t="n">
-        <v>7.893073081970215</v>
+        <v>9.406646728515625</v>
       </c>
       <c r="I34" t="n">
-        <v>6.797156810760498</v>
+        <v>8.334922790527344</v>
       </c>
       <c r="J34" t="n">
-        <v>1.095916271209717</v>
+        <v>1.071723937988281</v>
       </c>
       <c r="K34" t="n">
-        <v>50.56684941372739</v>
+        <v>24.24558412297306</v>
       </c>
       <c r="L34" t="n">
-        <v>4897.251</v>
+        <v>4973.8477</v>
       </c>
       <c r="M34" t="n">
-        <v>0.79787195</v>
+        <v>0.8482045499999999</v>
       </c>
       <c r="N34" t="n">
-        <v>0.34316152</v>
+        <v>0.34838</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8137522</v>
+        <v>0.7474134</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8406405899200721</v>
+        <v>0.8425713100106028</v>
       </c>
       <c r="Q34" t="n">
-        <v>315.1317766644796</v>
+        <v>306.6923650057882</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04438409927192122</v>
+        <v>0.09938530847585811</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4065417784609112</v>
+        <v>0.9396839689860219</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03642049993073456</v>
+        <v>0.0962377864508145</v>
       </c>
       <c r="U34" t="n">
-        <v>0.3335981817173735</v>
+        <v>0.9099242788032182</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1917407804419631</v>
+        <v>0.5066689760295519</v>
       </c>
       <c r="W34" t="n">
-        <v>0.7976343188116977</v>
+        <v>0.750142354610503</v>
       </c>
       <c r="X34" t="n">
-        <v>0.3838211691085254</v>
+        <v>0.3793989623825361</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2336662552627432</v>
+        <v>0.5232399282539607</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.480664521061823</v>
+        <v>2.031505293514654</v>
       </c>
       <c r="AA34" t="n">
-        <v>4.513</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>-4.50745200731</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>8.08406259986559</v>
+        <v>4.5268</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
@@ -5311,22 +5128,17 @@
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>HD 189733</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>GJ 4130</t>
+          <t>HD 235088</t>
         </is>
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>98505</t>
+          <t>98668</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>BY*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -5336,16 +5148,16 @@
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>K2V</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AM34" t="n">
-        <v>19.77580196500298</v>
+        <v>41.24462396649313</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -5363,94 +5175,100 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Gaia DR3 6902829553611002624</t>
+          <t>Gaia DR3 3997075206232885888</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6902829553611002624</t>
+          <t>3997075206232885888</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6902829553611002624</t>
+          <t>3997075206232885888</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>313.292097178933</v>
+        <v>168.6376418270073</v>
       </c>
       <c r="E35" t="n">
-        <v>-9.044059458235939</v>
+        <v>25.71060296527337</v>
       </c>
       <c r="F35" t="n">
-        <v>9.699950540142058</v>
+        <v>7.722895847959519</v>
       </c>
       <c r="G35" t="n">
-        <v>9.447760581970215</v>
+        <v>7.526764869689941</v>
       </c>
       <c r="H35" t="n">
-        <v>9.930171966552734</v>
+        <v>7.950392723083496</v>
       </c>
       <c r="I35" t="n">
-        <v>8.804361343383789</v>
+        <v>6.934045791625977</v>
       </c>
       <c r="J35" t="n">
-        <v>1.125810623168945</v>
+        <v>1.01634693145752</v>
       </c>
       <c r="K35" t="n">
-        <v>20.91119759875362</v>
+        <v>46.37632294325284</v>
       </c>
       <c r="L35" t="n">
-        <v>4932.7544</v>
+        <v>5053.029</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7972614</v>
+        <v>0.86091423</v>
       </c>
       <c r="N35" t="n">
-        <v>0.30889127</v>
+        <v>0.35913122</v>
       </c>
       <c r="O35" t="n">
-        <v>0.76098907</v>
+        <v>0.76620847</v>
       </c>
       <c r="P35" t="n">
-        <v>0.7956262321973098</v>
+        <v>0.850803703112458</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.2729283453409</v>
+        <v>308.8925094168035</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09635417727236384</v>
+        <v>0.05654222928206031</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8582848736645433</v>
+        <v>0.5412196444315075</v>
       </c>
       <c r="T35" t="n">
-        <v>0.09310953159415146</v>
+        <v>0.05081916490692056</v>
       </c>
       <c r="U35" t="n">
-        <v>0.8293828542104323</v>
+        <v>0.4864387327925229</v>
       </c>
       <c r="V35" t="n">
-        <v>0.49022095827025</v>
+        <v>0.2675491645977078</v>
       </c>
       <c r="W35" t="n">
-        <v>0.7546077342275084</v>
+        <v>0.7444828846877302</v>
       </c>
       <c r="X35" t="n">
-        <v>0.366936579636771</v>
+        <v>0.3857476056231248</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.5073039924815467</v>
+        <v>0.2976795513388528</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.809112109480945</v>
+        <v>1.913899110729765</v>
       </c>
       <c r="AA35" t="n">
-        <v>4.5413</v>
+        <v>4.5185</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-5.04088911467</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1.052262442192023</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>HD_number_match</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
@@ -5460,7 +5278,17 @@
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>HD 198801</t>
+          <t>HD 97658</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>GJ 3651</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>54906</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
@@ -5475,16 +5303,16 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>K1(III)</t>
+          <t>K1V</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>K1</t>
+          <t>K1V</t>
         </is>
       </c>
       <c r="AM35" t="n">
-        <v>47.82126873783658</v>
+        <v>21.56272719645375</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -5493,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -5502,90 +5330,90 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gaia DR3 5462461354061501696</t>
+          <t>Gaia DR3 1490845584382687232</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5462461354061501696</t>
+          <t>1490845584382687232</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>5462461354061501696</t>
+          <t>1490845584382687232</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>155.5978498516021</v>
+        <v>217.3919946019763</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.84748268312401</v>
+        <v>39.79039820380879</v>
       </c>
       <c r="F36" t="n">
-        <v>9.428303554325105</v>
+        <v>9.12153943365097</v>
       </c>
       <c r="G36" t="n">
-        <v>9.179872512817383</v>
+        <v>8.918078422546387</v>
       </c>
       <c r="H36" t="n">
-        <v>9.658307075500488</v>
+        <v>9.349386215209961</v>
       </c>
       <c r="I36" t="n">
-        <v>8.541251182556152</v>
+        <v>8.318981170654297</v>
       </c>
       <c r="J36" t="n">
-        <v>1.117055892944336</v>
+        <v>1.030405044555664</v>
       </c>
       <c r="K36" t="n">
-        <v>23.41797889991222</v>
+        <v>23.80519894061355</v>
       </c>
       <c r="L36" t="n">
-        <v>4944.4585</v>
+        <v>5062.5137</v>
       </c>
       <c r="M36" t="n">
-        <v>0.81177825</v>
+        <v>0.8121412</v>
       </c>
       <c r="N36" t="n">
-        <v>0.304015</v>
+        <v>0.3791186</v>
       </c>
       <c r="O36" t="n">
-        <v>0.7040594999999999</v>
+        <v>0.8003472700000001</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7886877607036025</v>
+        <v>0.8735834995494749</v>
       </c>
       <c r="Q36" t="n">
-        <v>283.9109932904865</v>
+        <v>330.8903677032696</v>
       </c>
       <c r="R36" t="n">
-        <v>0.08576935313464268</v>
+        <v>0.1006444529315732</v>
       </c>
       <c r="S36" t="n">
-        <v>0.7675547898499949</v>
+        <v>0.9481211214084003</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0821820824875763</v>
+        <v>0.09732426197563739</v>
       </c>
       <c r="U36" t="n">
-        <v>0.735452102036532</v>
+        <v>0.9168432607738739</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4326951678368026</v>
+        <v>0.5123541574458549</v>
       </c>
       <c r="W36" t="n">
-        <v>0.7343695249853751</v>
+        <v>0.8100966133461586</v>
       </c>
       <c r="X36" t="n">
-        <v>0.3617455370614308</v>
+        <v>0.4066497606715624</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.4515824316749156</v>
+        <v>0.5298329813820044</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.325997922194206</v>
+        <v>1.584149407239855</v>
       </c>
       <c r="AA36" t="n">
-        <v>4.5398</v>
+        <v>4.5289</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -5597,19 +5425,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>HD 89965</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>50807</t>
-        </is>
-      </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -5619,16 +5437,16 @@
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>K3V</t>
+          <t>K0</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>K3V</t>
+          <t>K0</t>
         </is>
       </c>
       <c r="AM36" t="n">
-        <v>42.70223336838639</v>
+        <v>42.0076304547878</v>
       </c>
       <c r="AN36" t="n">
         <v>0</v>
@@ -5637,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" t="n">
         <v>1</v>
@@ -5646,96 +5464,96 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gaia DR3 3997075206232885888</t>
+          <t>Gaia DR3 1809360187275432832</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3997075206232885888</t>
+          <t>1809360187271699584</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3997075206232885888</t>
+          <t>1809360187275432832</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>168.6376418270073</v>
+        <v>302.7733874124184</v>
       </c>
       <c r="E37" t="n">
-        <v>25.71060296527337</v>
+        <v>16.18976911079237</v>
       </c>
       <c r="F37" t="n">
-        <v>7.722895847959519</v>
+        <v>7.30891014072895</v>
       </c>
       <c r="G37" t="n">
-        <v>7.526764869689941</v>
+        <v>7.113066673278809</v>
       </c>
       <c r="H37" t="n">
-        <v>7.950392723083496</v>
+        <v>7.536360740661621</v>
       </c>
       <c r="I37" t="n">
-        <v>6.934045791625977</v>
+        <v>6.521872997283936</v>
       </c>
       <c r="J37" t="n">
-        <v>1.01634693145752</v>
+        <v>1.014487743377686</v>
       </c>
       <c r="K37" t="n">
-        <v>46.37632294325284</v>
+        <v>48.92621072992387</v>
       </c>
       <c r="L37" t="n">
-        <v>5053.029</v>
+        <v>5079.116</v>
       </c>
       <c r="M37" t="n">
-        <v>0.86091423</v>
+        <v>0.88</v>
       </c>
       <c r="N37" t="n">
-        <v>0.35913122</v>
+        <v>0.47007215</v>
       </c>
       <c r="O37" t="n">
-        <v>0.76620847</v>
+        <v>0.87753767</v>
       </c>
       <c r="P37" t="n">
-        <v>0.850803703112458</v>
+        <v>0.9716237526329787</v>
       </c>
       <c r="Q37" t="n">
-        <v>308.8925094168035</v>
+        <v>372.8628471243722</v>
       </c>
       <c r="R37" t="n">
-        <v>0.04601641625055448</v>
+        <v>0.04997984880535567</v>
       </c>
       <c r="S37" t="n">
-        <v>0.440467041313477</v>
+        <v>0.5168819078281685</v>
       </c>
       <c r="T37" t="n">
-        <v>0.03876950340404173</v>
+        <v>0.04265593755989783</v>
       </c>
       <c r="U37" t="n">
-        <v>0.3710999214843304</v>
+        <v>0.4411394374565739</v>
       </c>
       <c r="V37" t="n">
-        <v>0.2041109543342139</v>
+        <v>0.224529252726204</v>
       </c>
       <c r="W37" t="n">
-        <v>0.7444828846877302</v>
+        <v>0.831130925153609</v>
       </c>
       <c r="X37" t="n">
-        <v>0.3857476056231248</v>
+        <v>0.4347514501334363</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2422639913144191</v>
+        <v>0.2630803293885459</v>
       </c>
       <c r="Z37" t="n">
-        <v>1.913899110729765</v>
+        <v>1.302223015332145</v>
       </c>
       <c r="AA37" t="n">
-        <v>4.5185</v>
+        <v>4.4659</v>
       </c>
       <c r="AB37" t="n">
-        <v>-5.04088911467</v>
+        <v>-5.08584835181</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.052262442192023</v>
+        <v>0.886118361930429</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -5749,17 +5567,17 @@
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>HD 97658</t>
+          <t>HD 191785</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>GJ 3651</t>
+          <t>GJ 783.2</t>
         </is>
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>54906</t>
+          <t>99452</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
@@ -5767,23 +5585,18 @@
           <t>PM*</t>
         </is>
       </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>K1V</t>
+          <t>K0V</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>K1V</t>
+          <t>K0V</t>
         </is>
       </c>
       <c r="AM37" t="n">
-        <v>21.56272719645375</v>
+        <v>20.43894233951757</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
@@ -5792,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -5801,100 +5614,94 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Gaia DR3 5068777809824976256</t>
+          <t>Gaia DR3 3362357139570884096</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5068777809824976256</t>
+          <t>3362357139570884096</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5068777809824976256</t>
+          <t>3362357139570884096</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>36.86787306156828</v>
+        <v>108.9938327075095</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.63614658898736</v>
+        <v>18.69164387891298</v>
       </c>
       <c r="F38" t="n">
-        <v>9.071735543670654</v>
+        <v>9.057174012479782</v>
       </c>
       <c r="G38" t="n">
-        <v>8.864990234375</v>
+        <v>8.865255355834961</v>
       </c>
       <c r="H38" t="n">
-        <v>9.299795150756836</v>
+        <v>9.284381866455078</v>
       </c>
       <c r="I38" t="n">
-        <v>8.260839462280273</v>
+        <v>8.279646873474121</v>
       </c>
       <c r="J38" t="n">
-        <v>1.038955688476562</v>
+        <v>1.004734992980957</v>
       </c>
       <c r="K38" t="n">
-        <v>22.29216989730763</v>
+        <v>21.71010985234317</v>
       </c>
       <c r="L38" t="n">
-        <v>5063.1753</v>
+        <v>5156.4136</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8146085</v>
+        <v>0.8174485</v>
       </c>
       <c r="N38" t="n">
-        <v>0.45243993</v>
+        <v>0.46727985</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8741745</v>
+        <v>0.8565814</v>
       </c>
       <c r="P38" t="n">
-        <v>0.9542834398060319</v>
+        <v>0.9635263507178888</v>
       </c>
       <c r="Q38" t="n">
-        <v>377.2114570502922</v>
+        <v>382.0396659492999</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07736242723216026</v>
+        <v>0.1032399748025274</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7628677312478804</v>
+        <v>1.024745179501231</v>
       </c>
       <c r="T38" t="n">
-        <v>0.07261398873108758</v>
+        <v>0.0997038971233019</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7160435733732485</v>
+        <v>0.9896465797286208</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3822149036686672</v>
+        <v>0.5247985056042664</v>
       </c>
       <c r="W38" t="n">
-        <v>0.8822343498527886</v>
+        <v>0.8853564840964936</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4413157068529845</v>
+        <v>0.4520369448670143</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4072090404180657</v>
+        <v>0.5434109002578393</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.219423431934616</v>
+        <v>1.30063214053304</v>
       </c>
       <c r="AA38" t="n">
-        <v>4.4894</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>-4.88387380845</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1.917650588098742</v>
+        <v>4.5065</v>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
@@ -5902,16 +5709,6 @@
           <t>K</t>
         </is>
       </c>
-      <c r="AF38" t="inlineStr">
-        <is>
-          <t>HD 15337</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>11433</t>
-        </is>
-      </c>
       <c r="AI38" t="inlineStr">
         <is>
           <t>PM*</t>
@@ -5924,16 +5721,16 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>K1V</t>
+          <t>G0</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>K1V</t>
+          <t>G0</t>
         </is>
       </c>
       <c r="AM38" t="n">
-        <v>44.85880040420724</v>
+        <v>46.06148963783663</v>
       </c>
       <c r="AN38" t="n">
         <v>0</v>
@@ -5942,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="AP38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" t="n">
         <v>1</v>
@@ -5951,96 +5748,96 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Gaia DR3 5340648488081462528</t>
+          <t>Gaia DR3 704967037090946688</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5340648488081462528</t>
+          <t>704967037090946688</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5340648488081462528</t>
+          <t>704967037090946688</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>164.8562310833381</v>
+        <v>133.146760620834</v>
       </c>
       <c r="E39" t="n">
-        <v>-56.62357296702674</v>
+        <v>28.3297830003627</v>
       </c>
       <c r="F39" t="n">
-        <v>8.599056614675522</v>
+        <v>5.928375293149948</v>
       </c>
       <c r="G39" t="n">
-        <v>8.392268180847168</v>
+        <v>5.732680797576904</v>
       </c>
       <c r="H39" t="n">
-        <v>8.827082633972168</v>
+        <v>6.155681133270264</v>
       </c>
       <c r="I39" t="n">
-        <v>7.78947639465332</v>
+        <v>5.147009372711182</v>
       </c>
       <c r="J39" t="n">
-        <v>1.037606239318848</v>
+        <v>1.008671760559082</v>
       </c>
       <c r="K39" t="n">
-        <v>27.05207473319518</v>
+        <v>79.44818375718161</v>
       </c>
       <c r="L39" t="n">
-        <v>5075.6543</v>
+        <v>5184.4775</v>
       </c>
       <c r="M39" t="n">
-        <v>0.81394815</v>
+        <v>0.88</v>
       </c>
       <c r="N39" t="n">
-        <v>0.46645713</v>
+        <v>0.6048682</v>
       </c>
       <c r="O39" t="n">
-        <v>0.86471033</v>
+        <v>0.92796665</v>
       </c>
       <c r="P39" t="n">
-        <v>0.9681134434484902</v>
+        <v>1.094089147344958</v>
       </c>
       <c r="Q39" t="n">
-        <v>385.5975527213724</v>
+        <v>445.5341436142293</v>
       </c>
       <c r="R39" t="n">
-        <v>0.06470289280375982</v>
+        <v>0.03659032067400851</v>
       </c>
       <c r="S39" t="n">
-        <v>0.6423787840647773</v>
+        <v>0.4015502513867581</v>
       </c>
       <c r="T39" t="n">
-        <v>0.05885158217820452</v>
+        <v>0.02397369377986108</v>
       </c>
       <c r="U39" t="n">
-        <v>0.5842862067169666</v>
+        <v>0.2630926044551051</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3097658118783452</v>
+        <v>0.1261586060142932</v>
       </c>
       <c r="W39" t="n">
-        <v>0.8954204923048926</v>
+        <v>0.9331664718005268</v>
       </c>
       <c r="X39" t="n">
-        <v>0.4484821104354356</v>
+        <v>0.4952071191030444</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.3405642359715005</v>
+        <v>0.1925520486011496</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.258881347841275</v>
+        <v>1.101249100551098</v>
       </c>
       <c r="AA39" t="n">
-        <v>4.4878</v>
+        <v>4.4506</v>
       </c>
       <c r="AB39" t="n">
-        <v>-4.99644524959</v>
+        <v>-5.01702662728</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.247098869914052</v>
+        <v>1.152751772609275</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -6049,17 +5846,22 @@
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>HD 95338</t>
+          <t>HD 75732</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>GJ 324</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>53719</t>
+          <t>43587</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
@@ -6067,23 +5869,18 @@
           <t>PM*</t>
         </is>
       </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>K0.5V</t>
+          <t>K0IV-V</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>K0.5V</t>
+          <t>K0V and K0V</t>
         </is>
       </c>
       <c r="AM39" t="n">
-        <v>36.96574143989464</v>
+        <v>12.58682014753555</v>
       </c>
       <c r="AN39" t="n">
         <v>0</v>
@@ -6101,120 +5898,109 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gaia DR3 1809360187275432832</t>
+          <t>Gaia DR3 1628229527914028544</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1809360187271699584</t>
+          <t>1628229527914028544</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1809360187275432832</t>
+          <t>1628229527914028544</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>302.7733874124184</v>
+        <v>245.7290015135192</v>
       </c>
       <c r="E40" t="n">
-        <v>16.18976911079237</v>
+        <v>61.69484237610894</v>
       </c>
       <c r="F40" t="n">
-        <v>7.30891014072895</v>
+        <v>8.498185157775879</v>
       </c>
       <c r="G40" t="n">
-        <v>7.113066673278809</v>
+        <v>8.498185157775879</v>
       </c>
       <c r="H40" t="n">
-        <v>7.536360740661621</v>
+        <v>8.908738136291504</v>
       </c>
       <c r="I40" t="n">
-        <v>6.521872997283936</v>
+        <v>7.917211532592773</v>
       </c>
       <c r="J40" t="n">
-        <v>1.014487743377686</v>
+        <v>0.9915266036987305</v>
       </c>
       <c r="K40" t="n">
-        <v>48.92621072992387</v>
+        <v>25.89836772926497</v>
       </c>
       <c r="L40" t="n">
-        <v>5079.116</v>
+        <v>5190.9253</v>
       </c>
       <c r="M40" t="n">
-        <v>0.88</v>
+        <v>0.8357416</v>
       </c>
       <c r="N40" t="n">
-        <v>0.47007215</v>
+        <v>0.45916328</v>
       </c>
       <c r="O40" t="n">
-        <v>0.87753767</v>
+        <v>0.83784974</v>
       </c>
       <c r="P40" t="n">
-        <v>0.9716237526329787</v>
+        <v>0.9528176708905008</v>
       </c>
       <c r="Q40" t="n">
-        <v>372.8628471243722</v>
+        <v>371.5540136767427</v>
       </c>
       <c r="R40" t="n">
-        <v>0.04169231297573381</v>
+        <v>0.08285903101164387</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4311738188042931</v>
+        <v>0.8269642916723454</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03255445720288133</v>
+        <v>0.07854205309077238</v>
       </c>
       <c r="U40" t="n">
-        <v>0.33667188576074</v>
+        <v>0.7838792284642448</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1713578077707511</v>
+        <v>0.4134257433064784</v>
       </c>
       <c r="W40" t="n">
-        <v>0.831130925153609</v>
+        <v>0.8555651463981101</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4347514501334363</v>
+        <v>0.4455776071516932</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.2194569950249841</v>
+        <v>0.4361492364613019</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.302223015332145</v>
+        <v>1.420933006631047</v>
       </c>
       <c r="AA40" t="n">
-        <v>4.4659</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>-5.08584835181</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0.886118361930429</v>
+        <v>4.5166</v>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>HD 191785</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>GJ 783.2</t>
+          <t>HD 148226</t>
         </is>
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>99452</t>
+          <t>80243</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
@@ -6222,18 +6008,23 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>K0V</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>K0V</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AM40" t="n">
-        <v>20.43894233951757</v>
+        <v>38.61247204664591</v>
       </c>
       <c r="AN40" t="n">
         <v>0</v>
@@ -6251,115 +6042,104 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gaia DR3 5019835424832215424</t>
+          <t>Gaia DR3 3948424496764080640</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5019835424832215424</t>
+          <t>3948424496764080640</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5019835424832215424</t>
+          <t>3948424496764080640</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>32.53472597584694</v>
+        <v>189.8392121967634</v>
       </c>
       <c r="E41" t="n">
-        <v>-31.07065160027454</v>
+        <v>20.02732318550514</v>
       </c>
       <c r="F41" t="n">
-        <v>8.881280695524216</v>
+        <v>8.184687614440918</v>
       </c>
       <c r="G41" t="n">
-        <v>8.677937507629395</v>
+        <v>8.184687614440918</v>
       </c>
       <c r="H41" t="n">
-        <v>9.109068870544434</v>
+        <v>8.584831237792969</v>
       </c>
       <c r="I41" t="n">
-        <v>8.081018447875977</v>
+        <v>7.610472202301025</v>
       </c>
       <c r="J41" t="n">
-        <v>1.028050422668457</v>
+        <v>0.9743590354919434</v>
       </c>
       <c r="K41" t="n">
-        <v>22.65347982926211</v>
+        <v>31.03687554605237</v>
       </c>
       <c r="L41" t="n">
-        <v>5120.498</v>
+        <v>5203.3135</v>
       </c>
       <c r="M41" t="n">
-        <v>0.82036936</v>
+        <v>0.8847275999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>0.5036126</v>
+        <v>0.4195169</v>
       </c>
       <c r="O41" t="n">
-        <v>0.8792826</v>
+        <v>0.7519075</v>
       </c>
       <c r="P41" t="n">
-        <v>1.002795912678065</v>
+        <v>0.9099635541019815</v>
       </c>
       <c r="Q41" t="n">
-        <v>404.9089530971748</v>
+        <v>337.0345879482724</v>
       </c>
       <c r="R41" t="n">
-        <v>0.07403048488321697</v>
+        <v>0.07294693480497917</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7509786365939464</v>
+        <v>0.7320316021428864</v>
       </c>
       <c r="T41" t="n">
-        <v>0.06882091578440135</v>
+        <v>0.06843164725288088</v>
       </c>
       <c r="U41" t="n">
-        <v>0.6981318248346811</v>
+        <v>0.6867201275794245</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3622156527000355</v>
+        <v>0.360245320319035</v>
       </c>
       <c r="W41" t="n">
-        <v>0.9190659594362971</v>
+        <v>0.7715944184540892</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4656191008841957</v>
+        <v>0.4168206389919381</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.3896344606293704</v>
+        <v>0.3840151881482757</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.206768580603251</v>
+        <v>2.081212019701819</v>
       </c>
       <c r="AA41" t="n">
-        <v>4.4851</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>-5.08011646351</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.9057465126618706</v>
+        <v>4.5274</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>HD 13386</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>10117</t>
+          <t>HD 110067</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
@@ -6383,7 +6163,7 @@
         </is>
       </c>
       <c r="AM41" t="n">
-        <v>44.14332842181152</v>
+        <v>32.2197380505072</v>
       </c>
       <c r="AN41" t="n">
         <v>0</v>
@@ -6401,90 +6181,90 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Gaia DR3 3362357139570884096</t>
+          <t>Gaia DR3 1056698985748238720</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3362357139570884096</t>
+          <t>1056698985748238720</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3362357139570884096</t>
+          <t>1056698985748238720</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>108.9938327075095</v>
+        <v>176.3805912068715</v>
       </c>
       <c r="E42" t="n">
-        <v>18.69164387891298</v>
+        <v>65.54132449759793</v>
       </c>
       <c r="F42" t="n">
-        <v>9.057174012479782</v>
+        <v>8.57334041595459</v>
       </c>
       <c r="G42" t="n">
-        <v>8.865255355834961</v>
+        <v>8.57334041595459</v>
       </c>
       <c r="H42" t="n">
-        <v>9.284381866455078</v>
+        <v>8.966811180114746</v>
       </c>
       <c r="I42" t="n">
-        <v>8.279646873474121</v>
+        <v>8.007487297058105</v>
       </c>
       <c r="J42" t="n">
-        <v>1.004734992980957</v>
+        <v>0.9593238830566406</v>
       </c>
       <c r="K42" t="n">
-        <v>21.71010985234317</v>
+        <v>26.44494085207213</v>
       </c>
       <c r="L42" t="n">
-        <v>5156.4136</v>
+        <v>5228.793</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8174485</v>
+        <v>0.890765</v>
       </c>
       <c r="N42" t="n">
-        <v>0.46727985</v>
+        <v>0.4130904</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8565814</v>
+        <v>0.7831953</v>
       </c>
       <c r="P42" t="n">
-        <v>0.9635263507178888</v>
+        <v>0.901354866679107</v>
       </c>
       <c r="Q42" t="n">
-        <v>382.0396659492999</v>
+        <v>331.1352407114268</v>
       </c>
       <c r="R42" t="n">
-        <v>0.08074881790575031</v>
+        <v>0.08667632657636697</v>
       </c>
       <c r="S42" t="n">
-        <v>0.801501182634099</v>
+        <v>0.8686322884856515</v>
       </c>
       <c r="T42" t="n">
-        <v>0.07617575925137543</v>
+        <v>0.08296110698891673</v>
       </c>
       <c r="U42" t="n">
-        <v>0.7561096584632474</v>
+        <v>0.8313999804271152</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4009564898847785</v>
+        <v>0.4367404082107487</v>
       </c>
       <c r="W42" t="n">
-        <v>0.8853564840964936</v>
+        <v>0.7586170537675162</v>
       </c>
       <c r="X42" t="n">
-        <v>0.4520369448670143</v>
+        <v>0.413693112694614</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.4250271071535162</v>
+        <v>0.456298808262382</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.30063214053304</v>
+        <v>1.854184416124421</v>
       </c>
       <c r="AA42" t="n">
-        <v>4.5065</v>
+        <v>4.5353</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -6493,7 +6273,17 @@
       </c>
       <c r="AE42" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>HD 102121</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>57350</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
@@ -6508,16 +6298,16 @@
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>G0</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
         <is>
-          <t>G0</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AM42" t="n">
-        <v>46.06148963783663</v>
+        <v>37.81441620890007</v>
       </c>
       <c r="AN42" t="n">
         <v>0</v>
@@ -6535,100 +6325,91 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gaia DR3 704967037090946688</t>
+          <t>Gaia DR3 1432617510160019200</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>704967037090946688</t>
+          <t>1432617510160019200</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>704967037090946688</t>
+          <t>1432617510160019200</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>133.146760620834</v>
+        <v>257.7850788622985</v>
       </c>
       <c r="E43" t="n">
-        <v>28.3297830003627</v>
+        <v>56.65889196470552</v>
       </c>
       <c r="F43" t="n">
-        <v>5.928375293149948</v>
+        <v>6.809294700622559</v>
       </c>
       <c r="G43" t="n">
-        <v>5.732680797576904</v>
+        <v>6.809294700622559</v>
       </c>
       <c r="H43" t="n">
-        <v>6.155681133270264</v>
+        <v>7.165032863616943</v>
       </c>
       <c r="I43" t="n">
-        <v>5.147009372711182</v>
+        <v>6.269814491271973</v>
       </c>
       <c r="J43" t="n">
-        <v>1.008671760559082</v>
+        <v>0.8952183723449707</v>
       </c>
       <c r="K43" t="n">
-        <v>79.44818375718161</v>
+        <v>35.69019232278293</v>
       </c>
       <c r="L43" t="n">
-        <v>5184.4775</v>
+        <v>5327</v>
       </c>
       <c r="M43" t="n">
-        <v>0.88</v>
+        <v>1.0155649</v>
       </c>
       <c r="N43" t="n">
-        <v>0.6048682</v>
+        <v>1.5183315</v>
       </c>
       <c r="O43" t="n">
-        <v>0.92796665</v>
+        <v>1.3189585</v>
       </c>
       <c r="P43" t="n">
-        <v>1.094089147344958</v>
+        <v>1.716164361617768</v>
       </c>
       <c r="Q43" t="n">
-        <v>445.5341436142293</v>
+        <v>814.75632417496</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03316407383586407</v>
+        <v>0.05139518416471017</v>
       </c>
       <c r="S43" t="n">
-        <v>0.3639498627094521</v>
+        <v>0.7588600719679252</v>
       </c>
       <c r="T43" t="n">
-        <v>0.01832326989962269</v>
+        <v>0.03882686911689606</v>
       </c>
       <c r="U43" t="n">
-        <v>0.2010836062348961</v>
+        <v>0.5732864113865388</v>
       </c>
       <c r="V43" t="n">
-        <v>0.09642394740613273</v>
+        <v>0.2038418047568995</v>
       </c>
       <c r="W43" t="n">
-        <v>0.9331664718005268</v>
+        <v>1.263857731584355</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4952071191030444</v>
+        <v>0.726709210673945</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1745218472925681</v>
+        <v>0.2698256989098499</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.101249100551098</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>4.4506</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>-5.01702662728</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.152751772609275</v>
+        <v>0.4426029347726712</v>
       </c>
       <c r="AD43" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE43" t="inlineStr">
@@ -6638,17 +6419,17 @@
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>HD 75732</t>
+          <t>HD 155902</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>GJ 324</t>
+          <t>GJ 3993</t>
         </is>
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>43587</t>
+          <t>84062</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
@@ -6656,18 +6437,23 @@
           <t>PM*</t>
         </is>
       </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>GAIA</t>
+        </is>
+      </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>K0IV-V</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
         <is>
-          <t>K0V and K0V</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AM43" t="n">
-        <v>12.58682014753555</v>
+        <v>28.01890197049029</v>
       </c>
       <c r="AN43" t="n">
         <v>0</v>
@@ -6676,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" t="n">
         <v>1</v>
@@ -6685,90 +6471,90 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gaia DR3 3948424496764080640</t>
+          <t>Gaia DR3 1699331195373909120</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3948424496764080640</t>
+          <t>1699331195373909120</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3948424496764080640</t>
+          <t>1699331195373909120</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>189.8392121967634</v>
+        <v>212.6213207041372</v>
       </c>
       <c r="E44" t="n">
-        <v>20.02732318550514</v>
+        <v>72.58974383128349</v>
       </c>
       <c r="F44" t="n">
-        <v>8.184687614440918</v>
+        <v>8.62324047088623</v>
       </c>
       <c r="G44" t="n">
-        <v>8.184687614440918</v>
+        <v>8.62324047088623</v>
       </c>
       <c r="H44" t="n">
-        <v>8.584831237792969</v>
+        <v>8.994851112365723</v>
       </c>
       <c r="I44" t="n">
-        <v>7.610472202301025</v>
+        <v>8.080413818359375</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9743590354919434</v>
+        <v>0.9144372940063477</v>
       </c>
       <c r="K44" t="n">
-        <v>31.03687554605237</v>
+        <v>20.61428649883856</v>
       </c>
       <c r="L44" t="n">
-        <v>5203.3135</v>
+        <v>5379.666</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8847275999999999</v>
+        <v>0.9018674</v>
       </c>
       <c r="N44" t="n">
-        <v>0.4195169</v>
+        <v>0.62524855</v>
       </c>
       <c r="O44" t="n">
-        <v>0.7519075</v>
+        <v>0.8882559</v>
       </c>
       <c r="P44" t="n">
-        <v>0.9099635541019815</v>
+        <v>1.097215147777961</v>
       </c>
       <c r="Q44" t="n">
-        <v>337.0345879482724</v>
+        <v>441.9871167256845</v>
       </c>
       <c r="R44" t="n">
-        <v>0.05809733241689945</v>
+        <v>0.09566446350986108</v>
       </c>
       <c r="S44" t="n">
-        <v>0.5830139874015356</v>
+        <v>1.064324053827933</v>
       </c>
       <c r="T44" t="n">
-        <v>0.05231572499985591</v>
+        <v>0.09164687919790472</v>
       </c>
       <c r="U44" t="n">
-        <v>0.524994834824741</v>
+        <v>1.019626038863827</v>
       </c>
       <c r="V44" t="n">
-        <v>0.2754061295740945</v>
+        <v>0.4822869796060945</v>
       </c>
       <c r="W44" t="n">
-        <v>0.7715944184540892</v>
+        <v>0.9088033528915704</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4168206389919381</v>
+        <v>0.5080456836033814</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.3058422961654821</v>
+        <v>0.5034293100387771</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.081212019701819</v>
+        <v>1.286851360720923</v>
       </c>
       <c r="AA44" t="n">
-        <v>4.5274</v>
+        <v>4.4625</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -6782,7 +6568,12 @@
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>HD 110067</t>
+          <t>HD 124567</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>69240</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
@@ -6797,16 +6588,16 @@
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>K0V</t>
+          <t>K0</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>K0V</t>
+          <t>K0</t>
         </is>
       </c>
       <c r="AM44" t="n">
-        <v>32.2197380505072</v>
+        <v>48.51004666381935</v>
       </c>
       <c r="AN44" t="n">
         <v>0</v>
@@ -6815,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
@@ -6824,117 +6615,114 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Gaia DR3 5279965341800818176</t>
+          <t>Gaia DR3 3145754895088191744</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5279965341799657728</t>
+          <t>3145754895088191744</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5279965341800818176</t>
+          <t>3145754895088191744</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>97.98569321790008</v>
+        <v>117.9246306171146</v>
       </c>
       <c r="E45" t="n">
-        <v>-68.71186275926192</v>
+        <v>9.385215077240026</v>
       </c>
       <c r="F45" t="n">
-        <v>8.042465209960938</v>
+        <v>8.403594970703125</v>
       </c>
       <c r="G45" t="n">
-        <v>8.042465209960938</v>
+        <v>8.403594970703125</v>
       </c>
       <c r="H45" t="n">
-        <v>8.444457054138184</v>
+        <v>8.761933326721191</v>
       </c>
       <c r="I45" t="n">
-        <v>7.466893196105957</v>
+        <v>7.873940467834473</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9775638580322266</v>
+        <v>0.8879928588867188</v>
       </c>
       <c r="K45" t="n">
-        <v>35.63647641318352</v>
+        <v>20.46996590146038</v>
       </c>
       <c r="L45" t="n">
-        <v>5284.453125</v>
+        <v>5470.7383</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8740897</v>
+        <v>0.8953849</v>
       </c>
       <c r="N45" t="n">
-        <v>0.3769644</v>
+        <v>0.7689097</v>
       </c>
       <c r="O45" t="n">
-        <v>0.7676642</v>
+        <v>0.96143013</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8576804348899152</v>
+        <v>1.208979026386854</v>
       </c>
       <c r="Q45" t="n">
-        <v>310.2798095951699</v>
+        <v>513.0580779015858</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0568558171667671</v>
+        <v>0.09123654063782105</v>
       </c>
       <c r="S45" t="n">
-        <v>0.5505815501150764</v>
+        <v>1.061668841907705</v>
       </c>
       <c r="T45" t="n">
-        <v>0.05117390153133381</v>
+        <v>0.08648967094060885</v>
       </c>
       <c r="U45" t="n">
-        <v>0.4955588967777058</v>
+        <v>1.006432161309176</v>
       </c>
       <c r="V45" t="n">
-        <v>0.2694157305617392</v>
+        <v>0.4550117558831214</v>
       </c>
       <c r="W45" t="n">
-        <v>0.7346120714347014</v>
+        <v>1.006627644151842</v>
       </c>
       <c r="X45" t="n">
-        <v>0.402080181824932</v>
+        <v>0.5671329528751325</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.299329366342922</v>
+        <v>0.4799844664089837</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.932155784020845</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>-5.04791961268</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>1.024361961217153</v>
+        <v>1.007526740184383</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4.3928</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
-          <t>HIP_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE45" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>HD 47252</t>
+          <t>HD 63935</t>
         </is>
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>31134</t>
+          <t>38374</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
@@ -6944,25 +6732,25 @@
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>K0.5V</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>K0.5V</t>
+          <t>G5</t>
         </is>
       </c>
       <c r="AM45" t="n">
-        <v>28.06113568596404</v>
+        <v>48.85205988196871</v>
       </c>
       <c r="AN45" t="n">
         <v>0</v>
       </c>
       <c r="AO45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ45" t="n">
         <v>1</v>
@@ -6971,100 +6759,94 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Gaia DR3 5266722205277801984</t>
+          <t>Gaia DR3 778052193462283648</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5266722205277801984</t>
+          <t>778052193462283648</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5266722205277801984</t>
+          <t>778052193462283648</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>99.45867788174958</v>
+        <v>164.7773308585369</v>
       </c>
       <c r="E46" t="n">
-        <v>-70.93128545319566</v>
+        <v>40.98372184996786</v>
       </c>
       <c r="F46" t="n">
-        <v>8.509678840637207</v>
+        <v>8.101935386657715</v>
       </c>
       <c r="G46" t="n">
-        <v>8.509678840637207</v>
+        <v>8.101935386657715</v>
       </c>
       <c r="H46" t="n">
-        <v>8.888999938964844</v>
+        <v>8.419989585876465</v>
       </c>
       <c r="I46" t="n">
-        <v>7.956501007080078</v>
+        <v>7.606063365936279</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9324989318847656</v>
+        <v>0.8139262199401855</v>
       </c>
       <c r="K46" t="n">
-        <v>25.67794695275842</v>
+        <v>22.34648278670535</v>
       </c>
       <c r="L46" t="n">
-        <v>5341.122</v>
+        <v>5636.447</v>
       </c>
       <c r="M46" t="n">
-        <v>0.90837765</v>
+        <v>0.9867717</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4633743</v>
+        <v>0.8532138</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8062868</v>
+        <v>0.9480488</v>
       </c>
       <c r="P46" t="n">
-        <v>0.947130669582726</v>
+        <v>1.258813261877201</v>
       </c>
       <c r="Q46" t="n">
-        <v>353.2034139422175</v>
+        <v>519.2504533839374</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07013652515076534</v>
+        <v>0.08581989242486289</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7275928301762715</v>
+        <v>1.06975163481739</v>
       </c>
       <c r="T46" t="n">
-        <v>0.06534284673287913</v>
+        <v>0.0809787128873658</v>
       </c>
       <c r="U46" t="n">
-        <v>0.6778634482382975</v>
+        <v>1.009405955297735</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3439682170483104</v>
+        <v>0.4260070895119522</v>
       </c>
       <c r="W46" t="n">
-        <v>0.7795557899259908</v>
+        <v>0.9479238607193868</v>
       </c>
       <c r="X46" t="n">
-        <v>0.438086954274626</v>
+        <v>0.5798484040952151</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3692023949414753</v>
+        <v>0.4514752246679474</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.732996918768777</v>
+        <v>1.158042790431093</v>
       </c>
       <c r="AA46" t="n">
-        <v>4.5311</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>-4.96482135829</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>1.407331943114141</v>
+        <v>4.4111</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE46" t="inlineStr">
@@ -7074,17 +6856,17 @@
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>HD 48611</t>
+          <t>HD 95072</t>
         </is>
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>31692</t>
+          <t>53688</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr">
@@ -7094,25 +6876,25 @@
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>G9.5V</t>
+          <t>G4V</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr">
         <is>
-          <t>G9.5V</t>
+          <t>G4V</t>
         </is>
       </c>
       <c r="AM46" t="n">
-        <v>38.94392343125299</v>
+        <v>44.74977156561446</v>
       </c>
       <c r="AN46" t="n">
         <v>0</v>
       </c>
       <c r="AO46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ46" t="n">
         <v>1</v>
@@ -7121,90 +6903,90 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gaia DR3 3145754895088191744</t>
+          <t>Gaia DR3 1870443315230650240</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3145754895088191744</t>
+          <t>1870443315230650240</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3145754895088191744</t>
+          <t>1870443315230650240</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>117.9246306171146</v>
+        <v>310.4219837138833</v>
       </c>
       <c r="E47" t="n">
-        <v>9.385215077240026</v>
+        <v>35.54592682077377</v>
       </c>
       <c r="F47" t="n">
-        <v>8.403594970703125</v>
+        <v>7.279441356658936</v>
       </c>
       <c r="G47" t="n">
-        <v>8.403594970703125</v>
+        <v>7.279441356658936</v>
       </c>
       <c r="H47" t="n">
-        <v>8.761933326721191</v>
+        <v>7.586225509643555</v>
       </c>
       <c r="I47" t="n">
-        <v>7.873940467834473</v>
+        <v>6.800100803375244</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8879928588867188</v>
+        <v>0.7861247062683105</v>
       </c>
       <c r="K47" t="n">
-        <v>20.46996590146038</v>
+        <v>28.87341395249631</v>
       </c>
       <c r="L47" t="n">
-        <v>5470.7383</v>
+        <v>5739.6055</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8953849</v>
+        <v>1.0176208</v>
       </c>
       <c r="N47" t="n">
-        <v>0.7689097</v>
+        <v>1.0723904</v>
       </c>
       <c r="O47" t="n">
-        <v>0.96143013</v>
+        <v>1.0185556</v>
       </c>
       <c r="P47" t="n">
-        <v>1.208979026386854</v>
+        <v>1.401170084187439</v>
       </c>
       <c r="Q47" t="n">
-        <v>513.0580779015858</v>
+        <v>600.4634256508235</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0724065220709654</v>
+        <v>0.06510602919909321</v>
       </c>
       <c r="S47" t="n">
-        <v>0.842554396475881</v>
+        <v>0.8694920586555916</v>
       </c>
       <c r="T47" t="n">
-        <v>0.06632541948809087</v>
+        <v>0.05788207281516351</v>
       </c>
       <c r="U47" t="n">
-        <v>0.7717919904097522</v>
+        <v>0.773016005897198</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3489300543377507</v>
+        <v>0.3043743112940568</v>
       </c>
       <c r="W47" t="n">
-        <v>1.006627644151842</v>
+        <v>1.021206054881505</v>
       </c>
       <c r="X47" t="n">
-        <v>0.5671329528751325</v>
+        <v>0.6433638112022996</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.380922003594202</v>
+        <v>0.3423616645838803</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.007526740184383</v>
+        <v>0.9630121194272359</v>
       </c>
       <c r="AA47" t="n">
-        <v>4.3928</v>
+        <v>4.3742</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -7218,17 +7000,12 @@
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>HD 63935</t>
-        </is>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>38374</t>
+          <t>HD 197310</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>MS*</t>
+          <t>PM*</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
@@ -7238,16 +7015,16 @@
       </c>
       <c r="AK47" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G0</t>
         </is>
       </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>G0</t>
         </is>
       </c>
       <c r="AM47" t="n">
-        <v>48.85205988196871</v>
+        <v>34.63393700673014</v>
       </c>
       <c r="AN47" t="n">
         <v>0</v>
@@ -7256,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="AP47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -7265,96 +7042,96 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gaia DR3 5902750168276592256</t>
+          <t>Gaia DR3 1416050859226670848</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5902750168276592256</t>
+          <t>1416050859226670848</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5902750168276592256</t>
+          <t>1416050859226670848</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>230.4397756821488</v>
+        <v>261.3495639244737</v>
       </c>
       <c r="E48" t="n">
-        <v>-48.31885569587278</v>
+        <v>52.79046518347813</v>
       </c>
       <c r="F48" t="n">
-        <v>5.482170104980469</v>
+        <v>6.320387840270996</v>
       </c>
       <c r="G48" t="n">
-        <v>5.482170104980469</v>
+        <v>6.320387840270996</v>
       </c>
       <c r="H48" t="n">
-        <v>5.811648845672607</v>
+        <v>6.622763633728027</v>
       </c>
       <c r="I48" t="n">
-        <v>4.974900245666504</v>
+        <v>5.844124317169189</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8367486000061035</v>
+        <v>0.7786393165588379</v>
       </c>
       <c r="K48" t="n">
-        <v>67.84669435693799</v>
+        <v>37.01769999327281</v>
       </c>
       <c r="L48" t="n">
-        <v>5620.91</v>
+        <v>5754.2856</v>
       </c>
       <c r="M48" t="n">
-        <v>0.94079065</v>
+        <v>1.0408561</v>
       </c>
       <c r="N48" t="n">
-        <v>1.0413179</v>
+        <v>1.5772907</v>
       </c>
       <c r="O48" t="n">
-        <v>1.0581557</v>
+        <v>1.1970053</v>
       </c>
       <c r="P48" t="n">
-        <v>1.392180965178254</v>
+        <v>1.697574323643053</v>
       </c>
       <c r="Q48" t="n">
-        <v>618.5008542055614</v>
+        <v>791.7555448934346</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03597382682581127</v>
+        <v>0.05010397783106888</v>
       </c>
       <c r="S48" t="n">
-        <v>0.4604547707874415</v>
+        <v>0.7448828008906113</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01849807752632779</v>
+        <v>0.03748880650547584</v>
       </c>
       <c r="U48" t="n">
-        <v>0.2367701409315243</v>
+        <v>0.5573363313786475</v>
       </c>
       <c r="V48" t="n">
-        <v>0.09726235839645561</v>
+        <v>0.1968599007348313</v>
       </c>
       <c r="W48" t="n">
-        <v>1.099915387680261</v>
+        <v>1.209298160206334</v>
       </c>
       <c r="X48" t="n">
-        <v>0.6495667435386698</v>
+        <v>0.7645915514326216</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.189149344446427</v>
+        <v>0.2631042442176358</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.7940434459215121</v>
+        <v>0.6068795058448176</v>
       </c>
       <c r="AA48" t="n">
-        <v>4.3504</v>
+        <v>4.2531</v>
       </c>
       <c r="AB48" t="n">
-        <v>-4.86883233682</v>
+        <v>-4.75086859947</v>
       </c>
       <c r="AC48" t="n">
-        <v>2.03113280655811</v>
+        <v>3.188292260149294</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
@@ -7368,17 +7145,12 @@
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>HD 136352</t>
-        </is>
-      </c>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>GJ 582</t>
+          <t>HD 158259</t>
         </is>
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>75181</t>
+          <t>85268</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
@@ -7393,19 +7165,19 @@
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>G2-V</t>
+          <t>G5VmF9</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr">
         <is>
-          <t>G2V</t>
+          <t>G5V</t>
         </is>
       </c>
       <c r="AM48" t="n">
-        <v>14.73911160268253</v>
+        <v>27.01410406864092</v>
       </c>
       <c r="AN48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
         <v>0</v>
@@ -7420,109 +7192,115 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gaia DR3 2971536418673198976</t>
+          <t>Gaia DR3 3380479015342121600</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2971536418673198976</t>
+          <t>3380479015342121600</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2971536418673198976</t>
+          <t>3380479015342121600</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>82.24597386185904</v>
+        <v>103.6782675948329</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.42957483064111</v>
+        <v>24.24512750011012</v>
       </c>
       <c r="F49" t="n">
-        <v>8.125703811645508</v>
+        <v>6.7151780128479</v>
       </c>
       <c r="G49" t="n">
-        <v>8.125703811645508</v>
+        <v>6.7151780128479</v>
       </c>
       <c r="H49" t="n">
-        <v>8.447702407836914</v>
+        <v>6.993736743927002</v>
       </c>
       <c r="I49" t="n">
-        <v>7.630920886993408</v>
+        <v>6.264439582824707</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8167815208435059</v>
+        <v>0.7292971611022949</v>
       </c>
       <c r="K49" t="n">
-        <v>20.25532275196063</v>
+        <v>32.18549484347468</v>
       </c>
       <c r="L49" t="n">
-        <v>5668.0786</v>
+        <v>5934.8613</v>
       </c>
       <c r="M49" t="n">
-        <v>0.97361505</v>
+        <v>1.0883968</v>
       </c>
       <c r="N49" t="n">
-        <v>1.0005165</v>
+        <v>1.4442267</v>
       </c>
       <c r="O49" t="n">
-        <v>1.0170723</v>
+        <v>1.1040779</v>
       </c>
       <c r="P49" t="n">
-        <v>1.360146784239348</v>
+        <v>1.604429007739714</v>
       </c>
       <c r="Q49" t="n">
-        <v>587.1219162039769</v>
+        <v>711.4270805998441</v>
       </c>
       <c r="R49" t="n">
-        <v>0.07042937457416781</v>
+        <v>0.05749807804932797</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9064552235095198</v>
+        <v>0.8497931073350418</v>
       </c>
       <c r="T49" t="n">
-        <v>0.06376283692419678</v>
+        <v>0.04816561831395953</v>
       </c>
       <c r="U49" t="n">
-        <v>0.8206541225899674</v>
+        <v>0.7118639760205282</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3353235550290206</v>
+        <v>0.2530952703214516</v>
       </c>
       <c r="W49" t="n">
-        <v>1.037458746038659</v>
+        <v>1.089655112742562</v>
       </c>
       <c r="X49" t="n">
-        <v>0.6307122245851906</v>
+        <v>0.7317455113260067</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.3703823324040088</v>
+        <v>0.302134429418109</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.9254049094633293</v>
+        <v>0.8087012339381878</v>
       </c>
       <c r="AA49" t="n">
-        <v>4.392</v>
+        <v>4.2335</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-4.80637223362</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.578826308929647</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>HD_number_match</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>HD 36152</t>
+          <t>HD 50554</t>
         </is>
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>25670</t>
+          <t>33212</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
@@ -7537,16 +7315,16 @@
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>G5V</t>
+          <t>F8V</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>G5V</t>
+          <t>F8V</t>
         </is>
       </c>
       <c r="AM49" t="n">
-        <v>49.36973911725025</v>
+        <v>31.06989669921887</v>
       </c>
       <c r="AN49" t="n">
         <v>0</v>
@@ -7555,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" t="n">
         <v>1</v>
@@ -7564,96 +7342,96 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Gaia DR3 6407428994690988928</t>
+          <t>Gaia DR3 1334288219648212352</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>6407428994690988928</t>
+          <t>1334288219648212352</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>6407428994690988928</t>
+          <t>1334288219648212352</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>338.9836867029886</v>
+        <v>256.9817733193837</v>
       </c>
       <c r="E50" t="n">
-        <v>-59.86484079291741</v>
+        <v>32.1052967782155</v>
       </c>
       <c r="F50" t="n">
-        <v>7.816815376281738</v>
+        <v>7.081035137176514</v>
       </c>
       <c r="G50" t="n">
-        <v>7.816815376281738</v>
+        <v>7.081035137176514</v>
       </c>
       <c r="H50" t="n">
-        <v>8.115347862243652</v>
+        <v>7.357048511505127</v>
       </c>
       <c r="I50" t="n">
-        <v>7.329487800598145</v>
+        <v>6.633843898773193</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7858600616455078</v>
+        <v>0.7232046127319336</v>
       </c>
       <c r="K50" t="n">
-        <v>20.93173765831372</v>
+        <v>27.26855581852196</v>
       </c>
       <c r="L50" t="n">
-        <v>5747.6714</v>
+        <v>5949.9424</v>
       </c>
       <c r="M50" t="n">
-        <v>1.042524</v>
+        <v>1.0844166</v>
       </c>
       <c r="N50" t="n">
-        <v>1.2339753</v>
+        <v>1.4444036</v>
       </c>
       <c r="O50" t="n">
-        <v>1.037572</v>
+        <v>1.1071805</v>
       </c>
       <c r="P50" t="n">
-        <v>1.502190426149467</v>
+        <v>1.602892988743454</v>
       </c>
       <c r="Q50" t="n">
-        <v>658.5484268094187</v>
+        <v>711.7082139625784</v>
       </c>
       <c r="R50" t="n">
-        <v>0.06491964735182411</v>
+        <v>0.06538596967187976</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9086312583242271</v>
+        <v>0.9641417894894451</v>
       </c>
       <c r="T50" t="n">
-        <v>0.05720109445360286</v>
+        <v>0.05732254885352062</v>
       </c>
       <c r="U50" t="n">
-        <v>0.8006005046396751</v>
+        <v>0.8452434842990171</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3006860768085487</v>
+        <v>0.3012114399421411</v>
       </c>
       <c r="W50" t="n">
-        <v>1.068526076695435</v>
+        <v>1.092334530253822</v>
       </c>
       <c r="X50" t="n">
-        <v>0.6803421746847327</v>
+        <v>0.7340561965729249</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.3412598002971422</v>
+        <v>0.343582106357618</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.9333216318146712</v>
+        <v>0.7989891325150612</v>
       </c>
       <c r="AA50" t="n">
-        <v>4.3284</v>
+        <v>4.3229</v>
       </c>
       <c r="AB50" t="n">
-        <v>-4.82629227942</v>
+        <v>-4.85059699877</v>
       </c>
       <c r="AC50" t="n">
-        <v>2.389762908501853</v>
+        <v>2.177754812028527</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -7662,22 +7440,22 @@
       </c>
       <c r="AE50" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>HD 213885</t>
+          <t>HD 155060</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>111553</t>
+          <t>83827</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -7687,16 +7465,16 @@
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>G0/2V</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="AL50" t="inlineStr">
         <is>
-          <t>G0/2V</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="AM50" t="n">
-        <v>47.7743423085</v>
+        <v>36.67227581303582</v>
       </c>
       <c r="AN50" t="n">
         <v>0</v>
@@ -7714,96 +7492,96 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gaia DR3 5660492297395345408</t>
+          <t>Gaia DR3 1779546757669063552</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5660492297395345408</t>
+          <t>1779546757669063552</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5660492297395345408</t>
+          <t>1779546757669063552</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>149.1234883901837</v>
+        <v>330.7950262642415</v>
       </c>
       <c r="E51" t="n">
-        <v>-24.09917937111891</v>
+        <v>18.88423938290383</v>
       </c>
       <c r="F51" t="n">
-        <v>7.783810138702393</v>
+        <v>7.52124547958374</v>
       </c>
       <c r="G51" t="n">
-        <v>7.783810138702393</v>
+        <v>7.52124547958374</v>
       </c>
       <c r="H51" t="n">
-        <v>8.083977699279785</v>
+        <v>7.793283462524414</v>
       </c>
       <c r="I51" t="n">
-        <v>7.311752796173096</v>
+        <v>7.080287933349609</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7722249031066895</v>
+        <v>0.7129955291748047</v>
       </c>
       <c r="K51" t="n">
-        <v>21.9300739315949</v>
+        <v>20.76938988528237</v>
       </c>
       <c r="L51" t="n">
-        <v>5805.1826</v>
+        <v>5996.3154</v>
       </c>
       <c r="M51" t="n">
-        <v>1.0362637</v>
+        <v>1.0743915</v>
       </c>
       <c r="N51" t="n">
-        <v>1.1655699</v>
+        <v>1.648176</v>
       </c>
       <c r="O51" t="n">
-        <v>1.0391837</v>
+        <v>1.183408</v>
       </c>
       <c r="P51" t="n">
-        <v>1.454174670018952</v>
+        <v>1.706899176270211</v>
       </c>
       <c r="Q51" t="n">
-        <v>629.1192635044721</v>
+        <v>785.7308120243068</v>
       </c>
       <c r="R51" t="n">
-        <v>0.06509955015194789</v>
+        <v>0.07868329392428312</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8937733752542706</v>
+        <v>1.191718672573501</v>
       </c>
       <c r="T51" t="n">
-        <v>0.05765280267204263</v>
+        <v>0.07144469006917817</v>
       </c>
       <c r="U51" t="n">
-        <v>0.7915345024164986</v>
+        <v>1.082084480265891</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3031173019513504</v>
+        <v>0.3751885164679508</v>
       </c>
       <c r="W51" t="n">
-        <v>1.039572669543787</v>
+        <v>1.173169906718203</v>
       </c>
       <c r="X51" t="n">
-        <v>0.6679256467534116</v>
+        <v>0.7877789284343752</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.3422695703547129</v>
+        <v>0.4132017129569599</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.9234073075493245</v>
+        <v>0.6482746826574618</v>
       </c>
       <c r="AA51" t="n">
-        <v>4.3003</v>
+        <v>4.237</v>
       </c>
       <c r="AB51" t="n">
-        <v>-4.88370295376</v>
+        <v>-4.8814334899</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.918903331075391</v>
+        <v>1.93562136342966</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -7817,17 +7595,17 @@
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>HD 86226</t>
+          <t>HD 209458</t>
         </is>
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>48739</t>
+          <t>108859</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>V*</t>
         </is>
       </c>
       <c r="AJ51" t="inlineStr">
@@ -7837,16 +7615,16 @@
       </c>
       <c r="AK51" t="inlineStr">
         <is>
-          <t>G2V</t>
+          <t>F9V</t>
         </is>
       </c>
       <c r="AL51" t="inlineStr">
         <is>
-          <t>G2V</t>
+          <t>F9V</t>
         </is>
       </c>
       <c r="AM51" t="n">
-        <v>45.5994814754951</v>
+        <v>48.1477792811151</v>
       </c>
       <c r="AN51" t="n">
         <v>0</v>
@@ -7864,96 +7642,96 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gaia DR3 4623036865373793408</t>
+          <t>Gaia DR3 666427539629086976</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4623036865373793408</t>
+          <t>666427539629086976</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4623036865373793408</t>
+          <t>666427539629086976</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>84.29954054316471</v>
+        <v>129.6894383961335</v>
       </c>
       <c r="E52" t="n">
-        <v>-80.46445831742687</v>
+        <v>23.68524446703721</v>
       </c>
       <c r="F52" t="n">
-        <v>5.511580467224121</v>
+        <v>6.762600421905518</v>
       </c>
       <c r="G52" t="n">
-        <v>5.511580467224121</v>
+        <v>6.762600421905518</v>
       </c>
       <c r="H52" t="n">
-        <v>5.811517238616943</v>
+        <v>7.033869743347168</v>
       </c>
       <c r="I52" t="n">
-        <v>5.0508131980896</v>
+        <v>6.32616138458252</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7607040405273438</v>
+        <v>0.7077083587646484</v>
       </c>
       <c r="K52" t="n">
-        <v>54.68250908790331</v>
+        <v>28.37571220384387</v>
       </c>
       <c r="L52" t="n">
-        <v>5855.533</v>
+        <v>6026.558</v>
       </c>
       <c r="M52" t="n">
-        <v>1.0756301</v>
+        <v>1.0843573</v>
       </c>
       <c r="N52" t="n">
-        <v>1.5069408</v>
+        <v>1.7780483</v>
       </c>
       <c r="O52" t="n">
-        <v>1.1334285</v>
+        <v>1.2231928</v>
       </c>
       <c r="P52" t="n">
-        <v>1.647763955697583</v>
+        <v>1.76929587330577</v>
       </c>
       <c r="Q52" t="n">
-        <v>744.8250719255465</v>
+        <v>825.387249901403</v>
       </c>
       <c r="R52" t="n">
-        <v>0.03816410416149966</v>
+        <v>0.09407202051062369</v>
       </c>
       <c r="S52" t="n">
-        <v>0.5682507800699519</v>
+        <v>1.457313216125925</v>
       </c>
       <c r="T52" t="n">
-        <v>0.02067100788030379</v>
+        <v>0.08785864609317151</v>
       </c>
       <c r="U52" t="n">
-        <v>0.3077844118417577</v>
+        <v>1.361058956823934</v>
       </c>
       <c r="V52" t="n">
-        <v>0.1085911731050552</v>
+        <v>0.4612110604227742</v>
       </c>
       <c r="W52" t="n">
-        <v>1.133876753704462</v>
+        <v>1.204283173954831</v>
       </c>
       <c r="X52" t="n">
-        <v>0.7447515781791074</v>
+        <v>0.815318117015248</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.2004877974696926</v>
+        <v>0.4938279641801788</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.7387211964130875</v>
+        <v>0.5924990513966264</v>
       </c>
       <c r="AA52" t="n">
-        <v>4.2235</v>
+        <v>4.2988</v>
       </c>
       <c r="AB52" t="n">
-        <v>-4.88736869538</v>
+        <v>-4.59083102751</v>
       </c>
       <c r="AC52" t="n">
-        <v>1.89220404117317</v>
+        <v>5.877877006963364</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -7967,17 +7745,12 @@
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>HD 39091</t>
-        </is>
-      </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>GJ 9189</t>
+          <t>HD 73344</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>26394</t>
+          <t>42403</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
@@ -7992,19 +7765,19 @@
       </c>
       <c r="AK52" t="inlineStr">
         <is>
-          <t>G0V</t>
+          <t>F6V</t>
         </is>
       </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>G0V</t>
+          <t>F6V</t>
         </is>
       </c>
       <c r="AM52" t="n">
-        <v>18.28738323606326</v>
+        <v>35.24140620035386</v>
       </c>
       <c r="AN52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO52" t="n">
         <v>0</v>
@@ -8019,100 +7792,94 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gaia DR3 3380479015342121600</t>
+          <t>Gaia DR3 3301771025223950336</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>3301771025223950336</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3380479015342121600</t>
+          <t>3301771025223950336</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>103.6782675948329</v>
+        <v>60.74834873825633</v>
       </c>
       <c r="E53" t="n">
-        <v>24.24512750011012</v>
+        <v>9.207744616517619</v>
       </c>
       <c r="F53" t="n">
-        <v>6.7151780128479</v>
+        <v>6.792205810546875</v>
       </c>
       <c r="G53" t="n">
-        <v>6.7151780128479</v>
+        <v>6.792205810546875</v>
       </c>
       <c r="H53" t="n">
-        <v>6.993736743927002</v>
+        <v>7.026190280914307</v>
       </c>
       <c r="I53" t="n">
-        <v>6.264439582824707</v>
+        <v>6.394998073577881</v>
       </c>
       <c r="J53" t="n">
-        <v>0.7292971611022949</v>
+        <v>0.6311922073364258</v>
       </c>
       <c r="K53" t="n">
-        <v>32.18549484347468</v>
+        <v>22.13145482384569</v>
       </c>
       <c r="L53" t="n">
-        <v>5934.8613</v>
+        <v>6280.154</v>
       </c>
       <c r="M53" t="n">
-        <v>1.0883968</v>
+        <v>1.2328225</v>
       </c>
       <c r="N53" t="n">
-        <v>1.4442267</v>
+        <v>2.847802</v>
       </c>
       <c r="O53" t="n">
-        <v>1.1040779</v>
+        <v>1.3849748</v>
       </c>
       <c r="P53" t="n">
-        <v>1.604429007739714</v>
+        <v>2.202617345650118</v>
       </c>
       <c r="Q53" t="n">
-        <v>711.4270805998441</v>
+        <v>1075.230485536771</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0485934178715254</v>
+        <v>0.4156871684448924</v>
       </c>
       <c r="S53" t="n">
-        <v>0.7181866415369055</v>
+        <v>7.661122693237147</v>
       </c>
       <c r="T53" t="n">
-        <v>0.03708393275579205</v>
+        <v>0.4140616658450888</v>
       </c>
       <c r="U53" t="n">
-        <v>0.5480821536628143</v>
+        <v>7.631164648340405</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1948644762375968</v>
+        <v>2.166058182472033</v>
       </c>
       <c r="W53" t="n">
-        <v>1.089655112742562</v>
+        <v>1.313206778491009</v>
       </c>
       <c r="X53" t="n">
-        <v>0.7317455113260067</v>
+        <v>0.9831031826595126</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.2553432232898899</v>
+        <v>2.174561585460928</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.8087012339381878</v>
+        <v>0.4640608572031384</v>
       </c>
       <c r="AA53" t="n">
-        <v>4.2335</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>-4.80637223362</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>2.578826308929647</v>
+        <v>4.1274</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>HD_number_match</t>
+          <t>Not found</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr">
@@ -8122,17 +7889,17 @@
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>HD 50554</t>
+          <t>HD 25463</t>
         </is>
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>33212</t>
+          <t>18893</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>PM*</t>
+          <t>MS*</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr">
@@ -8142,16 +7909,16 @@
       </c>
       <c r="AK53" t="inlineStr">
         <is>
-          <t>F8V</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="AL53" t="inlineStr">
         <is>
-          <t>F8V</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="AM53" t="n">
-        <v>31.06989669921887</v>
+        <v>45.18455781418143</v>
       </c>
       <c r="AN53" t="n">
         <v>0</v>
@@ -8163,1028 +7930,6 @@
         <v>1</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Gaia DR3 5822482108594169472</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>5822482108594169472</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>5822482108594169472</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>238.7022644347005</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-65.90111857299338</v>
-      </c>
-      <c r="F54" t="n">
-        <v>7.390670299530029</v>
-      </c>
-      <c r="G54" t="n">
-        <v>7.390670299530029</v>
-      </c>
-      <c r="H54" t="n">
-        <v>7.686380386352539</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6.910830497741699</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.7755498886108398</v>
-      </c>
-      <c r="K54" t="n">
-        <v>20.70642966385347</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5947</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.01779</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.9043655</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.3640201</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.840863841774259</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>904.1628817043562</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0.06226499370680322</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0.9532128040208352</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0.05094231472623591</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0.7798742724068011</v>
-      </c>
-      <c r="V54" t="n">
-        <v>0.2671866690514005</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.336693767101847</v>
-      </c>
-      <c r="X54" t="n">
-        <v>0.859860440948725</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0.3265728374619623</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>0.4010475516097816</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>-4.67467969264</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>4.26610666844634</v>
-      </c>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>HD_number_match</t>
-        </is>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>HD 141747</t>
-        </is>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>77921</t>
-        </is>
-      </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
-      <c r="AL54" t="inlineStr">
-        <is>
-          <t>G2V</t>
-        </is>
-      </c>
-      <c r="AM54" t="n">
-        <v>48.29417800335067</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Gaia DR3 1779546757669063552</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1779546757669063552</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1779546757669063552</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>330.7950262642415</v>
-      </c>
-      <c r="E55" t="n">
-        <v>18.88423938290383</v>
-      </c>
-      <c r="F55" t="n">
-        <v>7.52124547958374</v>
-      </c>
-      <c r="G55" t="n">
-        <v>7.52124547958374</v>
-      </c>
-      <c r="H55" t="n">
-        <v>7.793283462524414</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7.080287933349609</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.7129955291748047</v>
-      </c>
-      <c r="K55" t="n">
-        <v>20.76938988528237</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5996.3154</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.0743915</v>
-      </c>
-      <c r="N55" t="n">
-        <v>1.648176</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1.183408</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.706899176270211</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>785.7308120243068</v>
-      </c>
-      <c r="R55" t="n">
-        <v>0.06414921381509445</v>
-      </c>
-      <c r="S55" t="n">
-        <v>0.9715889119731532</v>
-      </c>
-      <c r="T55" t="n">
-        <v>0.05503094247239907</v>
-      </c>
-      <c r="U55" t="n">
-        <v>0.8334857177787328</v>
-      </c>
-      <c r="V55" t="n">
-        <v>0.2889924730033903</v>
-      </c>
-      <c r="W55" t="n">
-        <v>1.173169906718203</v>
-      </c>
-      <c r="X55" t="n">
-        <v>0.7877789284343752</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>0.3368766571814666</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>0.6482746826574618</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>4.237</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>-4.8814334899</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>1.93562136342966</v>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>HD_number_match</t>
-        </is>
-      </c>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>HD 209458</t>
-        </is>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>108859</t>
-        </is>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>V*</t>
-        </is>
-      </c>
-      <c r="AJ55" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK55" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
-      <c r="AL55" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
-      <c r="AM55" t="n">
-        <v>48.1477792811151</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Gaia DR3 4648266774581927296</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>4648266774581927296</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>4648266774581927296</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>81.32744004329236</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-75.69377655197798</v>
-      </c>
-      <c r="F56" t="n">
-        <v>7.035058975219727</v>
-      </c>
-      <c r="G56" t="n">
-        <v>7.035058975219727</v>
-      </c>
-      <c r="H56" t="n">
-        <v>7.305276393890381</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6.594651699066162</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.7106246948242188</v>
-      </c>
-      <c r="K56" t="n">
-        <v>27.6850515066893</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5999.7104</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.0762585</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.470469</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.1213895</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.611889570637861</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>720.4235374552807</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0.05426706707559491</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0.7994076233898318</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0.0440224247792864</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0.6484938999862319</v>
-      </c>
-      <c r="V56" t="n">
-        <v>0.231308221615846</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.105885382072909</v>
-      </c>
-      <c r="X56" t="n">
-        <v>0.7463073840899519</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0.2851369237495955</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>0.7632154238682607</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>4.3203</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>-4.62144099678</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>5.228871213587189</v>
-      </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>HIP_number_match</t>
-        </is>
-      </c>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>HD 36767</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>GJ 9181</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>25351</t>
-        </is>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>PM*</t>
-        </is>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>F9VFe-0.7CH+0</t>
-        </is>
-      </c>
-      <c r="AL56" t="inlineStr">
-        <is>
-          <t>F9V</t>
-        </is>
-      </c>
-      <c r="AM56" t="n">
-        <v>36.12057574674834</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Gaia DR3 666427539629086976</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>666427539629086976</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>666427539629086976</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>129.6894383961335</v>
-      </c>
-      <c r="E57" t="n">
-        <v>23.68524446703721</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6.762600421905518</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6.762600421905518</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7.033869743347168</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6.32616138458252</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7077083587646484</v>
-      </c>
-      <c r="K57" t="n">
-        <v>28.37571220384387</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6026.558</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.0843573</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1.7780483</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.2231928</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1.76929587330577</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>825.3872499014032</v>
-      </c>
-      <c r="R57" t="n">
-        <v>0.07592915714145231</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.176253721254392</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0.06807961188627118</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.054652782113703</v>
-      </c>
-      <c r="V57" t="n">
-        <v>0.3573816737164405</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.204283173954831</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.815318117015248</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0.3985876022387104</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>0.5924990513966264</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>4.2988</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>-4.59083102751</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>5.877877006963365</v>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>HD_number_match</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>HD 73344</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>42403</t>
-        </is>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>PM*</t>
-        </is>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="AL57" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="AM57" t="n">
-        <v>35.24140620035386</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Gaia DR3 5064574724769475968</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>5064574720469473792</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>5064574724769475968</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>42.98499788942525</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-30.81404621914154</v>
-      </c>
-      <c r="F58" t="n">
-        <v>6.264976978302002</v>
-      </c>
-      <c r="G58" t="n">
-        <v>6.264976978302002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>6.509951591491699</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5.855489253997803</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6544623374938965</v>
-      </c>
-      <c r="K58" t="n">
-        <v>31.54176891584755</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6189.642</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.176214</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.28798</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.29371</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.985694857738427</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>942.2558822683638</v>
-      </c>
-      <c r="R58" t="n">
-        <v>0.1869764357998634</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3.195893511237676</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0.1836861907000023</v>
-      </c>
-      <c r="U58" t="n">
-        <v>3.139655018295801</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0.9629433853613644</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.242713228623314</v>
-      </c>
-      <c r="X58" t="n">
-        <v>0.898493054617561</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>0.9801919316078453</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>0.5432197344943213</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>4.1511</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>-4.72984519012</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>3.455071064138847</v>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>HIP_number_match</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>HD 17926</t>
-        </is>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>13363</t>
-        </is>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>PM*</t>
-        </is>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="AL58" t="inlineStr">
-        <is>
-          <t>F6V</t>
-        </is>
-      </c>
-      <c r="AM58" t="n">
-        <v>31.70399233689044</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Gaia DR3 3301771025223950336</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3301771025223950336</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>3301771025223950336</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>60.74834873825633</v>
-      </c>
-      <c r="E59" t="n">
-        <v>9.207744616517619</v>
-      </c>
-      <c r="F59" t="n">
-        <v>6.792205810546875</v>
-      </c>
-      <c r="G59" t="n">
-        <v>6.792205810546875</v>
-      </c>
-      <c r="H59" t="n">
-        <v>7.026190280914307</v>
-      </c>
-      <c r="I59" t="n">
-        <v>6.394998073577881</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6311922073364258</v>
-      </c>
-      <c r="K59" t="n">
-        <v>22.13145482384569</v>
-      </c>
-      <c r="L59" t="n">
-        <v>6280.154</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.2328225</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.847802</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.3849748</v>
-      </c>
-      <c r="P59" t="n">
-        <v>2.202617345650118</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1075.230485536771</v>
-      </c>
-      <c r="R59" t="n">
-        <v>0.3269057472831667</v>
-      </c>
-      <c r="S59" t="n">
-        <v>6.024879354419458</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0.3248362798694801</v>
-      </c>
-      <c r="U59" t="n">
-        <v>5.986739029267683</v>
-      </c>
-      <c r="V59" t="n">
-        <v>1.699298293018758</v>
-      </c>
-      <c r="W59" t="n">
-        <v>1.313206778491009</v>
-      </c>
-      <c r="X59" t="n">
-        <v>0.9831031826595126</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>1.710124184895578</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>0.4640608572031384</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>4.1274</v>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>HD 25463</t>
-        </is>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>18893</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>MS*</t>
-        </is>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>GAIA</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>F8</t>
-        </is>
-      </c>
-      <c r="AL59" t="inlineStr">
-        <is>
-          <t>F8</t>
-        </is>
-      </c>
-      <c r="AM59" t="n">
-        <v>45.18455781418143</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Gaia DR2 6536790454707565696</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>6536790454707565696</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>350.4913020906739</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-40.1743536425942</v>
-      </c>
-      <c r="F60" t="n">
-        <v>9.840427398681641</v>
-      </c>
-      <c r="G60" t="n">
-        <v>9.840427398681641</v>
-      </c>
-      <c r="H60" t="n">
-        <v>10.08514213562012</v>
-      </c>
-      <c r="I60" t="n">
-        <v>9.426616668701172</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6585254669189453</v>
-      </c>
-      <c r="K60" t="n">
-        <v>24.21584327681414</v>
-      </c>
-      <c r="L60" t="n">
-        <v>6458.75</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="N60" t="n">
-        <v>2.454708915685031</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.324</v>
-      </c>
-      <c r="P60" t="n">
-        <v>2.022705200132677</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>955.1013613784679</v>
-      </c>
-      <c r="R60" t="n">
-        <v>2.041011835929973</v>
-      </c>
-      <c r="S60" t="n">
-        <v>35.71169791451638</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2.040710147773183</v>
-      </c>
-      <c r="U60" t="n">
-        <v>35.70641926001276</v>
-      </c>
-      <c r="V60" t="n">
-        <v>10.69619875496007</v>
-      </c>
-      <c r="W60" t="n">
-        <v>1.224910370716343</v>
-      </c>
-      <c r="X60" t="n">
-        <v>0.9394483227928602</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>10.69778002630846</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>0.5213404410367096</v>
-      </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>Not found</t>
-        </is>
-      </c>
-      <c r="AF60" t="inlineStr">
-        <is>
-          <t>HD 220163</t>
-        </is>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>115358</t>
-        </is>
-      </c>
-      <c r="AI60" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
-      <c r="AL60" t="inlineStr">
-        <is>
-          <t>F7V</t>
-        </is>
-      </c>
-      <c r="AM60" t="n">
-        <v>41.2952788209307</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ60" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
@@ -468,7 +468,7 @@
     <col width="30" customWidth="1" min="19" max="19"/>
     <col width="31" customWidth="1" min="20" max="20"/>
     <col width="41" customWidth="1" min="21" max="21"/>
-    <col width="21" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
     <col width="21" customWidth="1" min="23" max="23"/>
     <col width="20" customWidth="1" min="24" max="24"/>
     <col width="20" customWidth="1" min="25" max="25"/>
@@ -768,28 +768,28 @@
         <v>143.5781541528725</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07827118767165567</v>
+        <v>0.1388592359708757</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4644199760795594</v>
+        <v>0.8239175227358072</v>
       </c>
       <c r="T2" t="n">
-        <v>0.07499675172412429</v>
+        <v>0.1298981843888121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4449911989054362</v>
+        <v>0.7707473654252037</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3949840361264111</v>
+        <v>0.6841324187495649</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5937558960154107</v>
+        <v>0.4750047168123285</v>
       </c>
       <c r="X2" t="n">
         <v>0.1988137208558769</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4122294487190917</v>
+        <v>0.7313274270725978</v>
       </c>
       <c r="Z2" t="n">
         <v>2.18165867208891</v>
@@ -918,28 +918,28 @@
         <v>123.5853141391516</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1160368780756084</v>
+        <v>0.2028462182033028</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6217175629236638</v>
+        <v>1.086836000081502</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1139153062048636</v>
+        <v>0.1973070981065899</v>
       </c>
       <c r="U3" t="n">
-        <v>0.6103503276539645</v>
+        <v>1.057157777912978</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5999768368985795</v>
+        <v>1.039190364872805</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5654037684781568</v>
+        <v>0.4523230147825254</v>
       </c>
       <c r="X3" t="n">
         <v>0.1834047639562364</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6111508750736893</v>
+        <v>1.068364177115828</v>
       </c>
       <c r="Z3" t="n">
         <v>2.803773182186938</v>
@@ -1049,28 +1049,28 @@
         <v>123.5853141391516</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1795799618924434</v>
+        <v>0.3122495879239159</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9621770088035774</v>
+        <v>1.673011684280936</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1782164488129691</v>
+        <v>0.3086799440885606</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9548714000794878</v>
+        <v>1.653885779632101</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9386424423932033</v>
+        <v>1.625776400365571</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5654037684781568</v>
+        <v>0.4523230147825254</v>
       </c>
       <c r="X4" t="n">
         <v>0.1834047639562364</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9458238852716659</v>
+        <v>1.644577241872676</v>
       </c>
       <c r="Z4" t="n">
         <v>2.803773182186938</v>
@@ -1175,28 +1175,28 @@
         <v>142.4049296620252</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1117364598191904</v>
+        <v>0.1957640791362136</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6595363756557957</v>
+        <v>1.155518363889651</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1094775038278818</v>
+        <v>0.1896205989157075</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6462026469007907</v>
+        <v>1.11925581641766</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5765844111511927</v>
+        <v>0.9986734949660488</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5877167811767282</v>
+        <v>0.4701734249413826</v>
       </c>
       <c r="X5" t="n">
         <v>0.2017290603468786</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5884816390247187</v>
+        <v>1.031029319692638</v>
       </c>
       <c r="Z5" t="n">
         <v>2.316179518923088</v>
@@ -1319,28 +1319,28 @@
         <v>152.3324762989147</v>
       </c>
       <c r="R6" t="n">
-        <v>0.08260015378386991</v>
+        <v>0.1463086481747809</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5078596040079951</v>
+        <v>0.8995655422072516</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07947253438635964</v>
+        <v>0.1376504673634396</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4886297179128258</v>
+        <v>0.8463314975130625</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4185498602889894</v>
+        <v>0.7249496235213847</v>
       </c>
       <c r="W6" t="n">
-        <v>0.6007412365585536</v>
+        <v>0.4805929892468428</v>
       </c>
       <c r="X6" t="n">
         <v>0.2123810820879944</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4350217731576664</v>
+        <v>0.7705487779578851</v>
       </c>
       <c r="Z6" t="n">
         <v>2.228367536626836</v>
@@ -1463,28 +1463,28 @@
         <v>187.6553407366093</v>
       </c>
       <c r="R7" t="n">
-        <v>0.13618068293378</v>
+        <v>0.2385782217381749</v>
       </c>
       <c r="S7" t="n">
-        <v>0.935961884875647</v>
+        <v>1.639734192087474</v>
       </c>
       <c r="T7" t="n">
-        <v>0.134187008699583</v>
+        <v>0.2324187167833648</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9222594782356802</v>
+        <v>1.597400274066161</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7066607210728868</v>
+        <v>1.223972272611499</v>
       </c>
       <c r="W7" t="n">
-        <v>0.6608492730387686</v>
+        <v>0.5286794184310148</v>
       </c>
       <c r="X7" t="n">
         <v>0.2411860168166412</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7171598840363911</v>
+        <v>1.256409691516654</v>
       </c>
       <c r="Z7" t="n">
         <v>1.736547772340493</v>
@@ -1582,28 +1582,28 @@
         <v>145.0425974091273</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1765302533072531</v>
+        <v>0.3071076032804879</v>
       </c>
       <c r="S8" t="n">
-        <v>1.066521483154316</v>
+        <v>1.855414867436865</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1751154527424282</v>
+        <v>0.3033088613403124</v>
       </c>
       <c r="U8" t="n">
-        <v>1.057973853677241</v>
+        <v>1.832464467648422</v>
       </c>
       <c r="V8" t="n">
-        <v>0.9222749414798954</v>
+        <v>1.597427057190792</v>
       </c>
       <c r="W8" t="n">
-        <v>0.580339026568937</v>
+        <v>0.4642712212551496</v>
       </c>
       <c r="X8" t="n">
         <v>0.2078110343630772</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9297262262619921</v>
+        <v>1.617433769595127</v>
       </c>
       <c r="Z8" t="n">
         <v>2.611695147552031</v>
@@ -1708,28 +1708,28 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1343339581780173</v>
+        <v>0.2345116231697294</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8304488523779201</v>
+        <v>1.44974443522691</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1324552886800389</v>
+        <v>0.2294192897250301</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8188349689656104</v>
+        <v>1.418263769262522</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6975909720271325</v>
+        <v>1.208263006452353</v>
       </c>
       <c r="W9" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.4693339858180979</v>
       </c>
       <c r="X9" t="n">
         <v>0.2145593731022121</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7074852004439249</v>
+        <v>1.235082364689948</v>
       </c>
       <c r="Z9" t="n">
         <v>2.559518810463633</v>
@@ -1834,28 +1834,28 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2339207173853072</v>
+        <v>0.406221085750791</v>
       </c>
       <c r="S10" t="n">
-        <v>1.446091471842279</v>
+        <v>2.511247632757248</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2328469308399745</v>
+        <v>0.4033027146013125</v>
       </c>
       <c r="U10" t="n">
-        <v>1.439453352811433</v>
+        <v>2.493206342194771</v>
       </c>
       <c r="V10" t="n">
-        <v>1.226315071575326</v>
+        <v>2.124040010055929</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.4693339858180979</v>
       </c>
       <c r="X10" t="n">
         <v>0.2145593731022121</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.231970291592382</v>
+        <v>2.139409946486467</v>
       </c>
       <c r="Z10" t="n">
         <v>2.559518810463633</v>
@@ -1960,28 +1960,28 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R11" t="n">
-        <v>0.149207813453368</v>
+        <v>0.260091866902805</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9223986185530643</v>
+        <v>1.607880801785313</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1475186861894933</v>
+        <v>0.2555098595460116</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9119564800437074</v>
+        <v>1.579554957727374</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7769240829611543</v>
+        <v>1.345671985312576</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5866674822726222</v>
+        <v>0.4693339858180979</v>
       </c>
       <c r="X11" t="n">
         <v>0.2145593731022121</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7858200654592957</v>
+        <v>1.369803652667756</v>
       </c>
       <c r="Z11" t="n">
         <v>2.559518810463633</v>
@@ -2091,28 +2091,28 @@
         <v>192.4198323261162</v>
       </c>
       <c r="R12" t="n">
-        <v>0.08249938494647539</v>
+        <v>0.1470379364173939</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5875221654235464</v>
+        <v>1.04713564664033</v>
       </c>
       <c r="T12" t="n">
-        <v>0.07919306793699592</v>
+        <v>0.1371664172741308</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5639761168045612</v>
+        <v>0.9768352885609</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4170455027583157</v>
+        <v>0.7223439998455092</v>
       </c>
       <c r="W12" t="n">
-        <v>0.6479653370979835</v>
+        <v>0.5183722696783869</v>
       </c>
       <c r="X12" t="n">
         <v>0.2505004184883252</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.434457186323773</v>
+        <v>0.7743292653660443</v>
       </c>
       <c r="Z12" t="n">
         <v>1.615091729727736</v>
@@ -2236,28 +2236,28 @@
         <v>159.4294446065069</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1197895135709042</v>
+        <v>0.2097670719941646</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7573579347875248</v>
+        <v>1.326232586610272</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1176391127417782</v>
+        <v>0.2037569202260832</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7437622277647377</v>
+        <v>1.288233967239141</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6195496696589325</v>
+        <v>1.073091505661785</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6042791315347267</v>
+        <v>0.4834233052277814</v>
       </c>
       <c r="X13" t="n">
         <v>0.2257669438705284</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.6308748156266998</v>
+        <v>1.104744137645573</v>
       </c>
       <c r="Z13" t="n">
         <v>2.574200330803404</v>
@@ -2386,28 +2386,28 @@
         <v>162.696380646359</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1734639781075541</v>
+        <v>0.3018744884019633</v>
       </c>
       <c r="S14" t="n">
-        <v>1.142903089246784</v>
+        <v>1.98896214143939</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1720035906009942</v>
+        <v>0.2979189580051985</v>
       </c>
       <c r="U14" t="n">
-        <v>1.133281025859595</v>
+        <v>1.962900316042598</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9058561168673462</v>
+        <v>1.568988818761294</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5877095322690731</v>
+        <v>0.4701676258152586</v>
       </c>
       <c r="X14" t="n">
         <v>0.2322136979644548</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.9135472409374404</v>
+        <v>1.589820601358648</v>
       </c>
       <c r="Z14" t="n">
         <v>2.721074765720185</v>
@@ -2520,28 +2520,28 @@
         <v>236.2062132450272</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04966226803465653</v>
+        <v>0.09517655145766499</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3840778462287892</v>
+        <v>0.7360760259646952</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04342301811504145</v>
+        <v>0.07521087359323554</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3358247606158521</v>
+        <v>0.5816655478263117</v>
       </c>
       <c r="V15" t="n">
-        <v>0.2286520868473962</v>
+        <v>0.3960370316763416</v>
       </c>
       <c r="W15" t="n">
-        <v>0.7221379453675071</v>
+        <v>0.5777103562940057</v>
       </c>
       <c r="X15" t="n">
         <v>0.2981269094853483</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2615060333580433</v>
+        <v>0.5011700718747452</v>
       </c>
       <c r="Z15" t="n">
         <v>1.868830615026467</v>
@@ -2670,28 +2670,28 @@
         <v>135.8414770002599</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2641899667598849</v>
+        <v>0.458314313630492</v>
       </c>
       <c r="S16" t="n">
-        <v>1.54172749561661</v>
+        <v>2.674574616230561</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2632679772061057</v>
+        <v>0.4559935125268599</v>
       </c>
       <c r="U16" t="n">
-        <v>1.536347061744855</v>
+        <v>2.661031169001247</v>
       </c>
       <c r="V16" t="n">
-        <v>1.386567905368733</v>
+        <v>2.401606060242999</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5499689094370264</v>
+        <v>0.4399751275496211</v>
       </c>
       <c r="X16" t="n">
         <v>0.2156321914866056</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.39142379835626</v>
+        <v>2.413829150795791</v>
       </c>
       <c r="Z16" t="n">
         <v>1.993796742483795</v>
@@ -2801,28 +2801,28 @@
         <v>203.1306574639146</v>
       </c>
       <c r="R17" t="n">
-        <v>0.1348606787880528</v>
+        <v>0.2363144602188748</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9769186864503394</v>
+        <v>1.711840798525595</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1328220174039462</v>
+        <v>0.2300544825074325</v>
       </c>
       <c r="U17" t="n">
-        <v>0.9621508058540353</v>
+        <v>1.666494080282528</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6994500493180023</v>
+        <v>1.211483022775337</v>
       </c>
       <c r="W17" t="n">
-        <v>0.6624574940687769</v>
+        <v>0.5299659952550214</v>
       </c>
       <c r="X17" t="n">
         <v>0.2729424054078003</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.7101857829977538</v>
+        <v>1.24444850398529</v>
       </c>
       <c r="Z17" t="n">
         <v>2.005730181042971</v>
@@ -2940,28 +2940,28 @@
         <v>249.3908228905306</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05573433998769478</v>
+        <v>0.1051295887839845</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4464933530419892</v>
+        <v>0.8422036146915931</v>
       </c>
       <c r="T18" t="n">
-        <v>0.05016526836124941</v>
+        <v>0.08688879357701153</v>
       </c>
       <c r="U18" t="n">
-        <v>0.4018789651373045</v>
+        <v>0.6960747861110133</v>
       </c>
       <c r="V18" t="n">
-        <v>0.2641465911601408</v>
+        <v>0.457515316535488</v>
       </c>
       <c r="W18" t="n">
-        <v>0.7337565361517896</v>
+        <v>0.5870052289214317</v>
       </c>
       <c r="X18" t="n">
         <v>0.3110687551322458</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2934706899660893</v>
+        <v>0.5535627220686367</v>
       </c>
       <c r="Z18" t="n">
         <v>1.905410952608699</v>
@@ -3095,28 +3095,28 @@
         <v>220.9488316052588</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1176055885210543</v>
+        <v>0.2071882613767058</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8895167524026653</v>
+        <v>1.567080541948636</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1151930164008232</v>
+        <v>0.1995201570833408</v>
       </c>
       <c r="U19" t="n">
-        <v>0.8712691219599932</v>
+        <v>1.509082386300633</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6065912711914886</v>
+        <v>1.05064690113145</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6875322346462042</v>
+        <v>0.5500257877169633</v>
       </c>
       <c r="X19" t="n">
         <v>0.2910348595471279</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6192955586125241</v>
+        <v>1.091026129632215</v>
       </c>
       <c r="Z19" t="n">
         <v>2.023241853551796</v>
@@ -3226,28 +3226,28 @@
         <v>197.6108576999949</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04369086509948313</v>
+        <v>0.08283607815813886</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3183878703705095</v>
+        <v>0.6036502700178147</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03707916719312158</v>
+        <v>0.06422300148082766</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2702065306065478</v>
+        <v>0.4680114395474558</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1952637408705858</v>
+        <v>0.3382067200638181</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6382230139918799</v>
+        <v>0.5105784111935039</v>
       </c>
       <c r="X20" t="n">
         <v>0.2713711300321883</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2300818062272929</v>
+        <v>0.436225614668254</v>
       </c>
       <c r="Z20" t="n">
         <v>2.692255921705275</v>
@@ -3373,28 +3373,28 @@
         <v>247.5368920360654</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1166462661684868</v>
+        <v>0.2062082274132325</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9308156236180681</v>
+        <v>1.645503504737809</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1140987493424382</v>
+        <v>0.1976248309411691</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9104869106553163</v>
+        <v>1.577009588881433</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6007927048355225</v>
+        <v>1.040603489591857</v>
       </c>
       <c r="W21" t="n">
-        <v>0.7294174640323159</v>
+        <v>0.5835339712258527</v>
       </c>
       <c r="X21" t="n">
         <v>0.31266588263643</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.6142067828456348</v>
+        <v>1.085799795536015</v>
       </c>
       <c r="Z21" t="n">
         <v>1.830450382631331</v>
@@ -3517,28 +3517,28 @@
         <v>232.0943657408344</v>
       </c>
       <c r="R22" t="n">
-        <v>0.06035537040755387</v>
+        <v>0.1115733348889661</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4686604135697814</v>
+        <v>0.8663687244288396</v>
       </c>
       <c r="T22" t="n">
-        <v>0.05542134446754076</v>
+        <v>0.09599258444155689</v>
       </c>
       <c r="U22" t="n">
-        <v>0.4303476234734562</v>
+        <v>0.7453839487725468</v>
       </c>
       <c r="V22" t="n">
-        <v>0.2918342615326889</v>
+        <v>0.5054717683639608</v>
       </c>
       <c r="W22" t="n">
-        <v>0.7015875007370728</v>
+        <v>0.5612700005896583</v>
       </c>
       <c r="X22" t="n">
         <v>0.3028590455488905</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3178155478118442</v>
+        <v>0.5875159129914493</v>
       </c>
       <c r="Z22" t="n">
         <v>1.996487126693565</v>
@@ -3651,28 +3651,28 @@
         <v>233.2035643020673</v>
       </c>
       <c r="R23" t="n">
-        <v>0.09949500387110793</v>
+        <v>0.1761937656697901</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8070233188124741</v>
+        <v>1.429141886451972</v>
       </c>
       <c r="T23" t="n">
-        <v>0.09665232098183901</v>
+        <v>0.1674067306100006</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7839657652633414</v>
+        <v>1.357868536830723</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5089444904838759</v>
+        <v>0.8815177157503279</v>
       </c>
       <c r="W23" t="n">
-        <v>0.6745671812258415</v>
+        <v>0.5396537449806733</v>
       </c>
       <c r="X23" t="n">
         <v>0.3016979981793136</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5239132752992769</v>
+        <v>0.927787821174996</v>
       </c>
       <c r="Z23" t="n">
         <v>2.289994311244139</v>
@@ -3790,28 +3790,28 @@
         <v>229.936910321767</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1594787958736406</v>
+        <v>0.278873547345105</v>
       </c>
       <c r="S24" t="n">
-        <v>1.239403332584826</v>
+        <v>2.167290027842529</v>
       </c>
       <c r="T24" t="n">
-        <v>0.1576906114059104</v>
+        <v>0.273128150831637</v>
       </c>
       <c r="U24" t="n">
-        <v>1.225506301468932</v>
+        <v>2.122639179140012</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8303614306025773</v>
+        <v>1.438228186449242</v>
       </c>
       <c r="W24" t="n">
-        <v>0.6938444891297019</v>
+        <v>0.5550755913037615</v>
       </c>
       <c r="X24" t="n">
         <v>0.3020079382929376</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.8397775867045005</v>
+        <v>1.468482084419248</v>
       </c>
       <c r="Z24" t="n">
         <v>2.013975905790975</v>
@@ -3921,28 +3921,28 @@
         <v>221.3691085162</v>
       </c>
       <c r="R25" t="n">
-        <v>0.05556778869878048</v>
+        <v>0.102574617496916</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4369855154896619</v>
+        <v>0.8066475768186987</v>
       </c>
       <c r="T25" t="n">
-        <v>0.05038807656028661</v>
+        <v>0.08727470869808682</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3962522196013287</v>
+        <v>0.6863289769614412</v>
       </c>
       <c r="V25" t="n">
-        <v>0.2653367376694761</v>
+        <v>0.4595767107581074</v>
       </c>
       <c r="W25" t="n">
-        <v>0.6599307895849604</v>
+        <v>0.5279446316679683</v>
       </c>
       <c r="X25" t="n">
         <v>0.293826991436123</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.2926123952201388</v>
+        <v>0.5401439434141253</v>
       </c>
       <c r="Z25" t="n">
         <v>2.292449366349665</v>
@@ -4076,28 +4076,28 @@
         <v>239.9191547480468</v>
       </c>
       <c r="R26" t="n">
-        <v>0.09510195735116488</v>
+        <v>0.1689009021149623</v>
       </c>
       <c r="S26" t="n">
-        <v>0.7830204577516093</v>
+        <v>1.390642899182112</v>
       </c>
       <c r="T26" t="n">
-        <v>0.09209382796657775</v>
+        <v>0.1595111891016202</v>
       </c>
       <c r="U26" t="n">
-        <v>0.758253072165653</v>
+        <v>1.313332845986101</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4849332799722899</v>
+        <v>0.8399290791930293</v>
       </c>
       <c r="W26" t="n">
-        <v>0.6825847911666292</v>
+        <v>0.5460678329333034</v>
       </c>
       <c r="X26" t="n">
         <v>0.3088865340670015</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.5007730173494599</v>
+        <v>0.8893719618497358</v>
       </c>
       <c r="Z26" t="n">
         <v>2.35945338299386</v>
@@ -4226,28 +4226,28 @@
         <v>259.3173849157137</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05869873171926452</v>
+        <v>0.1097342846633787</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4877356136941862</v>
+        <v>0.9117968498801516</v>
       </c>
       <c r="T27" t="n">
-        <v>0.05342200157079672</v>
+        <v>0.09252962096264428</v>
       </c>
       <c r="U27" t="n">
-        <v>0.4438905570484921</v>
+        <v>0.7688409978080394</v>
       </c>
       <c r="V27" t="n">
-        <v>0.2812883353817728</v>
+        <v>0.4872056884577047</v>
       </c>
       <c r="W27" t="n">
-        <v>0.7306400100145035</v>
+        <v>0.5845120080116027</v>
       </c>
       <c r="X27" t="n">
         <v>0.3262359797813806</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.3090724429793569</v>
+        <v>0.5777951660303365</v>
       </c>
       <c r="Z27" t="n">
         <v>1.93417898639118</v>
@@ -4381,28 +4381,28 @@
         <v>272.3753650437538</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1049057868236785</v>
+        <v>0.1869102903606883</v>
       </c>
       <c r="S28" t="n">
-        <v>0.8755490982267587</v>
+        <v>1.559962907000137</v>
       </c>
       <c r="T28" t="n">
-        <v>0.1019461794085843</v>
+        <v>0.1765759623732001</v>
       </c>
       <c r="U28" t="n">
-        <v>0.8508480623559133</v>
+        <v>1.473712073521974</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5367704139405748</v>
+        <v>0.9297136289448529</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7623002622043877</v>
+        <v>0.6098402097635102</v>
       </c>
       <c r="X28" t="n">
         <v>0.3407088993809207</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.5523534373213209</v>
+        <v>0.9841262763223435</v>
       </c>
       <c r="Z28" t="n">
         <v>1.603979339453181</v>
@@ -4525,28 +4525,28 @@
         <v>261.1434661768174</v>
       </c>
       <c r="R29" t="n">
-        <v>0.07413184219846626</v>
+        <v>0.1342880312173546</v>
       </c>
       <c r="S29" t="n">
-        <v>0.638733258076041</v>
+        <v>1.157049779910267</v>
       </c>
       <c r="T29" t="n">
-        <v>0.07010762510326199</v>
+        <v>0.121429968676841</v>
       </c>
       <c r="U29" t="n">
-        <v>0.6040598812895362</v>
+        <v>1.046262405207502</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3691432225809445</v>
+        <v>0.6393748167799027</v>
       </c>
       <c r="W29" t="n">
-        <v>0.7074165772654201</v>
+        <v>0.5659332618123361</v>
       </c>
       <c r="X29" t="n">
         <v>0.3298735097333443</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.3903322510882004</v>
+        <v>0.7070773902925759</v>
       </c>
       <c r="Z29" t="n">
         <v>2.292339313053484</v>
@@ -4670,28 +4670,28 @@
         <v>296.3069521563592</v>
       </c>
       <c r="R30" t="n">
-        <v>0.05397906665649423</v>
+        <v>0.1038028675601411</v>
       </c>
       <c r="S30" t="n">
-        <v>0.4784930261051164</v>
+        <v>0.9201520384433114</v>
       </c>
       <c r="T30" t="n">
-        <v>0.04782403089763312</v>
+        <v>0.08283365133744437</v>
       </c>
       <c r="U30" t="n">
-        <v>0.4239322145078242</v>
+        <v>0.7342721344927394</v>
       </c>
       <c r="V30" t="n">
-        <v>0.251789145097239</v>
+        <v>0.43611159210275</v>
       </c>
       <c r="W30" t="n">
-        <v>0.7793747947692121</v>
+        <v>0.6234998358153698</v>
       </c>
       <c r="X30" t="n">
         <v>0.3598173993901568</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.2841948449656555</v>
+        <v>0.5465125960953532</v>
       </c>
       <c r="Z30" t="n">
         <v>1.422152235494093</v>
@@ -4820,28 +4820,28 @@
         <v>264.2461340196743</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09847180617506125</v>
+        <v>0.1750947847867694</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8527980511516221</v>
+        <v>1.516378108953446</v>
       </c>
       <c r="T31" t="n">
-        <v>0.09546315865152941</v>
+        <v>0.1653470410354574</v>
       </c>
       <c r="U31" t="n">
-        <v>0.826742179483048</v>
+        <v>1.431959459624867</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5026459122037034</v>
+        <v>0.8706082581536194</v>
       </c>
       <c r="W31" t="n">
-        <v>0.7109907884866837</v>
+        <v>0.5687926307893471</v>
       </c>
       <c r="X31" t="n">
         <v>0.3348516321525572</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5184874619735511</v>
+        <v>0.9219334355206444</v>
       </c>
       <c r="Z31" t="n">
         <v>2.498153280108286</v>
@@ -4964,28 +4964,28 @@
         <v>267.4870722578276</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09925873133857618</v>
+        <v>0.1767630236832236</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8460331487101693</v>
+        <v>1.506642040307112</v>
       </c>
       <c r="T32" t="n">
-        <v>0.09621448365161432</v>
+        <v>0.1666483741086011</v>
       </c>
       <c r="U32" t="n">
-        <v>0.8200854620802777</v>
+        <v>1.420429686871641</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5065978538907085</v>
+        <v>0.8774532219440616</v>
       </c>
       <c r="W32" t="n">
-        <v>0.7293804577121787</v>
+        <v>0.5835043661697431</v>
       </c>
       <c r="X32" t="n">
         <v>0.3431249465522279</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.5226267227927219</v>
+        <v>0.9307098582932641</v>
       </c>
       <c r="Z32" t="n">
         <v>1.909909692855773</v>
@@ -5109,28 +5109,28 @@
         <v>277.3751454749433</v>
       </c>
       <c r="R33" t="n">
-        <v>0.04723102523065794</v>
+        <v>0.09113834156500951</v>
       </c>
       <c r="S33" t="n">
-        <v>0.4231331142458284</v>
+        <v>0.8164897989250212</v>
       </c>
       <c r="T33" t="n">
-        <v>0.04048975988998884</v>
+        <v>0.07013032131572511</v>
       </c>
       <c r="U33" t="n">
-        <v>0.3627394940856792</v>
+        <v>0.6282832336682267</v>
       </c>
       <c r="V33" t="n">
-        <v>0.2131853477881288</v>
+        <v>0.3692478537982805</v>
       </c>
       <c r="W33" t="n">
-        <v>0.7189201069669843</v>
+        <v>0.5751360855735874</v>
       </c>
       <c r="X33" t="n">
         <v>0.3499869310089186</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2486792356276054</v>
+        <v>0.4798585888422067</v>
       </c>
       <c r="Z33" t="n">
         <v>2.146171637580412</v>
@@ -5264,28 +5264,28 @@
         <v>315.1317766644796</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04438409927192122</v>
+        <v>0.08981119033382073</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4065417784609112</v>
+        <v>0.8226369723154777</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03642049993073456</v>
+        <v>0.06308215631709102</v>
       </c>
       <c r="U34" t="n">
-        <v>0.3335981817173735</v>
+        <v>0.5778090000470857</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1917407804419631</v>
+        <v>0.332104773608389</v>
       </c>
       <c r="W34" t="n">
-        <v>0.7976343188116977</v>
+        <v>0.6381074550493583</v>
       </c>
       <c r="X34" t="n">
         <v>0.3838211691085254</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.2336662552627432</v>
+        <v>0.4728234856682035</v>
       </c>
       <c r="Z34" t="n">
         <v>1.480664521061823</v>
@@ -5419,28 +5419,28 @@
         <v>290.2729283453409</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09635417727236384</v>
+        <v>0.1723491451452058</v>
       </c>
       <c r="S35" t="n">
-        <v>0.8582848736645433</v>
+        <v>1.535217968277671</v>
       </c>
       <c r="T35" t="n">
-        <v>0.09310953159415146</v>
+        <v>0.16127043939001</v>
       </c>
       <c r="U35" t="n">
-        <v>0.8293828542104323</v>
+        <v>1.43653324241896</v>
       </c>
       <c r="V35" t="n">
-        <v>0.49022095827025</v>
+        <v>0.8490876066591755</v>
       </c>
       <c r="W35" t="n">
-        <v>0.7546077342275084</v>
+        <v>0.6036861873820067</v>
       </c>
       <c r="X35" t="n">
         <v>0.366936579636771</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.5073039924815467</v>
+        <v>0.9074169061274524</v>
       </c>
       <c r="Z35" t="n">
         <v>1.809112109480945</v>
@@ -5558,28 +5558,28 @@
         <v>283.9109932904865</v>
       </c>
       <c r="R36" t="n">
-        <v>0.08576935313464268</v>
+        <v>0.1542152468251403</v>
       </c>
       <c r="S36" t="n">
-        <v>0.7675547898499949</v>
+        <v>1.380080961817654</v>
       </c>
       <c r="T36" t="n">
-        <v>0.0821820824875763</v>
+        <v>0.1423435423402986</v>
       </c>
       <c r="U36" t="n">
-        <v>0.735452102036532</v>
+        <v>1.273840407260604</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4326951678368026</v>
+        <v>0.7494500148828848</v>
       </c>
       <c r="W36" t="n">
-        <v>0.7343695249853751</v>
+        <v>0.5874956199883002</v>
       </c>
       <c r="X36" t="n">
         <v>0.3617455370614308</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.4515824316749156</v>
+        <v>0.8119554784716673</v>
       </c>
       <c r="Z36" t="n">
         <v>2.325997922194206</v>
@@ -5702,28 +5702,28 @@
         <v>308.8925094168035</v>
       </c>
       <c r="R37" t="n">
-        <v>0.04601641625055448</v>
+        <v>0.0901285589189766</v>
       </c>
       <c r="S37" t="n">
-        <v>0.440467041313477</v>
+        <v>0.8627064625966099</v>
       </c>
       <c r="T37" t="n">
-        <v>0.03876950340404173</v>
+        <v>0.0671507496800148</v>
       </c>
       <c r="U37" t="n">
-        <v>0.3710999214843304</v>
+        <v>0.6427639186956813</v>
       </c>
       <c r="V37" t="n">
-        <v>0.2041109543342139</v>
+        <v>0.3535305432882296</v>
       </c>
       <c r="W37" t="n">
-        <v>0.7444828846877302</v>
+        <v>0.5955863077501841</v>
       </c>
       <c r="X37" t="n">
         <v>0.3857476056231248</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2422639913144191</v>
+        <v>0.4745024970271334</v>
       </c>
       <c r="Z37" t="n">
         <v>1.913899110729765</v>
@@ -5857,28 +5857,28 @@
         <v>377.2114570502922</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07736242723216026</v>
+        <v>0.144029270962452</v>
       </c>
       <c r="S38" t="n">
-        <v>0.7628677312478804</v>
+        <v>1.420266750973085</v>
       </c>
       <c r="T38" t="n">
-        <v>0.07261398873108758</v>
+        <v>0.1257711178224777</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7160435733732485</v>
+        <v>1.24022384951564</v>
       </c>
       <c r="V38" t="n">
-        <v>0.3822149036686672</v>
+        <v>0.6620156325641758</v>
       </c>
       <c r="W38" t="n">
-        <v>0.8822343498527886</v>
+        <v>0.7057874798822309</v>
       </c>
       <c r="X38" t="n">
         <v>0.4413157068529845</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4072090404180657</v>
+        <v>0.7581202312167411</v>
       </c>
       <c r="Z38" t="n">
         <v>1.219423431934616</v>
@@ -6007,28 +6007,28 @@
         <v>385.5975527213724</v>
       </c>
       <c r="R39" t="n">
-        <v>0.06470289280375982</v>
+        <v>0.1243162510017289</v>
       </c>
       <c r="S39" t="n">
-        <v>0.6423787840647773</v>
+        <v>1.234228002760053</v>
       </c>
       <c r="T39" t="n">
-        <v>0.05885158217820452</v>
+        <v>0.1019339304384653</v>
       </c>
       <c r="U39" t="n">
-        <v>0.5842862067169666</v>
+        <v>1.012013396195478</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3097658118783452</v>
+        <v>0.5365301246211166</v>
       </c>
       <c r="W39" t="n">
-        <v>0.8954204923048926</v>
+        <v>0.7163363938439141</v>
       </c>
       <c r="X39" t="n">
         <v>0.4484821104354356</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.3405642359715005</v>
+        <v>0.6543396625194616</v>
       </c>
       <c r="Z39" t="n">
         <v>1.258881347841275</v>
@@ -6157,28 +6157,28 @@
         <v>372.8628471243722</v>
       </c>
       <c r="R40" t="n">
-        <v>0.04169231297573381</v>
+        <v>0.08716415724857159</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4311738188042931</v>
+        <v>0.9014348176269065</v>
       </c>
       <c r="T40" t="n">
-        <v>0.03255445720288133</v>
+        <v>0.05638597388821705</v>
       </c>
       <c r="U40" t="n">
-        <v>0.33667188576074</v>
+        <v>0.5831328116176263</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1713578077707511</v>
+        <v>0.2968004293325617</v>
       </c>
       <c r="W40" t="n">
-        <v>0.831130925153609</v>
+        <v>0.6649047401228873</v>
       </c>
       <c r="X40" t="n">
         <v>0.4347514501334363</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.2194569950249841</v>
+        <v>0.4588084147499861</v>
       </c>
       <c r="Z40" t="n">
         <v>1.302223015332145</v>
@@ -6307,28 +6307,28 @@
         <v>404.9089530971748</v>
       </c>
       <c r="R41" t="n">
-        <v>0.07403048488321697</v>
+        <v>0.1397393866044072</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7509786365939464</v>
+        <v>1.417541627563252</v>
       </c>
       <c r="T41" t="n">
-        <v>0.06882091578440135</v>
+        <v>0.119201322762002</v>
       </c>
       <c r="U41" t="n">
-        <v>0.6981318248346811</v>
+        <v>1.209199790994443</v>
       </c>
       <c r="V41" t="n">
-        <v>0.3622156527000355</v>
+        <v>0.6273759137731844</v>
       </c>
       <c r="W41" t="n">
-        <v>0.9190659594362971</v>
+        <v>0.7352527675490378</v>
       </c>
       <c r="X41" t="n">
         <v>0.4656191008841957</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.3896344606293704</v>
+        <v>0.7354710780859774</v>
       </c>
       <c r="Z41" t="n">
         <v>1.206768580603251</v>
@@ -6457,28 +6457,28 @@
         <v>382.0396659492999</v>
       </c>
       <c r="R42" t="n">
-        <v>0.08074881790575031</v>
+        <v>0.1495653012415626</v>
       </c>
       <c r="S42" t="n">
-        <v>0.801501182634099</v>
+        <v>1.484563724091384</v>
       </c>
       <c r="T42" t="n">
-        <v>0.07617575925137543</v>
+        <v>0.1319402853285171</v>
       </c>
       <c r="U42" t="n">
-        <v>0.7561096584632474</v>
+        <v>1.309620344551895</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4009564898847785</v>
+        <v>0.6944770121049129</v>
       </c>
       <c r="W42" t="n">
-        <v>0.8853564840964936</v>
+        <v>0.7082851872771949</v>
       </c>
       <c r="X42" t="n">
         <v>0.4520369448670143</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.4250271071535162</v>
+        <v>0.7872475283965565</v>
       </c>
       <c r="Z42" t="n">
         <v>1.30063214053304</v>
@@ -6591,28 +6591,28 @@
         <v>445.5341436142293</v>
       </c>
       <c r="R43" t="n">
-        <v>0.03316407383586407</v>
+        <v>0.08054887100912854</v>
       </c>
       <c r="S43" t="n">
-        <v>0.3639498627094521</v>
+        <v>0.8839610806037723</v>
       </c>
       <c r="T43" t="n">
-        <v>0.01832326989962269</v>
+        <v>0.03173683442694399</v>
       </c>
       <c r="U43" t="n">
-        <v>0.2010836062348961</v>
+        <v>0.3482870225680141</v>
       </c>
       <c r="V43" t="n">
-        <v>0.09642394740613273</v>
+        <v>0.1670111759737712</v>
       </c>
       <c r="W43" t="n">
-        <v>0.9331664718005268</v>
+        <v>0.7465331774404216</v>
       </c>
       <c r="X43" t="n">
         <v>0.4952071191030444</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1745218472925681</v>
+        <v>0.4238784968160904</v>
       </c>
       <c r="Z43" t="n">
         <v>1.101249100551098</v>
@@ -6741,28 +6741,28 @@
         <v>337.0345879482724</v>
       </c>
       <c r="R44" t="n">
-        <v>0.05809733241689945</v>
+        <v>0.1098709426977445</v>
       </c>
       <c r="S44" t="n">
-        <v>0.5830139874015356</v>
+        <v>1.102568633308624</v>
       </c>
       <c r="T44" t="n">
-        <v>0.05231572499985591</v>
+        <v>0.09061349373455176</v>
       </c>
       <c r="U44" t="n">
-        <v>0.524994834824741</v>
+        <v>0.9093177276276821</v>
       </c>
       <c r="V44" t="n">
-        <v>0.2754061295740945</v>
+        <v>0.4770174091382294</v>
       </c>
       <c r="W44" t="n">
-        <v>0.7715944184540892</v>
+        <v>0.6172755347632713</v>
       </c>
       <c r="X44" t="n">
         <v>0.4168206389919381</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.3058422961654821</v>
+        <v>0.5783945664735848</v>
       </c>
       <c r="Z44" t="n">
         <v>2.081212019701819</v>
@@ -6880,28 +6880,28 @@
         <v>310.2798095951699</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0568558171667671</v>
+        <v>0.1067268910666579</v>
       </c>
       <c r="S45" t="n">
-        <v>0.5505815501150764</v>
+        <v>1.033524097456652</v>
       </c>
       <c r="T45" t="n">
-        <v>0.05117390153133381</v>
+        <v>0.08863579747379695</v>
       </c>
       <c r="U45" t="n">
-        <v>0.4955588967777058</v>
+        <v>0.8583331873617674</v>
       </c>
       <c r="V45" t="n">
-        <v>0.2694157305617392</v>
+        <v>0.4666417336912196</v>
       </c>
       <c r="W45" t="n">
-        <v>0.7346120714347014</v>
+        <v>0.5876896571477612</v>
       </c>
       <c r="X45" t="n">
         <v>0.402080181824932</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.299329366342922</v>
+        <v>0.5618860877687969</v>
       </c>
       <c r="Z45" t="n">
         <v>1.932155784020845</v>
@@ -7027,28 +7027,28 @@
         <v>353.2034139422175</v>
       </c>
       <c r="R46" t="n">
-        <v>0.07013652515076534</v>
+        <v>0.1294145388119594</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7275928301762715</v>
+        <v>1.342540001201114</v>
       </c>
       <c r="T46" t="n">
-        <v>0.06534284673287913</v>
+        <v>0.1131771304525327</v>
       </c>
       <c r="U46" t="n">
-        <v>0.6778634482382975</v>
+        <v>1.174093932942567</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3439682170483104</v>
+        <v>0.595770428116553</v>
       </c>
       <c r="W46" t="n">
-        <v>0.7795557899259908</v>
+        <v>0.6236446319407926</v>
       </c>
       <c r="X46" t="n">
         <v>0.438086954274626</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.3692023949414753</v>
+        <v>0.6812450084590556</v>
       </c>
       <c r="Z46" t="n">
         <v>1.732996918768777</v>
@@ -7177,28 +7177,28 @@
         <v>513.0580779015858</v>
       </c>
       <c r="R47" t="n">
-        <v>0.0724065220709654</v>
+        <v>0.1397590621453766</v>
       </c>
       <c r="S47" t="n">
-        <v>0.842554396475881</v>
+        <v>1.626298417461924</v>
       </c>
       <c r="T47" t="n">
-        <v>0.06632541948809087</v>
+        <v>0.1148789963866923</v>
       </c>
       <c r="U47" t="n">
-        <v>0.7717919904097522</v>
+        <v>1.336782940264402</v>
       </c>
       <c r="V47" t="n">
-        <v>0.3489300543377507</v>
+        <v>0.6043645824007533</v>
       </c>
       <c r="W47" t="n">
-        <v>1.006627644151842</v>
+        <v>0.8053021153214734</v>
       </c>
       <c r="X47" t="n">
         <v>0.5671329528751325</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.380922003594202</v>
+        <v>0.735255615795021</v>
       </c>
       <c r="Z47" t="n">
         <v>1.007526740184383</v>
@@ -7321,28 +7321,28 @@
         <v>618.5008542055614</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03597382682581127</v>
+        <v>0.09242590072726238</v>
       </c>
       <c r="S48" t="n">
-        <v>0.4604547707874415</v>
+        <v>1.183025290588741</v>
       </c>
       <c r="T48" t="n">
-        <v>0.01849807752632779</v>
+        <v>0.03203961011794775</v>
       </c>
       <c r="U48" t="n">
-        <v>0.2367701409315243</v>
+        <v>0.4100979138086435</v>
       </c>
       <c r="V48" t="n">
-        <v>0.09726235839645561</v>
+        <v>0.1684633464066345</v>
       </c>
       <c r="W48" t="n">
-        <v>1.099915387680261</v>
+        <v>0.8799323101442086</v>
       </c>
       <c r="X48" t="n">
         <v>0.6495667435386698</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.189149344446427</v>
+        <v>0.4859727216980054</v>
       </c>
       <c r="Z48" t="n">
         <v>0.7940434459215121</v>
@@ -7476,28 +7476,28 @@
         <v>587.1219162039769</v>
       </c>
       <c r="R49" t="n">
-        <v>0.07042937457416781</v>
+        <v>0.1375840567389913</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9064552235095198</v>
+        <v>1.77076379929166</v>
       </c>
       <c r="T49" t="n">
-        <v>0.06376283692419678</v>
+        <v>0.1104404731874376</v>
       </c>
       <c r="U49" t="n">
-        <v>0.8206541225899674</v>
+        <v>1.421414635766681</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3353235550290206</v>
+        <v>0.5807974342848817</v>
       </c>
       <c r="W49" t="n">
-        <v>1.037458746038659</v>
+        <v>0.8299669968309273</v>
       </c>
       <c r="X49" t="n">
         <v>0.6307122245851906</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.3703823324040088</v>
+        <v>0.7235433247093437</v>
       </c>
       <c r="Z49" t="n">
         <v>0.9254049094633293</v>
@@ -7620,28 +7620,28 @@
         <v>658.5484268094187</v>
       </c>
       <c r="R50" t="n">
-        <v>0.06491964735182411</v>
+        <v>0.1302166522794533</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9086312583242271</v>
+        <v>1.822544105549942</v>
       </c>
       <c r="T50" t="n">
-        <v>0.05720109445360286</v>
+        <v>0.09907520184218649</v>
       </c>
       <c r="U50" t="n">
-        <v>0.8006005046396751</v>
+        <v>1.3866807506012</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3006860768085487</v>
+        <v>0.5208035621609644</v>
       </c>
       <c r="W50" t="n">
-        <v>1.068526076695435</v>
+        <v>0.8548208613563484</v>
       </c>
       <c r="X50" t="n">
         <v>0.6803421746847327</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.3412598002971422</v>
+        <v>0.6845032369233905</v>
       </c>
       <c r="Z50" t="n">
         <v>0.9333216318146712</v>
@@ -7770,28 +7770,28 @@
         <v>629.1192635044721</v>
       </c>
       <c r="R51" t="n">
-        <v>0.06509955015194789</v>
+        <v>0.1294217880119921</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8937733752542706</v>
+        <v>1.776874771529581</v>
       </c>
       <c r="T51" t="n">
-        <v>0.05765280267204263</v>
+        <v>0.09985758342672059</v>
       </c>
       <c r="U51" t="n">
-        <v>0.7915345024164986</v>
+        <v>1.370977974129126</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3031173019513504</v>
+        <v>0.5250145676329359</v>
       </c>
       <c r="W51" t="n">
-        <v>1.039572669543787</v>
+        <v>0.8316581356350299</v>
       </c>
       <c r="X51" t="n">
         <v>0.6679256467534116</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.3422695703547129</v>
+        <v>0.6804523176275408</v>
       </c>
       <c r="Z51" t="n">
         <v>0.9234073075493245</v>
@@ -7920,28 +7920,28 @@
         <v>744.8250719255465</v>
       </c>
       <c r="R52" t="n">
-        <v>0.03816410416149966</v>
+        <v>0.09643209795178394</v>
       </c>
       <c r="S52" t="n">
-        <v>0.5682507800699519</v>
+        <v>1.435841770397525</v>
       </c>
       <c r="T52" t="n">
-        <v>0.02067100788030379</v>
+        <v>0.03580323589234279</v>
       </c>
       <c r="U52" t="n">
-        <v>0.3077844118417577</v>
+        <v>0.5330982390876282</v>
       </c>
       <c r="V52" t="n">
-        <v>0.1085911731050552</v>
+        <v>0.1880854290714625</v>
       </c>
       <c r="W52" t="n">
-        <v>1.133876753704462</v>
+        <v>0.9071014029635696</v>
       </c>
       <c r="X52" t="n">
         <v>0.7447515781791074</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.2004877974696926</v>
+        <v>0.5065875211408369</v>
       </c>
       <c r="Z52" t="n">
         <v>0.7387211964130875</v>
@@ -8075,28 +8075,28 @@
         <v>711.4270805998441</v>
       </c>
       <c r="R53" t="n">
-        <v>0.0485934178715254</v>
+        <v>0.1075267052939744</v>
       </c>
       <c r="S53" t="n">
-        <v>0.7181866415369055</v>
+        <v>1.589191432361864</v>
       </c>
       <c r="T53" t="n">
-        <v>0.03708393275579205</v>
+        <v>0.06423125567749957</v>
       </c>
       <c r="U53" t="n">
-        <v>0.5480821536628143</v>
+        <v>0.9493061368657671</v>
       </c>
       <c r="V53" t="n">
-        <v>0.1948644762375968</v>
+        <v>0.3375151734338158</v>
       </c>
       <c r="W53" t="n">
-        <v>1.089655112742562</v>
+        <v>0.8717240901940497</v>
       </c>
       <c r="X53" t="n">
         <v>0.7317455113260067</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.2553432232898899</v>
+        <v>0.5650192293963784</v>
       </c>
       <c r="Z53" t="n">
         <v>0.8087012339381878</v>
@@ -8225,28 +8225,28 @@
         <v>904.1628817043562</v>
       </c>
       <c r="R54" t="n">
-        <v>0.06226499370680322</v>
+        <v>0.1371493638513893</v>
       </c>
       <c r="S54" t="n">
-        <v>0.9532128040208352</v>
+        <v>2.099615239697236</v>
       </c>
       <c r="T54" t="n">
-        <v>0.05094231472623591</v>
+        <v>0.08823467736100483</v>
       </c>
       <c r="U54" t="n">
-        <v>0.7798742724068011</v>
+        <v>1.350781863324391</v>
       </c>
       <c r="V54" t="n">
-        <v>0.2671866690514005</v>
+        <v>0.4627808859021166</v>
       </c>
       <c r="W54" t="n">
-        <v>1.336693767101847</v>
+        <v>1.069355013681478</v>
       </c>
       <c r="X54" t="n">
         <v>0.859860440948725</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.3265728374619623</v>
+        <v>0.7193328745837086</v>
       </c>
       <c r="Z54" t="n">
         <v>0.4010475516097816</v>
@@ -8372,28 +8372,28 @@
         <v>785.7308120243068</v>
       </c>
       <c r="R55" t="n">
-        <v>0.06414921381509445</v>
+        <v>0.1328834136456108</v>
       </c>
       <c r="S55" t="n">
-        <v>0.9715889119731532</v>
+        <v>2.012620944277857</v>
       </c>
       <c r="T55" t="n">
-        <v>0.05503094247239907</v>
+        <v>0.09531638835059519</v>
       </c>
       <c r="U55" t="n">
-        <v>0.8334857177787328</v>
+        <v>1.443639610575779</v>
       </c>
       <c r="V55" t="n">
-        <v>0.2889924730033903</v>
+        <v>0.5005496462468488</v>
       </c>
       <c r="W55" t="n">
-        <v>1.173169906718203</v>
+        <v>0.9385359253745623</v>
       </c>
       <c r="X55" t="n">
         <v>0.7877789284343752</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.3368766571814666</v>
+        <v>0.6978311583494744</v>
       </c>
       <c r="Z55" t="n">
         <v>0.6482746826574618</v>
@@ -8522,28 +8522,28 @@
         <v>720.4235374552807</v>
       </c>
       <c r="R56" t="n">
-        <v>0.05426706707559491</v>
+        <v>0.1160413347063509</v>
       </c>
       <c r="S56" t="n">
-        <v>0.7994076233898318</v>
+        <v>1.709403743219913</v>
       </c>
       <c r="T56" t="n">
-        <v>0.0440224247792864</v>
+        <v>0.07624907639010314</v>
       </c>
       <c r="U56" t="n">
-        <v>0.6484938999862319</v>
+        <v>1.123224383174644</v>
       </c>
       <c r="V56" t="n">
-        <v>0.231308221615846</v>
+        <v>0.4006375920470468</v>
       </c>
       <c r="W56" t="n">
-        <v>1.105885382072909</v>
+        <v>0.8847083056583271</v>
       </c>
       <c r="X56" t="n">
         <v>0.7463073840899519</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.2851369237495955</v>
+        <v>0.6097191351777758</v>
       </c>
       <c r="Z56" t="n">
         <v>0.7632154238682607</v>
@@ -8677,28 +8677,28 @@
         <v>825.3872499014032</v>
       </c>
       <c r="R57" t="n">
-        <v>0.07592915714145231</v>
+        <v>0.151424188943259</v>
       </c>
       <c r="S57" t="n">
-        <v>1.176253721254392</v>
+        <v>2.345782205913604</v>
       </c>
       <c r="T57" t="n">
-        <v>0.06807961188627118</v>
+        <v>0.1179173467465918</v>
       </c>
       <c r="U57" t="n">
-        <v>1.054652782113703</v>
+        <v>1.826712202964803</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3573816737164405</v>
+        <v>0.6190032165708776</v>
       </c>
       <c r="W57" t="n">
-        <v>1.204283173954831</v>
+        <v>0.9634265391638646</v>
       </c>
       <c r="X57" t="n">
         <v>0.815318117015248</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.3985876022387104</v>
+        <v>0.7948962778474566</v>
       </c>
       <c r="Z57" t="n">
         <v>0.5924990513966264</v>
@@ -8827,28 +8827,28 @@
         <v>942.2558822683638</v>
       </c>
       <c r="R58" t="n">
-        <v>0.1869764357998634</v>
+        <v>0.3329723515489109</v>
       </c>
       <c r="S58" t="n">
-        <v>3.195893511237676</v>
+        <v>5.691327750389669</v>
       </c>
       <c r="T58" t="n">
-        <v>0.1836861907000023</v>
+        <v>0.3181538149411897</v>
       </c>
       <c r="U58" t="n">
-        <v>3.139655018295801</v>
+        <v>5.438042009926919</v>
       </c>
       <c r="V58" t="n">
-        <v>0.9629433853613644</v>
+        <v>1.66786686825826</v>
       </c>
       <c r="W58" t="n">
-        <v>1.242713228623314</v>
+        <v>0.9941705828986513</v>
       </c>
       <c r="X58" t="n">
         <v>0.898493054617561</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.9801919316078453</v>
+        <v>1.745550507691151</v>
       </c>
       <c r="Z58" t="n">
         <v>0.5432197344943213</v>
@@ -8977,28 +8977,28 @@
         <v>1075.230485536771</v>
       </c>
       <c r="R59" t="n">
-        <v>0.3269057472831667</v>
+        <v>0.5721512898792465</v>
       </c>
       <c r="S59" t="n">
-        <v>6.024879354419458</v>
+        <v>10.54475952976137</v>
       </c>
       <c r="T59" t="n">
-        <v>0.3248362798694801</v>
+        <v>0.562632940875603</v>
       </c>
       <c r="U59" t="n">
-        <v>5.986739029267683</v>
+        <v>10.36933617034721</v>
       </c>
       <c r="V59" t="n">
-        <v>1.699298293018758</v>
+        <v>2.943270980723555</v>
       </c>
       <c r="W59" t="n">
-        <v>1.313206778491009</v>
+        <v>1.050565422792807</v>
       </c>
       <c r="X59" t="n">
         <v>0.9831031826595126</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.710124184895578</v>
+        <v>2.993063800111669</v>
       </c>
       <c r="Z59" t="n">
         <v>0.4640608572031384</v>
@@ -9116,28 +9116,28 @@
         <v>955.1013613784679</v>
       </c>
       <c r="R60" t="n">
-        <v>2.041011835929973</v>
+        <v>3.535946462616593</v>
       </c>
       <c r="S60" t="n">
-        <v>35.71169791451638</v>
+        <v>61.86865244577595</v>
       </c>
       <c r="T60" t="n">
-        <v>2.040710147773183</v>
+        <v>3.534613659464544</v>
       </c>
       <c r="U60" t="n">
-        <v>35.70641926001276</v>
+        <v>61.84533231469801</v>
       </c>
       <c r="V60" t="n">
-        <v>10.69619875496007</v>
+        <v>18.5263596914458</v>
       </c>
       <c r="W60" t="n">
-        <v>1.224910370716343</v>
+        <v>0.9799282965730746</v>
       </c>
       <c r="X60" t="n">
         <v>0.9394483227928602</v>
       </c>
       <c r="Y60" t="n">
-        <v>10.69778002630846</v>
+        <v>18.53334545933211</v>
       </c>
       <c r="Z60" t="n">
         <v>0.5213404410367096</v>

--- a/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
@@ -768,10 +768,10 @@
         <v>143.5781541528725</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1331860593948067</v>
+        <v>0.1741301656529014</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7902558828894091</v>
+        <v>1.033196630495687</v>
       </c>
       <c r="T2" t="n">
         <v>0.131288462428179</v>
@@ -789,7 +789,7 @@
         <v>0.1988137208558769</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.701448610588433</v>
+        <v>0.917088194618694</v>
       </c>
       <c r="Z2" t="n">
         <v>2.18165867208891</v>
@@ -918,10 +918,10 @@
         <v>162.3410153010406</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2796749730904869</v>
+        <v>0.3042969305847036</v>
       </c>
       <c r="S3" t="n">
-        <v>1.743539432563141</v>
+        <v>1.897036734533635</v>
       </c>
       <c r="T3" t="n">
         <v>0.2787384905747264</v>
@@ -939,7 +939,7 @@
         <v>0.2181922833845763</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.472907949057171</v>
+        <v>1.602579462077559</v>
       </c>
       <c r="Z3" t="n">
         <v>1.503293615987327</v>
@@ -1052,10 +1052,10 @@
         <v>142.4049296620252</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1795027857024258</v>
+        <v>0.2110671164063297</v>
       </c>
       <c r="S4" t="n">
-        <v>1.059534344419636</v>
+        <v>1.245846174113728</v>
       </c>
       <c r="T4" t="n">
         <v>0.1781054111092341</v>
@@ -1073,7 +1073,7 @@
         <v>0.2017290603468786</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9453860781932882</v>
+        <v>1.111625720091818</v>
       </c>
       <c r="Z4" t="n">
         <v>2.316179518923088</v>
@@ -1196,10 +1196,10 @@
         <v>145.0425974091273</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2742589643225232</v>
+        <v>0.2953618114275541</v>
       </c>
       <c r="S5" t="n">
-        <v>1.65695721791391</v>
+        <v>1.784451737247451</v>
       </c>
       <c r="T5" t="n">
         <v>0.2733504544860419</v>
@@ -1217,7 +1217,7 @@
         <v>0.2078110343630772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.444430895787001</v>
+        <v>1.555572584164888</v>
       </c>
       <c r="Z5" t="n">
         <v>2.611695147552031</v>
@@ -1322,10 +1322,10 @@
         <v>145.0425974091273</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2694583973180821</v>
+        <v>0.2909096904947178</v>
       </c>
       <c r="S6" t="n">
-        <v>1.627954212787946</v>
+        <v>1.757553896613831</v>
       </c>
       <c r="T6" t="n">
         <v>0.2685336465728123</v>
@@ -1343,7 +1343,7 @@
         <v>0.2078110343630772</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.419147903431076</v>
+        <v>1.53212474156454</v>
       </c>
       <c r="Z6" t="n">
         <v>2.611695147552031</v>
@@ -1448,10 +1448,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3496972361196245</v>
+        <v>0.3668414081036985</v>
       </c>
       <c r="S7" t="n">
-        <v>2.161818741545839</v>
+        <v>2.267803543469689</v>
       </c>
       <c r="T7" t="n">
         <v>0.3489798677993382</v>
@@ -1469,7 +1469,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.841720608447501</v>
+        <v>1.932012356841635</v>
       </c>
       <c r="Z7" t="n">
         <v>2.559518810463633</v>
@@ -1574,10 +1574,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2222245508275194</v>
+        <v>0.2483308533797051</v>
       </c>
       <c r="S8" t="n">
-        <v>1.373786090337297</v>
+        <v>1.535174538115806</v>
       </c>
       <c r="T8" t="n">
         <v>0.2210939668331814</v>
@@ -1595,7 +1595,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.170371088726668</v>
+        <v>1.307862925820509</v>
       </c>
       <c r="Z8" t="n">
         <v>2.559518810463633</v>
@@ -1705,10 +1705,10 @@
         <v>150.5728123085102</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2048263828347937</v>
+        <v>0.2328911953144328</v>
       </c>
       <c r="S9" t="n">
-        <v>1.266231092040509</v>
+        <v>1.439726994580897</v>
       </c>
       <c r="T9" t="n">
         <v>0.2035992099314843</v>
@@ -1726,7 +1726,7 @@
         <v>0.2145593731022121</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.078741641216612</v>
+        <v>1.226548195507721</v>
       </c>
       <c r="Z9" t="n">
         <v>2.559518810463633</v>
@@ -1836,10 +1836,10 @@
         <v>165.5178282429962</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3539379187729373</v>
+        <v>0.3725910033901808</v>
       </c>
       <c r="S10" t="n">
-        <v>2.282167123690875</v>
+        <v>2.402440918079677</v>
       </c>
       <c r="T10" t="n">
         <v>0.3532076040915919</v>
@@ -1857,7 +1857,7 @@
         <v>0.2295801628884507</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.864002402620996</v>
+        <v>1.962238258963758</v>
       </c>
       <c r="Z10" t="n">
         <v>2.307938833619113</v>
@@ -1970,10 +1970,10 @@
         <v>175.335012884862</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1762615805093631</v>
+        <v>0.2111408538985374</v>
       </c>
       <c r="S11" t="n">
-        <v>1.205326888273188</v>
+        <v>1.443841293612757</v>
       </c>
       <c r="T11" t="n">
         <v>0.1747883203706033</v>
@@ -1991,7 +1991,7 @@
         <v>0.2363397579616506</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9282581817843557</v>
+        <v>1.111945238286578</v>
       </c>
       <c r="Z11" t="n">
         <v>1.750852676309812</v>
@@ -2109,10 +2109,10 @@
         <v>192.4198323261162</v>
       </c>
       <c r="R12" t="n">
-        <v>0.118073181513614</v>
+        <v>0.1700863392044491</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8408621631098551</v>
+        <v>1.211275628093407</v>
       </c>
       <c r="T12" t="n">
         <v>0.1157871740974524</v>
@@ -2130,7 +2130,7 @@
         <v>0.2505004184883252</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.6217954504022327</v>
+        <v>0.8957064638823445</v>
       </c>
       <c r="Z12" t="n">
         <v>1.615091729727736</v>
@@ -2254,10 +2254,10 @@
         <v>159.4294446065069</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1728038742996586</v>
+        <v>0.2071103462999109</v>
       </c>
       <c r="S13" t="n">
-        <v>1.0925362451314</v>
+        <v>1.309435688241485</v>
       </c>
       <c r="T13" t="n">
         <v>0.1713202038817699</v>
@@ -2275,7 +2275,7 @@
         <v>0.2257669438705284</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9100764256284282</v>
+        <v>1.090752417647972</v>
       </c>
       <c r="Z13" t="n">
         <v>2.574200330803404</v>
@@ -2404,10 +2404,10 @@
         <v>181.41725770758</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1616633539629952</v>
+        <v>0.2001171655777953</v>
       </c>
       <c r="S14" t="n">
-        <v>1.1181380300198</v>
+        <v>1.384102258224339</v>
       </c>
       <c r="T14" t="n">
         <v>0.1600367853530703</v>
@@ -2425,7 +2425,7 @@
         <v>0.2479913943179192</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.8513683409511973</v>
+        <v>1.053877796527852</v>
       </c>
       <c r="Z14" t="n">
         <v>2.304468294889742</v>
@@ -2535,10 +2535,10 @@
         <v>179.917929391643</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2813225448881114</v>
+        <v>0.3050260541150525</v>
       </c>
       <c r="S15" t="n">
-        <v>1.928498791447363</v>
+        <v>2.090989106311385</v>
       </c>
       <c r="T15" t="n">
         <v>0.2803912485433003</v>
@@ -2556,7 +2556,7 @@
         <v>0.2479437674873561</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.481534406979877</v>
+        <v>1.606364660096794</v>
       </c>
       <c r="Z15" t="n">
         <v>2.396834518088147</v>
@@ -2654,10 +2654,10 @@
         <v>234.171035481181</v>
       </c>
       <c r="R16" t="n">
-        <v>0.09273171207046728</v>
+        <v>0.1663475885730508</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7050657275740375</v>
+        <v>1.264788290313442</v>
       </c>
       <c r="T16" t="n">
         <v>0.08952551359744998</v>
@@ -2675,7 +2675,7 @@
         <v>0.2934333863422879</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4882985724405338</v>
+        <v>0.8759386429468804</v>
       </c>
       <c r="Z16" t="n">
         <v>1.510834341188195</v>
@@ -2783,10 +2783,10 @@
         <v>215.5845503710325</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2039887089833884</v>
+        <v>0.2415868559192717</v>
       </c>
       <c r="S17" t="n">
-        <v>1.517865485656713</v>
+        <v>1.79763062483054</v>
       </c>
       <c r="T17" t="n">
         <v>0.2026150728216341</v>
@@ -2804,7 +2804,7 @@
         <v>0.2820361089135931</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.074190283232273</v>
+        <v>1.27217949698505</v>
       </c>
       <c r="Z17" t="n">
         <v>1.590058442293054</v>
@@ -2902,10 +2902,10 @@
         <v>135.8414770002599</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3597223866285498</v>
+        <v>0.3744265754002669</v>
       </c>
       <c r="S18" t="n">
-        <v>2.099223907159651</v>
+        <v>2.185032813561829</v>
       </c>
       <c r="T18" t="n">
         <v>0.359045797534723</v>
@@ -2923,7 +2923,7 @@
         <v>0.2156321914866056</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.894569637504026</v>
+        <v>1.972012995567223</v>
       </c>
       <c r="Z18" t="n">
         <v>1.993796742483795</v>
@@ -3033,10 +3033,10 @@
         <v>249.3908228905306</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07191475494241074</v>
+        <v>0.1561929837611643</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5761162700503707</v>
+        <v>1.251277561671179</v>
       </c>
       <c r="T19" t="n">
         <v>0.06769024652281308</v>
@@ -3054,7 +3054,7 @@
         <v>0.3110687551322458</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3786691069877408</v>
+        <v>0.8224384234633685</v>
       </c>
       <c r="Z19" t="n">
         <v>1.905410952608699</v>
@@ -3188,10 +3188,10 @@
         <v>220.9488316052588</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1566662569553935</v>
+        <v>0.2035209434707107</v>
       </c>
       <c r="S20" t="n">
-        <v>1.184954404382703</v>
+        <v>1.539342568313268</v>
       </c>
       <c r="T20" t="n">
         <v>0.1548633999515385</v>
@@ -3209,7 +3209,7 @@
         <v>0.2910348595471279</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8249839003148582</v>
+        <v>1.071714515960078</v>
       </c>
       <c r="Z20" t="n">
         <v>2.023241853551796</v>
@@ -3319,10 +3319,10 @@
         <v>232.0943657408344</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07799499485754577</v>
+        <v>0.1538103265864961</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6056323786844908</v>
+        <v>1.194339638421116</v>
       </c>
       <c r="T21" t="n">
         <v>0.07424266905483243</v>
@@ -3340,7 +3340,7 @@
         <v>0.3028590455488905</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.410701182841726</v>
+        <v>0.809924831429547</v>
       </c>
       <c r="Z21" t="n">
         <v>1.996487126693565</v>
@@ -3453,10 +3453,10 @@
         <v>239.4746791302238</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1579745895846015</v>
+        <v>0.207865232781946</v>
       </c>
       <c r="S22" t="n">
-        <v>1.241545346976267</v>
+        <v>1.633643190573729</v>
       </c>
       <c r="T22" t="n">
         <v>0.1561296394692667</v>
@@ -3474,7 +3474,7 @@
         <v>0.3092180413186166</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.8318387453394831</v>
+        <v>1.094545362590946</v>
       </c>
       <c r="Z22" t="n">
         <v>1.820708158970962</v>
@@ -3592,10 +3592,10 @@
         <v>226.0852723728449</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1159900939906815</v>
+        <v>0.174288301537618</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8936552115002135</v>
+        <v>1.342818542634564</v>
       </c>
       <c r="T23" t="n">
         <v>0.113534169744758</v>
@@ -3613,7 +3613,7 @@
         <v>0.2984421972148861</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.6107816390066209</v>
+        <v>0.9177688439616123</v>
       </c>
       <c r="Z23" t="n">
         <v>2.073214546309858</v>
@@ -3726,10 +3726,10 @@
         <v>241.8963545075621</v>
       </c>
       <c r="R24" t="n">
-        <v>0.143430135956279</v>
+        <v>0.1978794570313649</v>
       </c>
       <c r="S24" t="n">
-        <v>1.128211929288773</v>
+        <v>1.556506674803845</v>
       </c>
       <c r="T24" t="n">
         <v>0.1413817863485376</v>
@@ -3747,7 +3747,7 @@
         <v>0.3115801643514664</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.7552485338186293</v>
+        <v>1.041957945583488</v>
       </c>
       <c r="Z24" t="n">
         <v>1.814735350443754</v>
@@ -3865,10 +3865,10 @@
         <v>229.936910321767</v>
       </c>
       <c r="R25" t="n">
-        <v>0.2123283138034584</v>
+        <v>0.249543116361957</v>
       </c>
       <c r="S25" t="n">
-        <v>1.650127957691832</v>
+        <v>1.939346032482382</v>
       </c>
       <c r="T25" t="n">
         <v>0.2109885196755582</v>
@@ -3886,7 +3886,7 @@
         <v>0.3020079382929376</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.118070637404254</v>
+        <v>1.314034978061944</v>
       </c>
       <c r="Z25" t="n">
         <v>2.013975905790975</v>
@@ -3996,10 +3996,10 @@
         <v>266.2960638713244</v>
       </c>
       <c r="R26" t="n">
-        <v>0.1139894932824745</v>
+        <v>0.1797220627695864</v>
       </c>
       <c r="S26" t="n">
-        <v>0.9663749523476942</v>
+        <v>1.523639546448364</v>
       </c>
       <c r="T26" t="n">
         <v>0.1113478154113415</v>
@@ -4017,7 +4017,7 @@
         <v>0.3311278931814672</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.6001903259570932</v>
+        <v>0.9462928584835055</v>
       </c>
       <c r="Z26" t="n">
         <v>1.935952327392637</v>
@@ -4135,10 +4135,10 @@
         <v>259.9975098515255</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1185138923157277</v>
+        <v>0.1784901328692501</v>
       </c>
       <c r="S27" t="n">
-        <v>1.018507941129634</v>
+        <v>1.533943525003013</v>
       </c>
       <c r="T27" t="n">
         <v>0.11604287537474</v>
@@ -4156,7 +4156,7 @@
         <v>0.3286934536753789</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.6240223053026807</v>
+        <v>0.9398208261536444</v>
       </c>
       <c r="Z27" t="n">
         <v>2.352706598759871</v>
@@ -4259,10 +4259,10 @@
         <v>258.3562183250229</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1392279782679628</v>
+        <v>0.1922481249474693</v>
       </c>
       <c r="S28" t="n">
-        <v>1.195614194869303</v>
+        <v>1.650922393499214</v>
       </c>
       <c r="T28" t="n">
         <v>0.1371391851798975</v>
@@ -4280,7 +4280,7 @@
         <v>0.3290730038464346</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7330930342825158</v>
+        <v>1.012266090523952</v>
       </c>
       <c r="Z28" t="n">
         <v>2.27522012942171</v>
@@ -4378,10 +4378,10 @@
         <v>287.9302939885354</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03077143660308182</v>
+        <v>0.1493590408051323</v>
       </c>
       <c r="S29" t="n">
-        <v>0.2670928632313241</v>
+        <v>1.296420910492415</v>
       </c>
       <c r="T29" t="n">
         <v>0.01802962316473172</v>
@@ -4399,7 +4399,7 @@
         <v>0.3543630846710932</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.1620123638769047</v>
+        <v>0.7863789909894255</v>
       </c>
       <c r="Z29" t="n">
         <v>1.594096148262637</v>
@@ -4530,10 +4530,10 @@
         <v>264.2461340196743</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1289391824338775</v>
+        <v>0.1862167924116531</v>
       </c>
       <c r="S30" t="n">
-        <v>1.116655495291831</v>
+        <v>1.612698332942558</v>
       </c>
       <c r="T30" t="n">
         <v>0.1266563492883992</v>
@@ -4551,7 +4551,7 @@
         <v>0.3348516321525572</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.6789085327655636</v>
+        <v>0.9804945783438466</v>
       </c>
       <c r="Z30" t="n">
         <v>2.498153280108286</v>
@@ -4674,10 +4674,10 @@
         <v>256.0867185369772</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1065062790961208</v>
+        <v>0.1683124962027852</v>
       </c>
       <c r="S31" t="n">
-        <v>0.9180746601776205</v>
+        <v>1.450838758676033</v>
       </c>
       <c r="T31" t="n">
         <v>0.1037837862710735</v>
@@ -4695,7 +4695,7 @@
         <v>0.3340786653477668</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5608027843910623</v>
+        <v>0.8862399223725199</v>
       </c>
       <c r="Z31" t="n">
         <v>2.197865812934542</v>
@@ -4793,10 +4793,10 @@
         <v>315.1317766644796</v>
       </c>
       <c r="R32" t="n">
-        <v>0.05428703238891362</v>
+        <v>0.1602253898590378</v>
       </c>
       <c r="S32" t="n">
-        <v>0.4972489485376618</v>
+        <v>1.467604750719693</v>
       </c>
       <c r="T32" t="n">
         <v>0.04799569181311834</v>
@@ -4814,7 +4814,7 @@
         <v>0.3838211691085254</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.2858016221063577</v>
+        <v>0.8435288191160776</v>
       </c>
       <c r="Z32" t="n">
         <v>1.480664521061823</v>
@@ -4948,10 +4948,10 @@
         <v>290.2729283453408</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1249896477032596</v>
+        <v>0.189629095973542</v>
       </c>
       <c r="S33" t="n">
-        <v>1.113358310196863</v>
+        <v>1.689140930763304</v>
       </c>
       <c r="T33" t="n">
         <v>0.1225057934500778</v>
@@ -4969,7 +4969,7 @@
         <v>0.366936579636771</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.6580695211531022</v>
+        <v>0.9983957125814831</v>
       </c>
       <c r="Z33" t="n">
         <v>1.809112109480945</v>
@@ -5087,10 +5087,10 @@
         <v>306.6923650057882</v>
       </c>
       <c r="R34" t="n">
-        <v>0.09938530847585811</v>
+        <v>0.1731358171873843</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9396839689860219</v>
+        <v>1.63699196957063</v>
       </c>
       <c r="T34" t="n">
         <v>0.0962377864508145</v>
@@ -5108,7 +5108,7 @@
         <v>0.3793989623825361</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.5232399282539607</v>
+        <v>0.9115187541559383</v>
       </c>
       <c r="Z34" t="n">
         <v>2.031505293514654</v>
@@ -5231,10 +5231,10 @@
         <v>308.8925094168035</v>
       </c>
       <c r="R35" t="n">
-        <v>0.05654222928206031</v>
+        <v>0.1516367667795676</v>
       </c>
       <c r="S35" t="n">
-        <v>0.5412196444315075</v>
+        <v>1.451460227890586</v>
       </c>
       <c r="T35" t="n">
         <v>0.05081916490692056</v>
@@ -5252,7 +5252,7 @@
         <v>0.3857476056231248</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.2976795513388528</v>
+        <v>0.7983265830613029</v>
       </c>
       <c r="Z35" t="n">
         <v>1.913899110729765</v>
@@ -5386,10 +5386,10 @@
         <v>330.8903677032696</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1006444529315732</v>
+        <v>0.1832270799218887</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9481211214084003</v>
+        <v>1.726090802103506</v>
       </c>
       <c r="T36" t="n">
         <v>0.09732426197563739</v>
@@ -5407,7 +5407,7 @@
         <v>0.4066497606715624</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.5298329813820044</v>
+        <v>0.9645812282464914</v>
       </c>
       <c r="Z36" t="n">
         <v>1.584149407239855</v>
@@ -5520,10 +5520,10 @@
         <v>372.8628471243722</v>
       </c>
       <c r="R37" t="n">
-        <v>0.04997984880535567</v>
+        <v>0.1648647165249791</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5168819078281685</v>
+        <v>1.704998939529603</v>
       </c>
       <c r="T37" t="n">
         <v>0.04265593755989783</v>
@@ -5541,7 +5541,7 @@
         <v>0.4347514501334363</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2630803293885459</v>
+        <v>0.8678030239117704</v>
       </c>
       <c r="Z37" t="n">
         <v>1.302223015332145</v>
@@ -5670,10 +5670,10 @@
         <v>382.0396659492999</v>
       </c>
       <c r="R38" t="n">
-        <v>0.1032399748025274</v>
+        <v>0.1966426514495728</v>
       </c>
       <c r="S38" t="n">
-        <v>1.024745179501231</v>
+        <v>1.951846748730099</v>
       </c>
       <c r="T38" t="n">
         <v>0.0997038971233019</v>
@@ -5691,7 +5691,7 @@
         <v>0.4520369448670143</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.5434109002578393</v>
+        <v>1.035042486766327</v>
       </c>
       <c r="Z38" t="n">
         <v>1.30063214053304</v>
@@ -5804,10 +5804,10 @@
         <v>445.5341436142293</v>
       </c>
       <c r="R39" t="n">
-        <v>0.03659032067400851</v>
+        <v>0.1801932355186417</v>
       </c>
       <c r="S39" t="n">
-        <v>0.4015502513867581</v>
+        <v>1.977480319599974</v>
       </c>
       <c r="T39" t="n">
         <v>0.02397369377986108</v>
@@ -5825,7 +5825,7 @@
         <v>0.4952071191030444</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1925520486011496</v>
+        <v>0.9482446724723617</v>
       </c>
       <c r="Z39" t="n">
         <v>1.101249100551098</v>
@@ -5954,10 +5954,10 @@
         <v>371.5540136767427</v>
       </c>
       <c r="R40" t="n">
-        <v>0.08285903101164387</v>
+        <v>0.1817151190793227</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8269642916723454</v>
+        <v>1.813585229043661</v>
       </c>
       <c r="T40" t="n">
         <v>0.07854205309077238</v>
@@ -5975,7 +5975,7 @@
         <v>0.4455776071516932</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4361492364613019</v>
+        <v>0.9565029843130046</v>
       </c>
       <c r="Z40" t="n">
         <v>1.420933006631047</v>
@@ -6098,10 +6098,10 @@
         <v>337.0345879482724</v>
       </c>
       <c r="R41" t="n">
-        <v>0.07294693480497917</v>
+        <v>0.1630627201808847</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7320316021428864</v>
+        <v>1.636354764225714</v>
       </c>
       <c r="T41" t="n">
         <v>0.06843164725288088</v>
@@ -6119,7 +6119,7 @@
         <v>0.4168206389919381</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.3840151881482757</v>
+        <v>0.8584125068125258</v>
       </c>
       <c r="Z41" t="n">
         <v>2.081212019701819</v>
@@ -6237,10 +6237,10 @@
         <v>331.1352407114268</v>
       </c>
       <c r="R42" t="n">
-        <v>0.08667632657636697</v>
+        <v>0.167543647127668</v>
       </c>
       <c r="S42" t="n">
-        <v>0.8686322884856515</v>
+        <v>1.679049255710149</v>
       </c>
       <c r="T42" t="n">
         <v>0.08296110698891673</v>
@@ -6258,7 +6258,7 @@
         <v>0.413693112694614</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.456298808262382</v>
+        <v>0.8820166882468311</v>
       </c>
       <c r="Z42" t="n">
         <v>1.854184416124421</v>
@@ -6381,10 +6381,10 @@
         <v>814.75632417496</v>
       </c>
       <c r="R43" t="n">
-        <v>0.05139518416471017</v>
+        <v>0.2449791045905205</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7588600719679252</v>
+        <v>3.617164992432295</v>
       </c>
       <c r="T43" t="n">
         <v>0.03882686911689606</v>
@@ -6402,7 +6402,7 @@
         <v>0.726709210673945</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.2698256989098499</v>
+        <v>1.286144980093957</v>
       </c>
       <c r="Z43" t="n">
         <v>0.4426029347726712</v>
@@ -6527,10 +6527,10 @@
         <v>441.9871167256845</v>
       </c>
       <c r="R44" t="n">
-        <v>0.09566446350986108</v>
+        <v>0.1966655276033512</v>
       </c>
       <c r="S44" t="n">
-        <v>1.064324053827933</v>
+        <v>2.188020963138853</v>
       </c>
       <c r="T44" t="n">
         <v>0.09164687919790472</v>
@@ -6548,7 +6548,7 @@
         <v>0.5080456836033814</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.5034293100387771</v>
+        <v>1.034942205676631</v>
       </c>
       <c r="Z44" t="n">
         <v>1.286851360720923</v>
@@ -6671,10 +6671,10 @@
         <v>513.0580779015858</v>
       </c>
       <c r="R45" t="n">
-        <v>0.09123654063782105</v>
+        <v>0.2111155566698819</v>
       </c>
       <c r="S45" t="n">
-        <v>1.061668841907705</v>
+        <v>2.45663422781619</v>
       </c>
       <c r="T45" t="n">
         <v>0.08648967094060885</v>
@@ -6692,7 +6692,7 @@
         <v>0.5671329528751325</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.4799844664089837</v>
+        <v>1.110653550764097</v>
       </c>
       <c r="Z45" t="n">
         <v>1.007526740184383</v>
@@ -6815,10 +6815,10 @@
         <v>519.2504533839374</v>
       </c>
       <c r="R46" t="n">
-        <v>0.08581989242486289</v>
+        <v>0.1987670342804565</v>
       </c>
       <c r="S46" t="n">
-        <v>1.06975163481739</v>
+        <v>2.477646543958159</v>
       </c>
       <c r="T46" t="n">
         <v>0.0809787128873658</v>
@@ -6836,7 +6836,7 @@
         <v>0.5798484040952151</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4514752246679474</v>
+        <v>1.045659565897481</v>
       </c>
       <c r="Z46" t="n">
         <v>1.158042790431093</v>
@@ -6959,10 +6959,10 @@
         <v>600.4634256508235</v>
       </c>
       <c r="R47" t="n">
-        <v>0.06510602919909321</v>
+        <v>0.203900316408849</v>
       </c>
       <c r="S47" t="n">
-        <v>0.8694920586555916</v>
+        <v>2.723091978666176</v>
       </c>
       <c r="T47" t="n">
         <v>0.05788207281516351</v>
@@ -6980,7 +6980,7 @@
         <v>0.6433638112022996</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.3423616645838803</v>
+        <v>1.072214856191624</v>
       </c>
       <c r="Z47" t="n">
         <v>0.9630121194272359</v>
@@ -7098,10 +7098,10 @@
         <v>791.7555448934346</v>
       </c>
       <c r="R48" t="n">
-        <v>0.05010397783106888</v>
+        <v>0.2345510652746215</v>
       </c>
       <c r="S48" t="n">
-        <v>0.7448828008906113</v>
+        <v>3.487009655055755</v>
       </c>
       <c r="T48" t="n">
         <v>0.03748880650547584</v>
@@ -7119,7 +7119,7 @@
         <v>0.7645915514326216</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.2631042442176358</v>
+        <v>1.231666295390506</v>
       </c>
       <c r="Z48" t="n">
         <v>0.6068795058448176</v>
@@ -7248,10 +7248,10 @@
         <v>711.4270805998441</v>
       </c>
       <c r="R49" t="n">
-        <v>0.05749807804932797</v>
+        <v>0.2141905373110061</v>
       </c>
       <c r="S49" t="n">
-        <v>0.8497931073350418</v>
+        <v>3.165630025183241</v>
       </c>
       <c r="T49" t="n">
         <v>0.04816561831395953</v>
@@ -7269,7 +7269,7 @@
         <v>0.7317455113260067</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.302134429418109</v>
+        <v>1.125504329409066</v>
       </c>
       <c r="Z49" t="n">
         <v>0.8087012339381878</v>
@@ -7398,10 +7398,10 @@
         <v>711.7082139625784</v>
       </c>
       <c r="R50" t="n">
-        <v>0.06538596967187976</v>
+        <v>0.2169255276104131</v>
       </c>
       <c r="S50" t="n">
-        <v>0.9641417894894451</v>
+        <v>3.198652056791207</v>
       </c>
       <c r="T50" t="n">
         <v>0.05732254885352062</v>
@@ -7419,7 +7419,7 @@
         <v>0.7340561965729249</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.343582106357618</v>
+        <v>1.139873432681948</v>
       </c>
       <c r="Z50" t="n">
         <v>0.7989891325150612</v>
@@ -7548,10 +7548,10 @@
         <v>785.7308120243068</v>
       </c>
       <c r="R51" t="n">
-        <v>0.07868329392428312</v>
+        <v>0.2357946724635503</v>
       </c>
       <c r="S51" t="n">
-        <v>1.191718672573501</v>
+        <v>3.571290677517552</v>
       </c>
       <c r="T51" t="n">
         <v>0.07144469006917817</v>
@@ -7569,7 +7569,7 @@
         <v>0.7877789284343752</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.4132017129569599</v>
+        <v>1.238264918876196</v>
       </c>
       <c r="Z51" t="n">
         <v>0.6482746826574618</v>
@@ -7698,10 +7698,10 @@
         <v>825.387249901403</v>
       </c>
       <c r="R52" t="n">
-        <v>0.09407202051062369</v>
+        <v>0.2468855190885996</v>
       </c>
       <c r="S52" t="n">
-        <v>1.457313216125925</v>
+        <v>3.824617860709115</v>
       </c>
       <c r="T52" t="n">
         <v>0.08785864609317151</v>
@@ -7719,7 +7719,7 @@
         <v>0.815318117015248</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.4938279641801788</v>
+        <v>1.296017377061879</v>
       </c>
       <c r="Z52" t="n">
         <v>0.5924990513966264</v>
@@ -7848,10 +7848,10 @@
         <v>1075.230485536771</v>
       </c>
       <c r="R53" t="n">
-        <v>0.4156871684448924</v>
+        <v>0.4849560917007147</v>
       </c>
       <c r="S53" t="n">
-        <v>7.661122693237147</v>
+        <v>8.937750311733469</v>
       </c>
       <c r="T53" t="n">
         <v>0.4140616658450888</v>
@@ -7869,7 +7869,7 @@
         <v>0.9831031826595126</v>
       </c>
       <c r="Y53" t="n">
-        <v>2.174561585460928</v>
+        <v>2.53692432122173</v>
       </c>
       <c r="Z53" t="n">
         <v>0.4640608572031384</v>

--- a/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
+++ b/results/GAIA_TESS_candidate_matches_unique_stars.xlsx
@@ -465,7 +465,7 @@
     <col width="20" customWidth="1" min="16" max="16"/>
     <col width="23" customWidth="1" min="17" max="17"/>
     <col width="26" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="21" customWidth="1" min="19" max="19"/>
     <col width="30" customWidth="1" min="20" max="20"/>
     <col width="21" customWidth="1" min="21" max="21"/>
     <col width="41" customWidth="1" min="22" max="22"/>
@@ -768,37 +768,37 @@
         <v>0.7259589</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6687555258669828</v>
+        <v>0.4723303633292488</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2062132450272</v>
+        <v>140.2035592597601</v>
       </c>
       <c r="R2" t="n">
         <v>260</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1318731682062297</v>
+        <v>0.08842508596596292</v>
       </c>
       <c r="T2" t="n">
-        <v>1.019880171092267</v>
+        <v>0.5747214936203638</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07375032924735929</v>
+        <v>0.07373597010466124</v>
       </c>
       <c r="V2" t="n">
-        <v>0.570369995913654</v>
+        <v>0.4792491452980848</v>
       </c>
       <c r="W2" t="n">
         <v>0.3960370316763416</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5777103562940057</v>
+        <v>0.2404719358073799</v>
       </c>
       <c r="Y2" t="n">
         <v>0.2981269094853483</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7081549143866386</v>
+        <v>0.474932499321271</v>
       </c>
       <c r="AA2" t="n">
         <v>1.868830615026467</v>
@@ -921,37 +921,37 @@
         <v>0.6427813</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5937637878082087</v>
+        <v>0.4205686640219093</v>
       </c>
       <c r="Q3" t="n">
-        <v>197.6108576999949</v>
+        <v>117.8000861903223</v>
       </c>
       <c r="R3" t="n">
         <v>276</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1122563361041004</v>
+        <v>0.07456781122585729</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8180441313395623</v>
+        <v>0.4573291322971118</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0611231970423051</v>
+        <v>0.06111404150919723</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4454222751649469</v>
+        <v>0.3748163063270806</v>
       </c>
       <c r="W3" t="n">
         <v>0.3382067200638181</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5105784111935039</v>
+        <v>0.212528263659296</v>
       </c>
       <c r="Y3" t="n">
         <v>0.2713711300321883</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6211364764489026</v>
+        <v>0.4126602370625386</v>
       </c>
       <c r="AA3" t="n">
         <v>2.692255921705275</v>
@@ -1071,37 +1071,37 @@
         <v>0.81973535</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8019022136010978</v>
+        <v>0.5718412463218272</v>
       </c>
       <c r="Q4" t="n">
-        <v>296.3069521563592</v>
+        <v>178.4320803110084</v>
       </c>
       <c r="R4" t="n">
         <v>164</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1801654842223513</v>
+        <v>0.1215599161033057</v>
       </c>
       <c r="T4" t="n">
-        <v>1.597062214762744</v>
+        <v>0.9099502856655908</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1022715612806833</v>
+        <v>0.1022438583907255</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9065778990419334</v>
+        <v>0.7653577851364012</v>
       </c>
       <c r="W4" t="n">
         <v>0.43611159210275</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6234998358153698</v>
+        <v>0.2595318066581477</v>
       </c>
       <c r="Y4" t="n">
         <v>0.3598173993901568</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.768270819201945</v>
+        <v>0.5185024253006697</v>
       </c>
       <c r="AA4" t="n">
         <v>1.422152235494093</v>
@@ -1224,37 +1224,37 @@
         <v>0.72640634</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7799808915973163</v>
+        <v>0.5581335994204907</v>
       </c>
       <c r="Q5" t="n">
-        <v>277.3751454749433</v>
+        <v>167.8992861418995</v>
       </c>
       <c r="R5" t="n">
         <v>237</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1349139172865518</v>
+        <v>0.08827337731641663</v>
       </c>
       <c r="T5" t="n">
-        <v>1.208666246344946</v>
+        <v>0.6689697604315441</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07202805044197266</v>
+        <v>0.07201059816602934</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6452846015458589</v>
+        <v>0.5457241364062082</v>
       </c>
       <c r="W5" t="n">
         <v>0.3692478537982805</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5751360855735874</v>
+        <v>0.2394003956200058</v>
       </c>
       <c r="Y5" t="n">
         <v>0.3499869310089186</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.6916288043324365</v>
+        <v>0.4526383053569616</v>
       </c>
       <c r="AA5" t="n">
         <v>2.146171637580412</v>
@@ -1382,37 +1382,37 @@
         <v>0.87753767</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9716237526329787</v>
+        <v>0.7001746024968</v>
       </c>
       <c r="Q6" t="n">
-        <v>372.8628471243722</v>
+        <v>228.0927372156346</v>
       </c>
       <c r="R6" t="n">
         <v>177</v>
       </c>
       <c r="S6" t="n">
-        <v>0.166234507986304</v>
+        <v>0.09483997034262538</v>
       </c>
       <c r="T6" t="n">
-        <v>1.719165057290658</v>
+        <v>0.8326105656603114</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06701228965753259</v>
+        <v>0.06698611160786123</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6930281094089195</v>
+        <v>0.5880784660277253</v>
       </c>
       <c r="W6" t="n">
         <v>0.2968004293325617</v>
       </c>
       <c r="X6" t="n">
-        <v>0.6649047401228873</v>
+        <v>0.2767665980761518</v>
       </c>
       <c r="Y6" t="n">
         <v>0.4347514501334363</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7362600739710177</v>
+        <v>0.4202146271806473</v>
       </c>
       <c r="AA6" t="n">
         <v>1.302223015332145</v>
@@ -1535,37 +1535,37 @@
         <v>1.0581557</v>
       </c>
       <c r="P7" t="n">
-        <v>1.392180965178254</v>
+        <v>1.019914157386467</v>
       </c>
       <c r="Q7" t="n">
-        <v>618.5008542055614</v>
+        <v>387.8307114221698</v>
       </c>
       <c r="R7" t="n">
         <v>248</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1725858284939422</v>
+        <v>0.08019680609824066</v>
       </c>
       <c r="T7" t="n">
-        <v>2.209049609459966</v>
+        <v>0.8786003547184101</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03216854267154463</v>
+        <v>0.03213493902083905</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4117482138921168</v>
+        <v>0.3520560256224849</v>
       </c>
       <c r="W7" t="n">
         <v>0.1684633464066345</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8799323101442086</v>
+        <v>0.3662718240975267</v>
       </c>
       <c r="Y7" t="n">
         <v>0.6495667435386698</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.9038142171161946</v>
+        <v>0.4204215952509643</v>
       </c>
       <c r="AA7" t="n">
         <v>0.7940434459215121</v>
@@ -1693,37 +1693,37 @@
         <v>1.0391837</v>
       </c>
       <c r="P8" t="n">
-        <v>1.454174670018952</v>
+        <v>1.07104920097898</v>
       </c>
       <c r="Q8" t="n">
-        <v>629.1192635044721</v>
+        <v>397.6694718519936</v>
       </c>
       <c r="R8" t="n">
         <v>267</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1823585078650704</v>
+        <v>0.1177110321319092</v>
       </c>
       <c r="T8" t="n">
-        <v>2.503660604420008</v>
+        <v>1.386957062992251</v>
       </c>
       <c r="U8" t="n">
-        <v>0.09662631681358466</v>
+        <v>0.09652239426565881</v>
       </c>
       <c r="V8" t="n">
-        <v>1.326614840122393</v>
+        <v>1.137297108342898</v>
       </c>
       <c r="W8" t="n">
         <v>0.5250145676329359</v>
       </c>
       <c r="X8" t="n">
-        <v>0.8316581356350299</v>
+        <v>0.3461776989580811</v>
       </c>
       <c r="Y8" t="n">
         <v>0.6679256467534116</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.9908364130827257</v>
+        <v>0.6402659933017059</v>
       </c>
       <c r="AA8" t="n">
         <v>0.9234073075493245</v>
@@ -1846,37 +1846,37 @@
         <v>1.3640201</v>
       </c>
       <c r="P9" t="n">
-        <v>1.840863841774259</v>
+        <v>1.361273927133048</v>
       </c>
       <c r="Q9" t="n">
-        <v>904.1628817043562</v>
+        <v>574.953156589773</v>
       </c>
       <c r="R9" t="n">
         <v>235</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2306024557874182</v>
+        <v>0.128554978317513</v>
       </c>
       <c r="T9" t="n">
-        <v>3.530285645418739</v>
+        <v>1.692375571059443</v>
       </c>
       <c r="U9" t="n">
-        <v>0.09100712088693014</v>
+        <v>0.09075829707541901</v>
       </c>
       <c r="V9" t="n">
-        <v>1.393225112893818</v>
+        <v>1.194797174342258</v>
       </c>
       <c r="W9" t="n">
         <v>0.4627808859021166</v>
       </c>
       <c r="X9" t="n">
-        <v>1.069355013681478</v>
+        <v>0.445119024444915</v>
       </c>
       <c r="Y9" t="n">
         <v>0.859860440948725</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.172638006130258</v>
+        <v>0.6555079664338384</v>
       </c>
       <c r="AA9" t="n">
         <v>0.4010475516097816</v>
@@ -1996,37 +1996,37 @@
         <v>1.1213895</v>
       </c>
       <c r="P10" t="n">
-        <v>1.611889570637861</v>
+        <v>1.193679569246113</v>
       </c>
       <c r="Q10" t="n">
-        <v>720.4235374552807</v>
+        <v>459.1098458480349</v>
       </c>
       <c r="R10" t="n">
         <v>189</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2143302730007709</v>
+        <v>0.1220241098281319</v>
       </c>
       <c r="T10" t="n">
-        <v>3.157297112102346</v>
+        <v>1.546870014982985</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08769476924745735</v>
+        <v>0.08756530346934376</v>
       </c>
       <c r="V10" t="n">
-        <v>1.291830770403968</v>
+        <v>1.110044092764901</v>
       </c>
       <c r="W10" t="n">
         <v>0.4006375920470468</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8847083056583271</v>
+        <v>0.3682598322302786</v>
       </c>
       <c r="Y10" t="n">
         <v>0.7463073840899519</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.9791777230807265</v>
+        <v>0.5582969920311238</v>
       </c>
       <c r="AA10" t="n">
         <v>0.7632154238682607</v>
@@ -2154,37 +2154,37 @@
         <v>1.29371</v>
       </c>
       <c r="P11" t="n">
-        <v>1.985694857738427</v>
+        <v>1.477936038466737</v>
       </c>
       <c r="Q11" t="n">
-        <v>942.2558822683638</v>
+        <v>605.0392506059865</v>
       </c>
       <c r="R11" t="n">
         <v>246</v>
       </c>
       <c r="S11" t="n">
-        <v>0.374279685209408</v>
+        <v>0.3304522886183035</v>
       </c>
       <c r="T11" t="n">
-        <v>6.397373081970478</v>
+        <v>4.872880388587285</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3207300012484742</v>
+        <v>0.3197505609100884</v>
       </c>
       <c r="V11" t="n">
-        <v>5.48207545760694</v>
+        <v>4.715071709787069</v>
       </c>
       <c r="W11" t="n">
         <v>1.66786686825826</v>
       </c>
       <c r="X11" t="n">
-        <v>0.9941705828986513</v>
+        <v>0.4138235051315636</v>
       </c>
       <c r="Y11" t="n">
         <v>0.898493054617561</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.946337056068814</v>
+        <v>1.723688684572985</v>
       </c>
       <c r="AA11" t="n">
         <v>0.5432197344943213</v>
@@ -2307,37 +2307,37 @@
         <v>1.3849748</v>
       </c>
       <c r="P12" t="n">
-        <v>2.202617345650118</v>
+        <v>1.643165843958127</v>
       </c>
       <c r="Q12" t="n">
-        <v>1075.230485536771</v>
+        <v>692.8114952454029</v>
       </c>
       <c r="R12" t="n">
         <v>197</v>
       </c>
       <c r="S12" t="n">
-        <v>0.6736569093162202</v>
+        <v>0.6385336411494568</v>
       </c>
       <c r="T12" t="n">
-        <v>12.41551009314516</v>
+        <v>10.16437674197399</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6338143194749426</v>
+        <v>0.6309002809125057</v>
       </c>
       <c r="V12" t="n">
-        <v>11.68121037845282</v>
+        <v>10.04286654383328</v>
       </c>
       <c r="W12" t="n">
         <v>2.943270980723555</v>
       </c>
       <c r="X12" t="n">
-        <v>1.050565422792807</v>
+        <v>0.437297857237506</v>
       </c>
       <c r="Y12" t="n">
         <v>0.9831031826595126</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.128289739172953</v>
+        <v>2.97888207228676</v>
       </c>
       <c r="AA12" t="n">
         <v>0.4640608572031384</v>
